--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>145500</v>
+        <v>132600</v>
       </c>
       <c r="E8" s="3">
-        <v>128200</v>
+        <v>144900</v>
       </c>
       <c r="F8" s="3">
-        <v>114700</v>
+        <v>124200</v>
       </c>
       <c r="G8" s="3">
-        <v>116700</v>
+        <v>108500</v>
       </c>
       <c r="H8" s="3">
-        <v>95200</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+        <v>99100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>98000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>76600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>18900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>26300</v>
+        <v>27700</v>
       </c>
       <c r="E9" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="F9" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="G9" s="3">
-        <v>23600</v>
+        <v>18600</v>
       </c>
       <c r="H9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K9" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>16500</v>
+      </c>
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="I9" s="3">
-        <v>16400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>16500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>18800</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>13800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>12900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>119300</v>
+        <v>104900</v>
       </c>
       <c r="E10" s="3">
-        <v>104700</v>
+        <v>121100</v>
       </c>
       <c r="F10" s="3">
-        <v>94800</v>
+        <v>103400</v>
       </c>
       <c r="G10" s="3">
-        <v>93000</v>
+        <v>89800</v>
       </c>
       <c r="H10" s="3">
-        <v>76400</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>83300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>61700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>5200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,25 +1007,31 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3800</v>
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>3700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -994,11 +1039,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69300</v>
+        <v>62800</v>
       </c>
       <c r="E17" s="3">
-        <v>69500</v>
+        <v>57800</v>
       </c>
       <c r="F17" s="3">
-        <v>52400</v>
+        <v>54900</v>
       </c>
       <c r="G17" s="3">
-        <v>64200</v>
+        <v>55100</v>
       </c>
       <c r="H17" s="3">
-        <v>46700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+        <v>41500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>50900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>36000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>28600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>76200</v>
+        <v>69900</v>
       </c>
       <c r="E18" s="3">
-        <v>58700</v>
+        <v>87100</v>
       </c>
       <c r="F18" s="3">
-        <v>62400</v>
+        <v>69300</v>
       </c>
       <c r="G18" s="3">
-        <v>52500</v>
+        <v>53400</v>
       </c>
       <c r="H18" s="3">
-        <v>48500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+        <v>57600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>39700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-17000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,69 +1176,77 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-12200</v>
+        <v>-27700</v>
       </c>
       <c r="E20" s="3">
-        <v>-9900</v>
+        <v>-20000</v>
       </c>
       <c r="F20" s="3">
-        <v>-5200</v>
+        <v>-18600</v>
       </c>
       <c r="G20" s="3">
-        <v>-10600</v>
+        <v>-14700</v>
       </c>
       <c r="H20" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+        <v>-12300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-15400</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>14400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>10500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>74200</v>
+        <v>53300</v>
       </c>
       <c r="E21" s="3">
-        <v>56800</v>
+        <v>77400</v>
       </c>
       <c r="F21" s="3">
-        <v>64100</v>
+        <v>58800</v>
       </c>
       <c r="G21" s="3">
-        <v>48400</v>
+        <v>45000</v>
       </c>
       <c r="H21" s="3">
-        <v>36300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+        <v>50800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>28700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1181,14 +1254,20 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64000</v>
+        <v>42200</v>
       </c>
       <c r="E23" s="3">
-        <v>48800</v>
+        <v>67100</v>
       </c>
       <c r="F23" s="3">
-        <v>57200</v>
+        <v>50700</v>
       </c>
       <c r="G23" s="3">
-        <v>41900</v>
+        <v>38700</v>
       </c>
       <c r="H23" s="3">
-        <v>30600</v>
+        <v>45300</v>
       </c>
       <c r="I23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K23" s="3">
         <v>19900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19300</v>
+        <v>12800</v>
       </c>
       <c r="E24" s="3">
-        <v>8700</v>
+        <v>18300</v>
       </c>
       <c r="F24" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="G24" s="3">
-        <v>12200</v>
+        <v>6900</v>
       </c>
       <c r="H24" s="3">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="I24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44700</v>
+        <v>29300</v>
       </c>
       <c r="E26" s="3">
-        <v>40100</v>
+        <v>48800</v>
       </c>
       <c r="F26" s="3">
-        <v>41300</v>
+        <v>35400</v>
       </c>
       <c r="G26" s="3">
-        <v>29700</v>
+        <v>31800</v>
       </c>
       <c r="H26" s="3">
-        <v>21100</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44600</v>
+        <v>29400</v>
       </c>
       <c r="E27" s="3">
-        <v>40200</v>
+        <v>48700</v>
       </c>
       <c r="F27" s="3">
-        <v>41400</v>
+        <v>35400</v>
       </c>
       <c r="G27" s="3">
-        <v>29800</v>
+        <v>31800</v>
       </c>
       <c r="H27" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>16400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>12200</v>
+        <v>27700</v>
       </c>
       <c r="E32" s="3">
-        <v>9900</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="3">
-        <v>5200</v>
+        <v>18600</v>
       </c>
       <c r="G32" s="3">
-        <v>10600</v>
+        <v>14700</v>
       </c>
       <c r="H32" s="3">
-        <v>18000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+        <v>12300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>15400</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>-14400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-10500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44600</v>
+        <v>29400</v>
       </c>
       <c r="E33" s="3">
-        <v>40200</v>
+        <v>48700</v>
       </c>
       <c r="F33" s="3">
-        <v>41400</v>
+        <v>35400</v>
       </c>
       <c r="G33" s="3">
-        <v>29800</v>
+        <v>31800</v>
       </c>
       <c r="H33" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>16400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44600</v>
+        <v>29400</v>
       </c>
       <c r="E35" s="3">
-        <v>40200</v>
+        <v>48700</v>
       </c>
       <c r="F35" s="3">
-        <v>41400</v>
+        <v>35400</v>
       </c>
       <c r="G35" s="3">
-        <v>29800</v>
+        <v>31800</v>
       </c>
       <c r="H35" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>16400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1965,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>57200</v>
+        <v>281000</v>
       </c>
       <c r="E41" s="3">
-        <v>37500</v>
+        <v>179200</v>
       </c>
       <c r="F41" s="3">
-        <v>20300</v>
+        <v>45400</v>
       </c>
       <c r="G41" s="3">
-        <v>69600</v>
+        <v>29700</v>
       </c>
       <c r="H41" s="3">
-        <v>40500</v>
+        <v>16100</v>
       </c>
       <c r="I41" s="3">
+        <v>55100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K41" s="3">
         <v>33400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1832,35 +2005,41 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>660700</v>
+        <v>445400</v>
       </c>
       <c r="E42" s="3">
-        <v>631600</v>
+        <v>543400</v>
       </c>
       <c r="F42" s="3">
-        <v>621200</v>
+        <v>523500</v>
       </c>
       <c r="G42" s="3">
-        <v>647000</v>
+        <v>500500</v>
       </c>
       <c r="H42" s="3">
-        <v>33200</v>
+        <v>492200</v>
       </c>
       <c r="I42" s="3">
+        <v>512600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K42" s="3">
         <v>48800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1870,35 +2049,41 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2987200</v>
+        <v>2434800</v>
       </c>
       <c r="E43" s="3">
-        <v>2960900</v>
+        <v>2658300</v>
       </c>
       <c r="F43" s="3">
-        <v>2461300</v>
+        <v>2343000</v>
       </c>
       <c r="G43" s="3">
-        <v>2184100</v>
+        <v>2342900</v>
       </c>
       <c r="H43" s="3">
-        <v>1560700</v>
+        <v>1949000</v>
       </c>
       <c r="I43" s="3">
+        <v>1729300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1233300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1385400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,35 +2137,41 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>48000</v>
       </c>
       <c r="E45" s="3">
-        <v>7400</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>28100</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>9000</v>
       </c>
       <c r="H45" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="I45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1984,35 +2181,41 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3710400</v>
+        <v>3209200</v>
       </c>
       <c r="E46" s="3">
-        <v>3637400</v>
+        <v>3405500</v>
       </c>
       <c r="F46" s="3">
-        <v>3110100</v>
+        <v>2940000</v>
       </c>
       <c r="G46" s="3">
-        <v>2904500</v>
+        <v>2882100</v>
       </c>
       <c r="H46" s="3">
-        <v>1640700</v>
+        <v>2464300</v>
       </c>
       <c r="I46" s="3">
+        <v>2301400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1471500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,35 +2225,41 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="E47" s="3">
-        <v>8900</v>
+        <v>7600</v>
       </c>
       <c r="F47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="G47" s="3">
-        <v>4400</v>
-      </c>
       <c r="H47" s="3">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="I47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2060,35 +2269,41 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>111800</v>
+        <v>110000</v>
       </c>
       <c r="E48" s="3">
-        <v>87800</v>
+        <v>101500</v>
       </c>
       <c r="F48" s="3">
-        <v>78300</v>
+        <v>88600</v>
       </c>
       <c r="G48" s="3">
-        <v>62200</v>
+        <v>69500</v>
       </c>
       <c r="H48" s="3">
-        <v>59000</v>
+        <v>62100</v>
       </c>
       <c r="I48" s="3">
+        <v>49300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K48" s="3">
         <v>57400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2098,35 +2313,41 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85700</v>
+        <v>70600</v>
       </c>
       <c r="E49" s="3">
-        <v>75500</v>
+        <v>69100</v>
       </c>
       <c r="F49" s="3">
-        <v>73000</v>
+        <v>67900</v>
       </c>
       <c r="G49" s="3">
-        <v>71800</v>
+        <v>59800</v>
       </c>
       <c r="H49" s="3">
-        <v>71600</v>
+        <v>57900</v>
       </c>
       <c r="I49" s="3">
+        <v>56900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K49" s="3">
         <v>55900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2445,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56100</v>
+        <v>46600</v>
       </c>
       <c r="E52" s="3">
-        <v>61200</v>
+        <v>43900</v>
       </c>
       <c r="F52" s="3">
-        <v>62600</v>
+        <v>46700</v>
       </c>
       <c r="G52" s="3">
-        <v>61300</v>
+        <v>50500</v>
       </c>
       <c r="H52" s="3">
-        <v>58100</v>
+        <v>51300</v>
       </c>
       <c r="I52" s="3">
+        <v>50200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K52" s="3">
         <v>54500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2533,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3973700</v>
+        <v>3445500</v>
       </c>
       <c r="E54" s="3">
-        <v>3870800</v>
+        <v>3627700</v>
       </c>
       <c r="F54" s="3">
-        <v>3329100</v>
+        <v>3148600</v>
       </c>
       <c r="G54" s="3">
-        <v>3104200</v>
+        <v>3067000</v>
       </c>
       <c r="H54" s="3">
-        <v>1833400</v>
+        <v>2637800</v>
       </c>
       <c r="I54" s="3">
+        <v>2459600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1452700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1643300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,35 +2617,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1356800</v>
+        <v>1050400</v>
       </c>
       <c r="E57" s="3">
-        <v>1375800</v>
+        <v>1220800</v>
       </c>
       <c r="F57" s="3">
-        <v>1358800</v>
+        <v>1075000</v>
       </c>
       <c r="G57" s="3">
-        <v>1194200</v>
+        <v>1090100</v>
       </c>
       <c r="H57" s="3">
-        <v>1092100</v>
+        <v>1076600</v>
       </c>
       <c r="I57" s="3">
+        <v>946200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>865300</v>
+      </c>
+      <c r="K57" s="3">
         <v>940200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2396,35 +2657,41 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>648400</v>
+        <v>788200</v>
       </c>
       <c r="E58" s="3">
-        <v>496000</v>
+        <v>932300</v>
       </c>
       <c r="F58" s="3">
-        <v>307900</v>
+        <v>513700</v>
       </c>
       <c r="G58" s="3">
-        <v>181600</v>
+        <v>393000</v>
       </c>
       <c r="H58" s="3">
-        <v>13600</v>
+        <v>244000</v>
       </c>
       <c r="I58" s="3">
+        <v>143900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2434,35 +2701,41 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42300</v>
+        <v>54200</v>
       </c>
       <c r="E59" s="3">
-        <v>44400</v>
+        <v>43700</v>
       </c>
       <c r="F59" s="3">
-        <v>43300</v>
+        <v>33500</v>
       </c>
       <c r="G59" s="3">
-        <v>38100</v>
+        <v>35200</v>
       </c>
       <c r="H59" s="3">
-        <v>59200</v>
+        <v>34300</v>
       </c>
       <c r="I59" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K59" s="3">
         <v>27900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2472,35 +2745,41 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2047400</v>
+        <v>1892800</v>
       </c>
       <c r="E60" s="3">
-        <v>1916300</v>
+        <v>2196800</v>
       </c>
       <c r="F60" s="3">
-        <v>1710000</v>
+        <v>1622300</v>
       </c>
       <c r="G60" s="3">
-        <v>1413900</v>
+        <v>1518400</v>
       </c>
       <c r="H60" s="3">
-        <v>1164900</v>
+        <v>1354900</v>
       </c>
       <c r="I60" s="3">
+        <v>1120300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>923000</v>
+      </c>
+      <c r="K60" s="3">
         <v>972100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,35 +2789,41 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>584800</v>
+        <v>373600</v>
       </c>
       <c r="E61" s="3">
-        <v>661200</v>
+        <v>315900</v>
       </c>
       <c r="F61" s="3">
-        <v>369100</v>
+        <v>463400</v>
       </c>
       <c r="G61" s="3">
-        <v>480900</v>
+        <v>523900</v>
       </c>
       <c r="H61" s="3">
-        <v>480900</v>
+        <v>292500</v>
       </c>
       <c r="I61" s="3">
+        <v>381000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K61" s="3">
         <v>481100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,35 +2833,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25600</v>
+        <v>9300</v>
       </c>
       <c r="E62" s="3">
-        <v>24500</v>
+        <v>9800</v>
       </c>
       <c r="F62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G62" s="3">
         <v>19400</v>
       </c>
-      <c r="G62" s="3">
-        <v>20100</v>
-      </c>
       <c r="H62" s="3">
-        <v>23100</v>
+        <v>15400</v>
       </c>
       <c r="I62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K62" s="3">
         <v>18800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3009,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2657700</v>
+        <v>2292900</v>
       </c>
       <c r="E66" s="3">
-        <v>2601800</v>
+        <v>2522600</v>
       </c>
       <c r="F66" s="3">
-        <v>2098400</v>
+        <v>2105900</v>
       </c>
       <c r="G66" s="3">
-        <v>1914800</v>
+        <v>2061600</v>
       </c>
       <c r="H66" s="3">
-        <v>1673300</v>
+        <v>1662700</v>
       </c>
       <c r="I66" s="3">
+        <v>1517200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1325800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1476000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3247,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1334100</v>
+        <v>1174600</v>
       </c>
       <c r="E72" s="3">
-        <v>1288000</v>
+        <v>1118500</v>
       </c>
       <c r="F72" s="3">
-        <v>1245800</v>
+        <v>1057100</v>
       </c>
       <c r="G72" s="3">
-        <v>1202500</v>
+        <v>1020600</v>
       </c>
       <c r="H72" s="3">
-        <v>167700</v>
+        <v>987100</v>
       </c>
       <c r="I72" s="3">
+        <v>952800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K72" s="3">
         <v>175600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3423,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1316000</v>
+        <v>1152600</v>
       </c>
       <c r="E76" s="3">
-        <v>1268900</v>
+        <v>1105100</v>
       </c>
       <c r="F76" s="3">
-        <v>1230700</v>
+        <v>1042700</v>
       </c>
       <c r="G76" s="3">
-        <v>1189400</v>
+        <v>1005500</v>
       </c>
       <c r="H76" s="3">
-        <v>160100</v>
+        <v>975100</v>
       </c>
       <c r="I76" s="3">
+        <v>942400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K76" s="3">
         <v>167300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44600</v>
+        <v>29400</v>
       </c>
       <c r="E81" s="3">
-        <v>40200</v>
+        <v>48700</v>
       </c>
       <c r="F81" s="3">
-        <v>41400</v>
+        <v>35400</v>
       </c>
       <c r="G81" s="3">
-        <v>29800</v>
+        <v>31800</v>
       </c>
       <c r="H81" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+        <v>32800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>16400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10200</v>
+        <v>11100</v>
       </c>
       <c r="E83" s="3">
-        <v>8000</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="G83" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H83" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44400</v>
+        <v>67100</v>
       </c>
       <c r="E89" s="3">
-        <v>-439900</v>
+        <v>-122800</v>
       </c>
       <c r="F89" s="3">
-        <v>-68900</v>
+        <v>35200</v>
       </c>
       <c r="G89" s="3">
-        <v>-496400</v>
+        <v>-348500</v>
       </c>
       <c r="H89" s="3">
-        <v>19400</v>
+        <v>-54600</v>
       </c>
       <c r="I89" s="3">
+        <v>-393300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-32200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-54900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-130100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46100</v>
+        <v>-16700</v>
       </c>
       <c r="E91" s="3">
-        <v>-14600</v>
+        <v>-3600</v>
       </c>
       <c r="F91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-12800</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-69600</v>
+        <v>91500</v>
       </c>
       <c r="E94" s="3">
-        <v>-24400</v>
+        <v>-23100</v>
       </c>
       <c r="F94" s="3">
-        <v>21100</v>
+        <v>-55200</v>
       </c>
       <c r="G94" s="3">
-        <v>-615800</v>
+        <v>-19400</v>
       </c>
       <c r="H94" s="3">
-        <v>5400</v>
+        <v>16700</v>
       </c>
       <c r="I94" s="3">
+        <v>-487900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-17900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>26700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>44400</v>
+        <v>-56300</v>
       </c>
       <c r="E100" s="3">
-        <v>481800</v>
+        <v>279600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1500</v>
+        <v>35200</v>
       </c>
       <c r="G100" s="3">
-        <v>1139100</v>
+        <v>381700</v>
       </c>
       <c r="H100" s="3">
-        <v>-18800</v>
+        <v>-1200</v>
       </c>
       <c r="I100" s="3">
+        <v>902600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>229100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>500</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19700</v>
+        <v>101800</v>
       </c>
       <c r="E102" s="3">
-        <v>17200</v>
+        <v>133800</v>
       </c>
       <c r="F102" s="3">
-        <v>-49300</v>
+        <v>15600</v>
       </c>
       <c r="G102" s="3">
-        <v>29000</v>
+        <v>13600</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>-39000</v>
       </c>
       <c r="I102" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-42600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-74000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>125900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>132600</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>144900</v>
+        <v>127900</v>
       </c>
       <c r="F8" s="3">
-        <v>124200</v>
+        <v>139700</v>
       </c>
       <c r="G8" s="3">
-        <v>108500</v>
+        <v>119700</v>
       </c>
       <c r="H8" s="3">
-        <v>99100</v>
+        <v>104600</v>
       </c>
       <c r="I8" s="3">
-        <v>98000</v>
+        <v>95600</v>
       </c>
       <c r="J8" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K8" s="3">
         <v>76600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>18900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>27700</v>
+        <v>35400</v>
       </c>
       <c r="E9" s="3">
-        <v>23700</v>
+        <v>26700</v>
       </c>
       <c r="F9" s="3">
-        <v>20800</v>
+        <v>22900</v>
       </c>
       <c r="G9" s="3">
-        <v>18600</v>
+        <v>20100</v>
       </c>
       <c r="H9" s="3">
-        <v>15800</v>
+        <v>18000</v>
       </c>
       <c r="I9" s="3">
-        <v>18700</v>
+        <v>15200</v>
       </c>
       <c r="J9" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K9" s="3">
         <v>14900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>104900</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>121100</v>
+        <v>101100</v>
       </c>
       <c r="F10" s="3">
-        <v>103400</v>
+        <v>116800</v>
       </c>
       <c r="G10" s="3">
-        <v>89800</v>
+        <v>99700</v>
       </c>
       <c r="H10" s="3">
-        <v>83300</v>
+        <v>86600</v>
       </c>
       <c r="I10" s="3">
-        <v>79200</v>
+        <v>80400</v>
       </c>
       <c r="J10" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K10" s="3">
         <v>61700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>5200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,28 +1033,31 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>3700</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3700</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="H15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+        <v>2900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1045,8 +1068,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>62800</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>57800</v>
+        <v>60500</v>
       </c>
       <c r="F17" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="G17" s="3">
-        <v>55100</v>
+        <v>52900</v>
       </c>
       <c r="H17" s="3">
-        <v>41500</v>
+        <v>53100</v>
       </c>
       <c r="I17" s="3">
-        <v>50900</v>
+        <v>40000</v>
       </c>
       <c r="J17" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K17" s="3">
         <v>37000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3">
         <v>36000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>28600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>69900</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>87100</v>
+        <v>67400</v>
       </c>
       <c r="F18" s="3">
-        <v>69300</v>
+        <v>84000</v>
       </c>
       <c r="G18" s="3">
-        <v>53400</v>
+        <v>66800</v>
       </c>
       <c r="H18" s="3">
-        <v>57600</v>
+        <v>51500</v>
       </c>
       <c r="I18" s="3">
-        <v>47100</v>
+        <v>55600</v>
       </c>
       <c r="J18" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K18" s="3">
         <v>39700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-17000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,79 +1211,83 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-27700</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-20000</v>
+        <v>-26700</v>
       </c>
       <c r="F20" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="G20" s="3">
-        <v>-14700</v>
+        <v>-17900</v>
       </c>
       <c r="H20" s="3">
-        <v>-12300</v>
+        <v>-14100</v>
       </c>
       <c r="I20" s="3">
-        <v>-13900</v>
+        <v>-11900</v>
       </c>
       <c r="J20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>14400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>53300</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>77400</v>
+        <v>51400</v>
       </c>
       <c r="F21" s="3">
-        <v>58800</v>
+        <v>74600</v>
       </c>
       <c r="G21" s="3">
-        <v>45000</v>
+        <v>56700</v>
       </c>
       <c r="H21" s="3">
-        <v>50800</v>
+        <v>43400</v>
       </c>
       <c r="I21" s="3">
-        <v>38300</v>
+        <v>49000</v>
       </c>
       <c r="J21" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K21" s="3">
         <v>28700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1260,14 +1297,17 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42200</v>
+        <v>28500</v>
       </c>
       <c r="E23" s="3">
-        <v>67100</v>
+        <v>40700</v>
       </c>
       <c r="F23" s="3">
-        <v>50700</v>
+        <v>64700</v>
       </c>
       <c r="G23" s="3">
-        <v>38700</v>
+        <v>48900</v>
       </c>
       <c r="H23" s="3">
-        <v>45300</v>
+        <v>37300</v>
       </c>
       <c r="I23" s="3">
-        <v>33200</v>
+        <v>43700</v>
       </c>
       <c r="J23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K23" s="3">
         <v>24200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>12800</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>18300</v>
+        <v>12400</v>
       </c>
       <c r="F24" s="3">
-        <v>15300</v>
+        <v>17600</v>
       </c>
       <c r="G24" s="3">
-        <v>6900</v>
+        <v>14800</v>
       </c>
       <c r="H24" s="3">
-        <v>12500</v>
+        <v>6700</v>
       </c>
       <c r="I24" s="3">
-        <v>9700</v>
+        <v>12100</v>
       </c>
       <c r="J24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K24" s="3">
         <v>7500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5200</v>
       </c>
       <c r="L24" s="3">
         <v>5200</v>
       </c>
       <c r="M24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>29300</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>48800</v>
+        <v>28300</v>
       </c>
       <c r="F26" s="3">
-        <v>35400</v>
+        <v>47100</v>
       </c>
       <c r="G26" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="H26" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="I26" s="3">
-        <v>23500</v>
+        <v>31600</v>
       </c>
       <c r="J26" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K26" s="3">
         <v>16700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>29400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>48700</v>
+        <v>28300</v>
       </c>
       <c r="F27" s="3">
-        <v>35400</v>
+        <v>46900</v>
       </c>
       <c r="G27" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="H27" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="I27" s="3">
-        <v>23600</v>
+        <v>31600</v>
       </c>
       <c r="J27" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K27" s="3">
         <v>16400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>27700</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>20000</v>
+        <v>26700</v>
       </c>
       <c r="F32" s="3">
-        <v>18600</v>
+        <v>19300</v>
       </c>
       <c r="G32" s="3">
-        <v>14700</v>
+        <v>17900</v>
       </c>
       <c r="H32" s="3">
-        <v>12300</v>
+        <v>14100</v>
       </c>
       <c r="I32" s="3">
-        <v>13900</v>
+        <v>11900</v>
       </c>
       <c r="J32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K32" s="3">
         <v>15400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-14400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>29400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>48700</v>
+        <v>28300</v>
       </c>
       <c r="F33" s="3">
-        <v>35400</v>
+        <v>46900</v>
       </c>
       <c r="G33" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="H33" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="I33" s="3">
-        <v>23600</v>
+        <v>31600</v>
       </c>
       <c r="J33" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K33" s="3">
         <v>16400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>29400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>48700</v>
+        <v>28300</v>
       </c>
       <c r="F35" s="3">
-        <v>35400</v>
+        <v>46900</v>
       </c>
       <c r="G35" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="H35" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="I35" s="3">
-        <v>23600</v>
+        <v>31600</v>
       </c>
       <c r="J35" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K35" s="3">
         <v>16400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>281000</v>
+        <v>495400</v>
       </c>
       <c r="E41" s="3">
-        <v>179200</v>
+        <v>270900</v>
       </c>
       <c r="F41" s="3">
-        <v>45400</v>
+        <v>172800</v>
       </c>
       <c r="G41" s="3">
-        <v>29700</v>
+        <v>43700</v>
       </c>
       <c r="H41" s="3">
-        <v>16100</v>
+        <v>28700</v>
       </c>
       <c r="I41" s="3">
-        <v>55100</v>
+        <v>15500</v>
       </c>
       <c r="J41" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K41" s="3">
         <v>32100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2011,38 +2098,41 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>445400</v>
+        <v>140700</v>
       </c>
       <c r="E42" s="3">
-        <v>543400</v>
+        <v>429400</v>
       </c>
       <c r="F42" s="3">
-        <v>523500</v>
+        <v>524000</v>
       </c>
       <c r="G42" s="3">
-        <v>500500</v>
+        <v>504800</v>
       </c>
       <c r="H42" s="3">
-        <v>492200</v>
+        <v>482500</v>
       </c>
       <c r="I42" s="3">
-        <v>512600</v>
+        <v>474600</v>
       </c>
       <c r="J42" s="3">
+        <v>494300</v>
+      </c>
+      <c r="K42" s="3">
         <v>26300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>48800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2434800</v>
+        <v>2446000</v>
       </c>
       <c r="E43" s="3">
-        <v>2658300</v>
+        <v>2347500</v>
       </c>
       <c r="F43" s="3">
-        <v>2343000</v>
+        <v>2563000</v>
       </c>
       <c r="G43" s="3">
-        <v>2342900</v>
+        <v>2259100</v>
       </c>
       <c r="H43" s="3">
-        <v>1949000</v>
+        <v>2259000</v>
       </c>
       <c r="I43" s="3">
-        <v>1729300</v>
+        <v>1879200</v>
       </c>
       <c r="J43" s="3">
+        <v>1667400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1233300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1385400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>48000</v>
+        <v>75500</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>46300</v>
       </c>
       <c r="F45" s="3">
-        <v>28100</v>
+        <v>23700</v>
       </c>
       <c r="G45" s="3">
-        <v>9000</v>
+        <v>27100</v>
       </c>
       <c r="H45" s="3">
-        <v>7000</v>
+        <v>8700</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="J45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2187,38 +2286,41 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3209200</v>
+        <v>3157600</v>
       </c>
       <c r="E46" s="3">
-        <v>3405500</v>
+        <v>3094200</v>
       </c>
       <c r="F46" s="3">
-        <v>2940000</v>
+        <v>3283400</v>
       </c>
       <c r="G46" s="3">
-        <v>2882100</v>
+        <v>2834600</v>
       </c>
       <c r="H46" s="3">
-        <v>2464300</v>
+        <v>2778800</v>
       </c>
       <c r="I46" s="3">
-        <v>2301400</v>
+        <v>2376000</v>
       </c>
       <c r="J46" s="3">
+        <v>2218900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1300000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1471500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2231,38 +2333,41 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9100</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
-        <v>7600</v>
+        <v>8800</v>
       </c>
       <c r="F47" s="3">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
-        <v>2300</v>
+        <v>4800</v>
       </c>
       <c r="I47" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="J47" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110000</v>
+        <v>107300</v>
       </c>
       <c r="E48" s="3">
-        <v>101500</v>
+        <v>106100</v>
       </c>
       <c r="F48" s="3">
-        <v>88600</v>
+        <v>97900</v>
       </c>
       <c r="G48" s="3">
-        <v>69500</v>
+        <v>85400</v>
       </c>
       <c r="H48" s="3">
-        <v>62100</v>
+        <v>67000</v>
       </c>
       <c r="I48" s="3">
-        <v>49300</v>
+        <v>59800</v>
       </c>
       <c r="J48" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K48" s="3">
         <v>46800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>57400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2319,38 +2427,41 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70600</v>
+        <v>123900</v>
       </c>
       <c r="E49" s="3">
-        <v>69100</v>
+        <v>68100</v>
       </c>
       <c r="F49" s="3">
-        <v>67900</v>
+        <v>66700</v>
       </c>
       <c r="G49" s="3">
-        <v>59800</v>
+        <v>65500</v>
       </c>
       <c r="H49" s="3">
-        <v>57900</v>
+        <v>57700</v>
       </c>
       <c r="I49" s="3">
-        <v>56900</v>
+        <v>55800</v>
       </c>
       <c r="J49" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K49" s="3">
         <v>56800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46600</v>
+        <v>42300</v>
       </c>
       <c r="E52" s="3">
-        <v>43900</v>
+        <v>44900</v>
       </c>
       <c r="F52" s="3">
-        <v>46700</v>
+        <v>42400</v>
       </c>
       <c r="G52" s="3">
-        <v>50500</v>
+        <v>45000</v>
       </c>
       <c r="H52" s="3">
-        <v>51300</v>
+        <v>48700</v>
       </c>
       <c r="I52" s="3">
-        <v>50200</v>
+        <v>49500</v>
       </c>
       <c r="J52" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K52" s="3">
         <v>46800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3445500</v>
+        <v>3436000</v>
       </c>
       <c r="E54" s="3">
-        <v>3627700</v>
+        <v>3322100</v>
       </c>
       <c r="F54" s="3">
-        <v>3148600</v>
+        <v>3497700</v>
       </c>
       <c r="G54" s="3">
-        <v>3067000</v>
+        <v>3035800</v>
       </c>
       <c r="H54" s="3">
-        <v>2637800</v>
+        <v>2957100</v>
       </c>
       <c r="I54" s="3">
-        <v>2459600</v>
+        <v>2543300</v>
       </c>
       <c r="J54" s="3">
+        <v>2371500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1452700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1643300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +2749,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1050400</v>
+        <v>1260400</v>
       </c>
       <c r="E57" s="3">
-        <v>1220800</v>
+        <v>1012700</v>
       </c>
       <c r="F57" s="3">
-        <v>1075000</v>
+        <v>1177100</v>
       </c>
       <c r="G57" s="3">
-        <v>1090100</v>
+        <v>1036500</v>
       </c>
       <c r="H57" s="3">
-        <v>1076600</v>
+        <v>1051100</v>
       </c>
       <c r="I57" s="3">
-        <v>946200</v>
+        <v>1038000</v>
       </c>
       <c r="J57" s="3">
+        <v>912300</v>
+      </c>
+      <c r="K57" s="3">
         <v>865300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>940200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2663,38 +2794,41 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>788200</v>
+        <v>674500</v>
       </c>
       <c r="E58" s="3">
-        <v>932300</v>
+        <v>759900</v>
       </c>
       <c r="F58" s="3">
-        <v>513700</v>
+        <v>898900</v>
       </c>
       <c r="G58" s="3">
-        <v>393000</v>
+        <v>495300</v>
       </c>
       <c r="H58" s="3">
-        <v>244000</v>
+        <v>378900</v>
       </c>
       <c r="I58" s="3">
-        <v>143900</v>
+        <v>235200</v>
       </c>
       <c r="J58" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K58" s="3">
         <v>10800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54200</v>
+        <v>78600</v>
       </c>
       <c r="E59" s="3">
-        <v>43700</v>
+        <v>52300</v>
       </c>
       <c r="F59" s="3">
-        <v>33500</v>
+        <v>42100</v>
       </c>
       <c r="G59" s="3">
-        <v>35200</v>
+        <v>32300</v>
       </c>
       <c r="H59" s="3">
-        <v>34300</v>
+        <v>33900</v>
       </c>
       <c r="I59" s="3">
-        <v>30200</v>
+        <v>33100</v>
       </c>
       <c r="J59" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K59" s="3">
         <v>46900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2751,38 +2888,41 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1892800</v>
+        <v>2013500</v>
       </c>
       <c r="E60" s="3">
-        <v>2196800</v>
+        <v>1825000</v>
       </c>
       <c r="F60" s="3">
-        <v>1622300</v>
+        <v>2118100</v>
       </c>
       <c r="G60" s="3">
-        <v>1518400</v>
+        <v>1564200</v>
       </c>
       <c r="H60" s="3">
-        <v>1354900</v>
+        <v>1464000</v>
       </c>
       <c r="I60" s="3">
-        <v>1120300</v>
+        <v>1306400</v>
       </c>
       <c r="J60" s="3">
+        <v>1080200</v>
+      </c>
+      <c r="K60" s="3">
         <v>923000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>972100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,38 +2935,41 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>373600</v>
+        <v>220100</v>
       </c>
       <c r="E61" s="3">
-        <v>315900</v>
+        <v>360200</v>
       </c>
       <c r="F61" s="3">
-        <v>463400</v>
+        <v>304600</v>
       </c>
       <c r="G61" s="3">
-        <v>523900</v>
+        <v>446800</v>
       </c>
       <c r="H61" s="3">
-        <v>292500</v>
+        <v>505100</v>
       </c>
       <c r="I61" s="3">
+        <v>282000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>367400</v>
+      </c>
+      <c r="K61" s="3">
         <v>381000</v>
       </c>
-      <c r="J61" s="3">
-        <v>381000</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>481100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9300</v>
+        <v>46500</v>
       </c>
       <c r="E62" s="3">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="F62" s="3">
-        <v>20200</v>
+        <v>9400</v>
       </c>
       <c r="G62" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2292900</v>
+        <v>2296700</v>
       </c>
       <c r="E66" s="3">
-        <v>2522600</v>
+        <v>2210800</v>
       </c>
       <c r="F66" s="3">
-        <v>2105900</v>
+        <v>2432200</v>
       </c>
       <c r="G66" s="3">
-        <v>2061600</v>
+        <v>2030400</v>
       </c>
       <c r="H66" s="3">
-        <v>1662700</v>
+        <v>1987700</v>
       </c>
       <c r="I66" s="3">
-        <v>1517200</v>
+        <v>1603100</v>
       </c>
       <c r="J66" s="3">
+        <v>1462900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1325800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1476000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1174600</v>
+        <v>1161400</v>
       </c>
       <c r="E72" s="3">
-        <v>1118500</v>
+        <v>1132500</v>
       </c>
       <c r="F72" s="3">
-        <v>1057100</v>
+        <v>1078400</v>
       </c>
       <c r="G72" s="3">
-        <v>1020600</v>
+        <v>1019200</v>
       </c>
       <c r="H72" s="3">
-        <v>987100</v>
+        <v>984000</v>
       </c>
       <c r="I72" s="3">
-        <v>952800</v>
+        <v>951700</v>
       </c>
       <c r="J72" s="3">
+        <v>918700</v>
+      </c>
+      <c r="K72" s="3">
         <v>132900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>175600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1152600</v>
+        <v>1139400</v>
       </c>
       <c r="E76" s="3">
-        <v>1105100</v>
+        <v>1111300</v>
       </c>
       <c r="F76" s="3">
-        <v>1042700</v>
+        <v>1065500</v>
       </c>
       <c r="G76" s="3">
-        <v>1005500</v>
+        <v>1005400</v>
       </c>
       <c r="H76" s="3">
-        <v>975100</v>
+        <v>969400</v>
       </c>
       <c r="I76" s="3">
-        <v>942400</v>
+        <v>940200</v>
       </c>
       <c r="J76" s="3">
+        <v>908600</v>
+      </c>
+      <c r="K76" s="3">
         <v>126900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>167300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>29400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>48700</v>
+        <v>28300</v>
       </c>
       <c r="F81" s="3">
-        <v>35400</v>
+        <v>46900</v>
       </c>
       <c r="G81" s="3">
-        <v>31800</v>
+        <v>34100</v>
       </c>
       <c r="H81" s="3">
-        <v>32800</v>
+        <v>30700</v>
       </c>
       <c r="I81" s="3">
-        <v>23600</v>
+        <v>31600</v>
       </c>
       <c r="J81" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K81" s="3">
         <v>16400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F83" s="3">
-        <v>8100</v>
+        <v>9900</v>
       </c>
       <c r="G83" s="3">
-        <v>6300</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
-        <v>5500</v>
+        <v>6100</v>
       </c>
       <c r="I83" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67100</v>
+        <v>200000</v>
       </c>
       <c r="E89" s="3">
-        <v>-122800</v>
+        <v>64700</v>
       </c>
       <c r="F89" s="3">
-        <v>35200</v>
+        <v>-118400</v>
       </c>
       <c r="G89" s="3">
-        <v>-348500</v>
+        <v>33900</v>
       </c>
       <c r="H89" s="3">
-        <v>-54600</v>
+        <v>-336000</v>
       </c>
       <c r="I89" s="3">
-        <v>-393300</v>
+        <v>-52600</v>
       </c>
       <c r="J89" s="3">
+        <v>-379200</v>
+      </c>
+      <c r="K89" s="3">
         <v>15400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-130100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16700</v>
+        <v>-16200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3600</v>
+        <v>-16100</v>
       </c>
       <c r="F91" s="3">
-        <v>-36500</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-11500</v>
+        <v>-35200</v>
       </c>
       <c r="H91" s="3">
-        <v>-10100</v>
+        <v>-11100</v>
       </c>
       <c r="I91" s="3">
-        <v>-2900</v>
+        <v>-9700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>91500</v>
+        <v>257400</v>
       </c>
       <c r="E94" s="3">
-        <v>-23100</v>
+        <v>88200</v>
       </c>
       <c r="F94" s="3">
-        <v>-55200</v>
+        <v>-22300</v>
       </c>
       <c r="G94" s="3">
-        <v>-19400</v>
+        <v>-53200</v>
       </c>
       <c r="H94" s="3">
-        <v>16700</v>
+        <v>-18700</v>
       </c>
       <c r="I94" s="3">
-        <v>-487900</v>
+        <v>16100</v>
       </c>
       <c r="J94" s="3">
+        <v>-470400</v>
+      </c>
+      <c r="K94" s="3">
         <v>4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>26700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56300</v>
+        <v>-232500</v>
       </c>
       <c r="E100" s="3">
-        <v>279600</v>
+        <v>-54300</v>
       </c>
       <c r="F100" s="3">
-        <v>35200</v>
+        <v>269500</v>
       </c>
       <c r="G100" s="3">
-        <v>381700</v>
+        <v>34000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1200</v>
+        <v>368100</v>
       </c>
       <c r="I100" s="3">
-        <v>902600</v>
+        <v>-1100</v>
       </c>
       <c r="J100" s="3">
+        <v>870200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>229100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,83 +4626,89 @@
         <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>101800</v>
+        <v>224500</v>
       </c>
       <c r="E102" s="3">
-        <v>133800</v>
+        <v>98200</v>
       </c>
       <c r="F102" s="3">
-        <v>15600</v>
+        <v>129000</v>
       </c>
       <c r="G102" s="3">
-        <v>13600</v>
+        <v>15100</v>
       </c>
       <c r="H102" s="3">
-        <v>-39000</v>
+        <v>13100</v>
       </c>
       <c r="I102" s="3">
-        <v>23000</v>
+        <v>-37600</v>
       </c>
       <c r="J102" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-74000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>125900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,93 +748,99 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>127900</v>
+        <v>124900</v>
       </c>
       <c r="F8" s="3">
-        <v>139700</v>
+        <v>134100</v>
       </c>
       <c r="G8" s="3">
-        <v>119700</v>
+        <v>146500</v>
       </c>
       <c r="H8" s="3">
-        <v>104600</v>
+        <v>125600</v>
       </c>
       <c r="I8" s="3">
-        <v>95600</v>
+        <v>109700</v>
       </c>
       <c r="J8" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K8" s="3">
         <v>94400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>18900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>35400</v>
+        <v>38900</v>
       </c>
       <c r="E9" s="3">
-        <v>26700</v>
+        <v>37200</v>
       </c>
       <c r="F9" s="3">
-        <v>22900</v>
+        <v>28100</v>
       </c>
       <c r="G9" s="3">
-        <v>20100</v>
+        <v>24000</v>
       </c>
       <c r="H9" s="3">
-        <v>18000</v>
+        <v>21100</v>
       </c>
       <c r="I9" s="3">
-        <v>15200</v>
+        <v>18900</v>
       </c>
       <c r="J9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K9" s="3">
         <v>18100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,46 +848,49 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>101100</v>
+        <v>87700</v>
       </c>
       <c r="F10" s="3">
-        <v>116800</v>
+        <v>106100</v>
       </c>
       <c r="G10" s="3">
-        <v>99700</v>
+        <v>122500</v>
       </c>
       <c r="H10" s="3">
-        <v>86600</v>
+        <v>104500</v>
       </c>
       <c r="I10" s="3">
-        <v>80400</v>
+        <v>90800</v>
       </c>
       <c r="J10" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K10" s="3">
         <v>76400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>5200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,22 +1068,22 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3600</v>
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="I15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>3000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1071,8 +1094,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,46 +1135,49 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>60500</v>
+        <v>83000</v>
       </c>
       <c r="F17" s="3">
+        <v>63500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>58400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>55500</v>
+      </c>
+      <c r="I17" s="3">
         <v>55700</v>
       </c>
-      <c r="G17" s="3">
-        <v>52900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>53100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>40000</v>
-      </c>
       <c r="J17" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K17" s="3">
         <v>49000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>36000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>28600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>67400</v>
+        <v>41900</v>
       </c>
       <c r="F18" s="3">
-        <v>84000</v>
+        <v>70700</v>
       </c>
       <c r="G18" s="3">
-        <v>66800</v>
+        <v>88100</v>
       </c>
       <c r="H18" s="3">
-        <v>51500</v>
+        <v>70000</v>
       </c>
       <c r="I18" s="3">
-        <v>55600</v>
+        <v>54000</v>
       </c>
       <c r="J18" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K18" s="3">
         <v>45400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>39700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-17000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1255,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-26700</v>
+        <v>-12000</v>
       </c>
       <c r="F20" s="3">
-        <v>-19300</v>
+        <v>-28000</v>
       </c>
       <c r="G20" s="3">
-        <v>-17900</v>
+        <v>-20200</v>
       </c>
       <c r="H20" s="3">
-        <v>-14100</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-11900</v>
+        <v>-14800</v>
       </c>
       <c r="J20" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>14400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,29 +1305,29 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>53900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>78300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>59500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J21" s="3">
         <v>51400</v>
       </c>
-      <c r="F21" s="3">
-        <v>74600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>56700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>43400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>49000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1300,14 +1337,17 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28500</v>
+        <v>69500</v>
       </c>
       <c r="E23" s="3">
-        <v>40700</v>
+        <v>29900</v>
       </c>
       <c r="F23" s="3">
-        <v>64700</v>
+        <v>42600</v>
       </c>
       <c r="G23" s="3">
-        <v>48900</v>
+        <v>67900</v>
       </c>
       <c r="H23" s="3">
-        <v>37300</v>
+        <v>51300</v>
       </c>
       <c r="I23" s="3">
-        <v>43700</v>
+        <v>39100</v>
       </c>
       <c r="J23" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1455,49 @@
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>12400</v>
+        <v>6800</v>
       </c>
       <c r="F24" s="3">
-        <v>17600</v>
+        <v>13000</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>18500</v>
       </c>
       <c r="H24" s="3">
-        <v>6700</v>
+        <v>15500</v>
       </c>
       <c r="I24" s="3">
-        <v>12100</v>
+        <v>7000</v>
       </c>
       <c r="J24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>5200</v>
       </c>
       <c r="M24" s="3">
         <v>5200</v>
       </c>
       <c r="N24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,46 +1555,49 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>28300</v>
+        <v>23100</v>
       </c>
       <c r="F26" s="3">
-        <v>47100</v>
+        <v>29700</v>
       </c>
       <c r="G26" s="3">
-        <v>34100</v>
+        <v>49400</v>
       </c>
       <c r="H26" s="3">
-        <v>30700</v>
+        <v>35800</v>
       </c>
       <c r="I26" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="J26" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K26" s="3">
         <v>22700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,46 +1605,49 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>28300</v>
+        <v>23700</v>
       </c>
       <c r="F27" s="3">
-        <v>46900</v>
+        <v>29700</v>
       </c>
       <c r="G27" s="3">
-        <v>34100</v>
+        <v>49200</v>
       </c>
       <c r="H27" s="3">
-        <v>30700</v>
+        <v>35800</v>
       </c>
       <c r="I27" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="J27" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K27" s="3">
         <v>22700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,46 +1855,49 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>26700</v>
+        <v>12000</v>
       </c>
       <c r="F32" s="3">
-        <v>19300</v>
+        <v>28000</v>
       </c>
       <c r="G32" s="3">
-        <v>17900</v>
+        <v>20200</v>
       </c>
       <c r="H32" s="3">
-        <v>14100</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>11900</v>
+        <v>14800</v>
       </c>
       <c r="J32" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K32" s="3">
         <v>13400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-14400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,46 +1905,49 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>28300</v>
+        <v>23700</v>
       </c>
       <c r="F33" s="3">
-        <v>46900</v>
+        <v>29700</v>
       </c>
       <c r="G33" s="3">
-        <v>34100</v>
+        <v>49200</v>
       </c>
       <c r="H33" s="3">
-        <v>30700</v>
+        <v>35800</v>
       </c>
       <c r="I33" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="J33" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K33" s="3">
         <v>22700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,98 +2005,104 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>28300</v>
+        <v>23700</v>
       </c>
       <c r="F35" s="3">
-        <v>46900</v>
+        <v>29700</v>
       </c>
       <c r="G35" s="3">
-        <v>34100</v>
+        <v>49200</v>
       </c>
       <c r="H35" s="3">
-        <v>30700</v>
+        <v>35800</v>
       </c>
       <c r="I35" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="J35" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K35" s="3">
         <v>22700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495400</v>
+        <v>410200</v>
       </c>
       <c r="E41" s="3">
-        <v>270900</v>
+        <v>519600</v>
       </c>
       <c r="F41" s="3">
-        <v>172800</v>
+        <v>284200</v>
       </c>
       <c r="G41" s="3">
-        <v>43700</v>
+        <v>181200</v>
       </c>
       <c r="H41" s="3">
-        <v>28700</v>
+        <v>45900</v>
       </c>
       <c r="I41" s="3">
-        <v>15500</v>
+        <v>30100</v>
       </c>
       <c r="J41" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K41" s="3">
         <v>53200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,41 +2188,44 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>140700</v>
+        <v>1531700</v>
       </c>
       <c r="E42" s="3">
-        <v>429400</v>
+        <v>147600</v>
       </c>
       <c r="F42" s="3">
-        <v>524000</v>
+        <v>450400</v>
       </c>
       <c r="G42" s="3">
-        <v>504800</v>
+        <v>549600</v>
       </c>
       <c r="H42" s="3">
-        <v>482500</v>
+        <v>529500</v>
       </c>
       <c r="I42" s="3">
-        <v>474600</v>
+        <v>506200</v>
       </c>
       <c r="J42" s="3">
+        <v>497800</v>
+      </c>
+      <c r="K42" s="3">
         <v>494300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>48800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2148,41 +2238,44 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2446000</v>
+        <v>3244400</v>
       </c>
       <c r="E43" s="3">
-        <v>2347500</v>
+        <v>2565700</v>
       </c>
       <c r="F43" s="3">
-        <v>2563000</v>
+        <v>2462400</v>
       </c>
       <c r="G43" s="3">
-        <v>2259100</v>
+        <v>2688400</v>
       </c>
       <c r="H43" s="3">
-        <v>2259000</v>
+        <v>2369600</v>
       </c>
       <c r="I43" s="3">
-        <v>1879200</v>
+        <v>2369500</v>
       </c>
       <c r="J43" s="3">
+        <v>1971100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1667400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1233300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1385400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2338,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75500</v>
+        <v>118200</v>
       </c>
       <c r="E45" s="3">
-        <v>46300</v>
+        <v>79200</v>
       </c>
       <c r="F45" s="3">
-        <v>23700</v>
+        <v>48600</v>
       </c>
       <c r="G45" s="3">
-        <v>27100</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
-        <v>8700</v>
+        <v>28400</v>
       </c>
       <c r="I45" s="3">
-        <v>6800</v>
+        <v>9100</v>
       </c>
       <c r="J45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2289,41 +2388,44 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3157600</v>
+        <v>5304500</v>
       </c>
       <c r="E46" s="3">
-        <v>3094200</v>
+        <v>3312100</v>
       </c>
       <c r="F46" s="3">
-        <v>3283400</v>
+        <v>3245600</v>
       </c>
       <c r="G46" s="3">
-        <v>2834600</v>
+        <v>3444100</v>
       </c>
       <c r="H46" s="3">
-        <v>2778800</v>
+        <v>2973300</v>
       </c>
       <c r="I46" s="3">
-        <v>2376000</v>
+        <v>2914800</v>
       </c>
       <c r="J46" s="3">
+        <v>2492300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2218900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1471500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2336,41 +2438,44 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="E47" s="3">
-        <v>8800</v>
+        <v>5200</v>
       </c>
       <c r="F47" s="3">
-        <v>7300</v>
+        <v>9200</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>7700</v>
       </c>
       <c r="H47" s="3">
-        <v>4800</v>
+        <v>5500</v>
       </c>
       <c r="I47" s="3">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="J47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107300</v>
+        <v>120900</v>
       </c>
       <c r="E48" s="3">
-        <v>106100</v>
+        <v>112500</v>
       </c>
       <c r="F48" s="3">
-        <v>97900</v>
+        <v>111300</v>
       </c>
       <c r="G48" s="3">
-        <v>85400</v>
+        <v>102700</v>
       </c>
       <c r="H48" s="3">
-        <v>67000</v>
+        <v>89600</v>
       </c>
       <c r="I48" s="3">
-        <v>59800</v>
+        <v>70300</v>
       </c>
       <c r="J48" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K48" s="3">
         <v>47500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>57400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123900</v>
+        <v>144800</v>
       </c>
       <c r="E49" s="3">
-        <v>68100</v>
+        <v>130000</v>
       </c>
       <c r="F49" s="3">
-        <v>66700</v>
+        <v>71400</v>
       </c>
       <c r="G49" s="3">
-        <v>65500</v>
+        <v>69900</v>
       </c>
       <c r="H49" s="3">
-        <v>57700</v>
+        <v>68700</v>
       </c>
       <c r="I49" s="3">
-        <v>55800</v>
+        <v>60500</v>
       </c>
       <c r="J49" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K49" s="3">
         <v>54900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42300</v>
+        <v>47900</v>
       </c>
       <c r="E52" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="F52" s="3">
-        <v>42400</v>
+        <v>47100</v>
       </c>
       <c r="G52" s="3">
-        <v>45000</v>
+        <v>44400</v>
       </c>
       <c r="H52" s="3">
-        <v>48700</v>
+        <v>47200</v>
       </c>
       <c r="I52" s="3">
-        <v>49500</v>
+        <v>51100</v>
       </c>
       <c r="J52" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K52" s="3">
         <v>48400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3436000</v>
+        <v>5630300</v>
       </c>
       <c r="E54" s="3">
-        <v>3322100</v>
+        <v>3604200</v>
       </c>
       <c r="F54" s="3">
-        <v>3497700</v>
+        <v>3484600</v>
       </c>
       <c r="G54" s="3">
-        <v>3035800</v>
+        <v>3668800</v>
       </c>
       <c r="H54" s="3">
-        <v>2957100</v>
+        <v>3184300</v>
       </c>
       <c r="I54" s="3">
-        <v>2543300</v>
+        <v>3101800</v>
       </c>
       <c r="J54" s="3">
+        <v>2667700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2371500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1452700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1643300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,41 +2880,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1260400</v>
+        <v>1617600</v>
       </c>
       <c r="E57" s="3">
-        <v>1012700</v>
+        <v>1322100</v>
       </c>
       <c r="F57" s="3">
-        <v>1177100</v>
+        <v>1062300</v>
       </c>
       <c r="G57" s="3">
-        <v>1036500</v>
+        <v>1234700</v>
       </c>
       <c r="H57" s="3">
-        <v>1051100</v>
+        <v>1087200</v>
       </c>
       <c r="I57" s="3">
-        <v>1038000</v>
+        <v>1102500</v>
       </c>
       <c r="J57" s="3">
+        <v>1088800</v>
+      </c>
+      <c r="K57" s="3">
         <v>912300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>865300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>940200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,41 +2928,44 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>674500</v>
+        <v>545000</v>
       </c>
       <c r="E58" s="3">
-        <v>759900</v>
+        <v>707500</v>
       </c>
       <c r="F58" s="3">
-        <v>898900</v>
+        <v>797100</v>
       </c>
       <c r="G58" s="3">
-        <v>495300</v>
+        <v>942900</v>
       </c>
       <c r="H58" s="3">
-        <v>378900</v>
+        <v>519600</v>
       </c>
       <c r="I58" s="3">
-        <v>235200</v>
+        <v>397500</v>
       </c>
       <c r="J58" s="3">
+        <v>246700</v>
+      </c>
+      <c r="K58" s="3">
         <v>138700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78600</v>
+        <v>119700</v>
       </c>
       <c r="E59" s="3">
-        <v>52300</v>
+        <v>82400</v>
       </c>
       <c r="F59" s="3">
-        <v>42100</v>
+        <v>54800</v>
       </c>
       <c r="G59" s="3">
-        <v>32300</v>
+        <v>44100</v>
       </c>
       <c r="H59" s="3">
         <v>33900</v>
       </c>
       <c r="I59" s="3">
-        <v>33100</v>
+        <v>35600</v>
       </c>
       <c r="J59" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K59" s="3">
         <v>29100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2013500</v>
+        <v>2282300</v>
       </c>
       <c r="E60" s="3">
-        <v>1825000</v>
+        <v>2112000</v>
       </c>
       <c r="F60" s="3">
-        <v>2118100</v>
+        <v>1914300</v>
       </c>
       <c r="G60" s="3">
-        <v>1564200</v>
+        <v>2221700</v>
       </c>
       <c r="H60" s="3">
-        <v>1464000</v>
+        <v>1640700</v>
       </c>
       <c r="I60" s="3">
-        <v>1306400</v>
+        <v>1535600</v>
       </c>
       <c r="J60" s="3">
+        <v>1370300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1080200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>923000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>972100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2938,41 +3078,44 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>220100</v>
+        <v>557000</v>
       </c>
       <c r="E61" s="3">
-        <v>360200</v>
+        <v>230800</v>
       </c>
       <c r="F61" s="3">
-        <v>304600</v>
+        <v>377800</v>
       </c>
       <c r="G61" s="3">
-        <v>446800</v>
+        <v>319500</v>
       </c>
       <c r="H61" s="3">
-        <v>505100</v>
+        <v>468700</v>
       </c>
       <c r="I61" s="3">
-        <v>282000</v>
+        <v>529800</v>
       </c>
       <c r="J61" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K61" s="3">
         <v>367400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>381000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>481100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,41 +3128,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>46500</v>
+        <v>58400</v>
       </c>
       <c r="E62" s="3">
-        <v>9000</v>
+        <v>48700</v>
       </c>
       <c r="F62" s="3">
         <v>9400</v>
       </c>
       <c r="G62" s="3">
-        <v>19500</v>
+        <v>9900</v>
       </c>
       <c r="H62" s="3">
-        <v>18700</v>
+        <v>20500</v>
       </c>
       <c r="I62" s="3">
-        <v>14800</v>
+        <v>19600</v>
       </c>
       <c r="J62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K62" s="3">
         <v>15400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2296700</v>
+        <v>2915200</v>
       </c>
       <c r="E66" s="3">
-        <v>2210800</v>
+        <v>2409000</v>
       </c>
       <c r="F66" s="3">
-        <v>2432200</v>
+        <v>2319000</v>
       </c>
       <c r="G66" s="3">
-        <v>2030400</v>
+        <v>2551200</v>
       </c>
       <c r="H66" s="3">
-        <v>1987700</v>
+        <v>2129800</v>
       </c>
       <c r="I66" s="3">
-        <v>1603100</v>
+        <v>2084900</v>
       </c>
       <c r="J66" s="3">
+        <v>1681600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1462900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1325800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1476000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1161400</v>
+        <v>2736300</v>
       </c>
       <c r="E72" s="3">
-        <v>1132500</v>
+        <v>1218200</v>
       </c>
       <c r="F72" s="3">
-        <v>1078400</v>
+        <v>1187900</v>
       </c>
       <c r="G72" s="3">
-        <v>1019200</v>
+        <v>1131200</v>
       </c>
       <c r="H72" s="3">
-        <v>984000</v>
+        <v>1069100</v>
       </c>
       <c r="I72" s="3">
-        <v>951700</v>
+        <v>1032200</v>
       </c>
       <c r="J72" s="3">
+        <v>998300</v>
+      </c>
+      <c r="K72" s="3">
         <v>918700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>132900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>175600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1139400</v>
+        <v>2715000</v>
       </c>
       <c r="E76" s="3">
-        <v>1111300</v>
+        <v>1195100</v>
       </c>
       <c r="F76" s="3">
-        <v>1065500</v>
+        <v>1165700</v>
       </c>
       <c r="G76" s="3">
-        <v>1005400</v>
+        <v>1117600</v>
       </c>
       <c r="H76" s="3">
-        <v>969400</v>
+        <v>1054600</v>
       </c>
       <c r="I76" s="3">
-        <v>940200</v>
+        <v>1016900</v>
       </c>
       <c r="J76" s="3">
+        <v>986200</v>
+      </c>
+      <c r="K76" s="3">
         <v>908600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,46 +3965,49 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>28300</v>
+        <v>23700</v>
       </c>
       <c r="F81" s="3">
-        <v>46900</v>
+        <v>29700</v>
       </c>
       <c r="G81" s="3">
-        <v>34100</v>
+        <v>49200</v>
       </c>
       <c r="H81" s="3">
-        <v>30700</v>
+        <v>35800</v>
       </c>
       <c r="I81" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="J81" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K81" s="3">
         <v>22700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>9900</v>
-      </c>
       <c r="G83" s="3">
-        <v>7800</v>
+        <v>10400</v>
       </c>
       <c r="H83" s="3">
-        <v>6100</v>
+        <v>8200</v>
       </c>
       <c r="I83" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200000</v>
+        <v>-312500</v>
       </c>
       <c r="E89" s="3">
-        <v>64700</v>
+        <v>209800</v>
       </c>
       <c r="F89" s="3">
-        <v>-118400</v>
+        <v>67800</v>
       </c>
       <c r="G89" s="3">
-        <v>33900</v>
+        <v>-124200</v>
       </c>
       <c r="H89" s="3">
-        <v>-336000</v>
+        <v>35600</v>
       </c>
       <c r="I89" s="3">
-        <v>-52600</v>
+        <v>-352500</v>
       </c>
       <c r="J89" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-379200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-32200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-54900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-130100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16200</v>
+        <v>-28800</v>
       </c>
       <c r="E91" s="3">
-        <v>-16100</v>
+        <v>-17000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-16900</v>
       </c>
       <c r="G91" s="3">
-        <v>-35200</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3">
-        <v>-11100</v>
+        <v>-36900</v>
       </c>
       <c r="I91" s="3">
-        <v>-9700</v>
+        <v>-11700</v>
       </c>
       <c r="J91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>257400</v>
+        <v>-1426700</v>
       </c>
       <c r="E94" s="3">
-        <v>88200</v>
+        <v>270000</v>
       </c>
       <c r="F94" s="3">
-        <v>-22300</v>
+        <v>92500</v>
       </c>
       <c r="G94" s="3">
-        <v>-53200</v>
+        <v>-23400</v>
       </c>
       <c r="H94" s="3">
-        <v>-18700</v>
+        <v>-55800</v>
       </c>
       <c r="I94" s="3">
-        <v>16100</v>
+        <v>-19600</v>
       </c>
       <c r="J94" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-470400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-17900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-232500</v>
+        <v>1629500</v>
       </c>
       <c r="E100" s="3">
-        <v>-54300</v>
+        <v>-243900</v>
       </c>
       <c r="F100" s="3">
-        <v>269500</v>
+        <v>-57000</v>
       </c>
       <c r="G100" s="3">
-        <v>34000</v>
+        <v>282700</v>
       </c>
       <c r="H100" s="3">
-        <v>368100</v>
+        <v>35600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1100</v>
+        <v>386100</v>
       </c>
       <c r="J100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K100" s="3">
         <v>870200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>229100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>-400</v>
       </c>
       <c r="F101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>224500</v>
+        <v>-109400</v>
       </c>
       <c r="E102" s="3">
-        <v>98200</v>
+        <v>235400</v>
       </c>
       <c r="F102" s="3">
-        <v>129000</v>
+        <v>103000</v>
       </c>
       <c r="G102" s="3">
-        <v>15100</v>
+        <v>135300</v>
       </c>
       <c r="H102" s="3">
-        <v>13100</v>
+        <v>15800</v>
       </c>
       <c r="I102" s="3">
-        <v>-37600</v>
+        <v>13800</v>
       </c>
       <c r="J102" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="K102" s="3">
         <v>22200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-74000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>125900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,99 +751,105 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>124900</v>
+        <v>165400</v>
       </c>
       <c r="F8" s="3">
-        <v>134100</v>
+        <v>118200</v>
       </c>
       <c r="G8" s="3">
-        <v>146500</v>
+        <v>126900</v>
       </c>
       <c r="H8" s="3">
-        <v>125600</v>
+        <v>138600</v>
       </c>
       <c r="I8" s="3">
-        <v>109700</v>
+        <v>118800</v>
       </c>
       <c r="J8" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K8" s="3">
         <v>100300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>76600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>18900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>38900</v>
+        <v>37800</v>
       </c>
       <c r="E9" s="3">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="F9" s="3">
-        <v>28100</v>
+        <v>35200</v>
       </c>
       <c r="G9" s="3">
-        <v>24000</v>
+        <v>26600</v>
       </c>
       <c r="H9" s="3">
-        <v>21100</v>
+        <v>22700</v>
       </c>
       <c r="I9" s="3">
-        <v>18900</v>
+        <v>19900</v>
       </c>
       <c r="J9" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K9" s="3">
         <v>16000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,49 +857,52 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>87700</v>
+        <v>128600</v>
       </c>
       <c r="F10" s="3">
-        <v>106100</v>
+        <v>83000</v>
       </c>
       <c r="G10" s="3">
-        <v>122500</v>
+        <v>100400</v>
       </c>
       <c r="H10" s="3">
-        <v>104500</v>
+        <v>115900</v>
       </c>
       <c r="I10" s="3">
-        <v>90800</v>
+        <v>98900</v>
       </c>
       <c r="J10" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K10" s="3">
         <v>84300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>5200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,26 +1090,26 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="F15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3800</v>
+      <c r="G15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="J15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1119,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,49 +1161,52 @@
         <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>83000</v>
+        <v>88000</v>
       </c>
       <c r="F17" s="3">
-        <v>63500</v>
+        <v>78500</v>
       </c>
       <c r="G17" s="3">
-        <v>58400</v>
+        <v>60100</v>
       </c>
       <c r="H17" s="3">
-        <v>55500</v>
+        <v>55300</v>
       </c>
       <c r="I17" s="3">
-        <v>55700</v>
+        <v>52600</v>
       </c>
       <c r="J17" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K17" s="3">
         <v>42000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>37000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>36000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>28600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>41900</v>
+        <v>77400</v>
       </c>
       <c r="F18" s="3">
-        <v>70700</v>
+        <v>39700</v>
       </c>
       <c r="G18" s="3">
-        <v>88100</v>
+        <v>66900</v>
       </c>
       <c r="H18" s="3">
-        <v>70000</v>
+        <v>83300</v>
       </c>
       <c r="I18" s="3">
-        <v>54000</v>
+        <v>66300</v>
       </c>
       <c r="J18" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K18" s="3">
         <v>58300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,49 +1288,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="F20" s="3">
-        <v>-28000</v>
+        <v>-11400</v>
       </c>
       <c r="G20" s="3">
-        <v>-20200</v>
+        <v>-26500</v>
       </c>
       <c r="H20" s="3">
         <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-14800</v>
+        <v>-17500</v>
       </c>
       <c r="J20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>14400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,32 +1341,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>41700</v>
+        <v>76700</v>
       </c>
       <c r="F21" s="3">
-        <v>53900</v>
+        <v>39500</v>
       </c>
       <c r="G21" s="3">
-        <v>78300</v>
+        <v>51000</v>
       </c>
       <c r="H21" s="3">
-        <v>59500</v>
+        <v>74400</v>
       </c>
       <c r="I21" s="3">
-        <v>45500</v>
+        <v>56600</v>
       </c>
       <c r="J21" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K21" s="3">
         <v>51400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1340,37 +1376,40 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>6900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69500</v>
+        <v>65200</v>
       </c>
       <c r="E23" s="3">
-        <v>29900</v>
+        <v>65800</v>
       </c>
       <c r="F23" s="3">
-        <v>42600</v>
+        <v>28300</v>
       </c>
       <c r="G23" s="3">
-        <v>67900</v>
+        <v>40400</v>
       </c>
       <c r="H23" s="3">
-        <v>51300</v>
+        <v>64200</v>
       </c>
       <c r="I23" s="3">
-        <v>39100</v>
+        <v>48500</v>
       </c>
       <c r="J23" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K23" s="3">
         <v>45800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,49 +1500,52 @@
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>6800</v>
+        <v>21700</v>
       </c>
       <c r="F24" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3">
-        <v>18500</v>
+        <v>12300</v>
       </c>
       <c r="H24" s="3">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="I24" s="3">
-        <v>7000</v>
+        <v>14600</v>
       </c>
       <c r="J24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K24" s="3">
         <v>12700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>5200</v>
       </c>
       <c r="N24" s="3">
         <v>5200</v>
       </c>
       <c r="O24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1606,52 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>23100</v>
+        <v>44100</v>
       </c>
       <c r="F26" s="3">
-        <v>29700</v>
+        <v>21900</v>
       </c>
       <c r="G26" s="3">
-        <v>49400</v>
+        <v>28100</v>
       </c>
       <c r="H26" s="3">
-        <v>35800</v>
+        <v>46700</v>
       </c>
       <c r="I26" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="J26" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K26" s="3">
         <v>33100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>16700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1659,52 @@
         <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>23700</v>
+        <v>45100</v>
       </c>
       <c r="F27" s="3">
-        <v>29700</v>
+        <v>22400</v>
       </c>
       <c r="G27" s="3">
-        <v>49200</v>
+        <v>28100</v>
       </c>
       <c r="H27" s="3">
-        <v>35800</v>
+        <v>46600</v>
       </c>
       <c r="I27" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="J27" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K27" s="3">
         <v>33100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,49 +1924,52 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F32" s="3">
-        <v>28000</v>
+        <v>11400</v>
       </c>
       <c r="G32" s="3">
-        <v>20200</v>
+        <v>26500</v>
       </c>
       <c r="H32" s="3">
         <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>14800</v>
+        <v>17500</v>
       </c>
       <c r="J32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K32" s="3">
         <v>12500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1977,52 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>23700</v>
+        <v>45100</v>
       </c>
       <c r="F33" s="3">
-        <v>29700</v>
+        <v>22400</v>
       </c>
       <c r="G33" s="3">
-        <v>49200</v>
+        <v>28100</v>
       </c>
       <c r="H33" s="3">
-        <v>35800</v>
+        <v>46600</v>
       </c>
       <c r="I33" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="J33" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K33" s="3">
         <v>33100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2083,110 @@
         <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>23700</v>
+        <v>45100</v>
       </c>
       <c r="F35" s="3">
-        <v>29700</v>
+        <v>22400</v>
       </c>
       <c r="G35" s="3">
-        <v>49200</v>
+        <v>28100</v>
       </c>
       <c r="H35" s="3">
-        <v>35800</v>
+        <v>46600</v>
       </c>
       <c r="I35" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="J35" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K35" s="3">
         <v>33100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>410200</v>
+        <v>433300</v>
       </c>
       <c r="E41" s="3">
-        <v>519600</v>
+        <v>388200</v>
       </c>
       <c r="F41" s="3">
-        <v>284200</v>
+        <v>491700</v>
       </c>
       <c r="G41" s="3">
-        <v>181200</v>
+        <v>268900</v>
       </c>
       <c r="H41" s="3">
-        <v>45900</v>
+        <v>171500</v>
       </c>
       <c r="I41" s="3">
-        <v>30100</v>
+        <v>43400</v>
       </c>
       <c r="J41" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K41" s="3">
         <v>16300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2191,44 +2277,47 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1531700</v>
+        <v>1439200</v>
       </c>
       <c r="E42" s="3">
-        <v>147600</v>
+        <v>1449300</v>
       </c>
       <c r="F42" s="3">
-        <v>450400</v>
+        <v>139700</v>
       </c>
       <c r="G42" s="3">
-        <v>549600</v>
+        <v>426200</v>
       </c>
       <c r="H42" s="3">
-        <v>529500</v>
+        <v>520100</v>
       </c>
       <c r="I42" s="3">
-        <v>506200</v>
+        <v>501000</v>
       </c>
       <c r="J42" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K42" s="3">
         <v>497800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>494300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>48800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2241,44 +2330,47 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3244400</v>
+        <v>3148200</v>
       </c>
       <c r="E43" s="3">
-        <v>2565700</v>
+        <v>3070000</v>
       </c>
       <c r="F43" s="3">
-        <v>2462400</v>
+        <v>2427700</v>
       </c>
       <c r="G43" s="3">
-        <v>2688400</v>
+        <v>2330000</v>
       </c>
       <c r="H43" s="3">
-        <v>2369600</v>
+        <v>2543900</v>
       </c>
       <c r="I43" s="3">
-        <v>2369500</v>
+        <v>2242200</v>
       </c>
       <c r="J43" s="3">
+        <v>2242100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1971100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1667400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1233300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1385400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,44 +2436,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>118200</v>
+        <v>162900</v>
       </c>
       <c r="E45" s="3">
-        <v>79200</v>
+        <v>111900</v>
       </c>
       <c r="F45" s="3">
-        <v>48600</v>
+        <v>74900</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>45900</v>
       </c>
       <c r="H45" s="3">
-        <v>28400</v>
+        <v>23500</v>
       </c>
       <c r="I45" s="3">
-        <v>9100</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2391,44 +2489,47 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5304500</v>
+        <v>5183700</v>
       </c>
       <c r="E46" s="3">
-        <v>3312100</v>
+        <v>5019400</v>
       </c>
       <c r="F46" s="3">
-        <v>3245600</v>
+        <v>3134000</v>
       </c>
       <c r="G46" s="3">
-        <v>3444100</v>
+        <v>3071100</v>
       </c>
       <c r="H46" s="3">
-        <v>2973300</v>
+        <v>3259000</v>
       </c>
       <c r="I46" s="3">
-        <v>2914800</v>
+        <v>2813500</v>
       </c>
       <c r="J46" s="3">
+        <v>2758100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2492300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2218900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1300000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1471500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2441,44 +2542,47 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12000</v>
+        <v>78100</v>
       </c>
       <c r="E47" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I47" s="3">
         <v>5200</v>
       </c>
-      <c r="F47" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>5100</v>
-      </c>
       <c r="J47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2491,44 +2595,47 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>120900</v>
+        <v>127000</v>
       </c>
       <c r="E48" s="3">
-        <v>112500</v>
+        <v>114400</v>
       </c>
       <c r="F48" s="3">
-        <v>111300</v>
+        <v>106500</v>
       </c>
       <c r="G48" s="3">
-        <v>102700</v>
+        <v>105300</v>
       </c>
       <c r="H48" s="3">
-        <v>89600</v>
+        <v>97100</v>
       </c>
       <c r="I48" s="3">
-        <v>70300</v>
+        <v>84800</v>
       </c>
       <c r="J48" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K48" s="3">
         <v>62800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>47500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>57400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,44 +2648,47 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>144800</v>
+        <v>184100</v>
       </c>
       <c r="E49" s="3">
-        <v>130000</v>
+        <v>137000</v>
       </c>
       <c r="F49" s="3">
-        <v>71400</v>
+        <v>123000</v>
       </c>
       <c r="G49" s="3">
-        <v>69900</v>
+        <v>67600</v>
       </c>
       <c r="H49" s="3">
-        <v>68700</v>
+        <v>66200</v>
       </c>
       <c r="I49" s="3">
-        <v>60500</v>
+        <v>65000</v>
       </c>
       <c r="J49" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K49" s="3">
         <v>58500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47900</v>
+        <v>48800</v>
       </c>
       <c r="E52" s="3">
-        <v>44400</v>
+        <v>45400</v>
       </c>
       <c r="F52" s="3">
-        <v>47100</v>
+        <v>42000</v>
       </c>
       <c r="G52" s="3">
-        <v>44400</v>
+        <v>44600</v>
       </c>
       <c r="H52" s="3">
-        <v>47200</v>
+        <v>42000</v>
       </c>
       <c r="I52" s="3">
-        <v>51100</v>
+        <v>44600</v>
       </c>
       <c r="J52" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K52" s="3">
         <v>51900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5630300</v>
+        <v>5621700</v>
       </c>
       <c r="E54" s="3">
-        <v>3604200</v>
+        <v>5327600</v>
       </c>
       <c r="F54" s="3">
-        <v>3484600</v>
+        <v>3410400</v>
       </c>
       <c r="G54" s="3">
-        <v>3668800</v>
+        <v>3297300</v>
       </c>
       <c r="H54" s="3">
-        <v>3184300</v>
+        <v>3471600</v>
       </c>
       <c r="I54" s="3">
-        <v>3101800</v>
+        <v>3013200</v>
       </c>
       <c r="J54" s="3">
+        <v>2935100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2667700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2371500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1452700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1643300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,44 +3010,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1617600</v>
+        <v>1656100</v>
       </c>
       <c r="E57" s="3">
-        <v>1322100</v>
+        <v>1530600</v>
       </c>
       <c r="F57" s="3">
-        <v>1062300</v>
+        <v>1251000</v>
       </c>
       <c r="G57" s="3">
-        <v>1234700</v>
+        <v>1005200</v>
       </c>
       <c r="H57" s="3">
-        <v>1087200</v>
+        <v>1168300</v>
       </c>
       <c r="I57" s="3">
-        <v>1102500</v>
+        <v>1028800</v>
       </c>
       <c r="J57" s="3">
+        <v>1043200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1088800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>912300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>865300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>940200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,44 +3061,47 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>545000</v>
+        <v>556800</v>
       </c>
       <c r="E58" s="3">
-        <v>707500</v>
+        <v>515700</v>
       </c>
       <c r="F58" s="3">
-        <v>797100</v>
+        <v>669400</v>
       </c>
       <c r="G58" s="3">
-        <v>942900</v>
+        <v>754300</v>
       </c>
       <c r="H58" s="3">
-        <v>519600</v>
+        <v>892200</v>
       </c>
       <c r="I58" s="3">
-        <v>397500</v>
+        <v>491600</v>
       </c>
       <c r="J58" s="3">
+        <v>376100</v>
+      </c>
+      <c r="K58" s="3">
         <v>246700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>138700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>119700</v>
+        <v>156300</v>
       </c>
       <c r="E59" s="3">
-        <v>82400</v>
+        <v>113200</v>
       </c>
       <c r="F59" s="3">
-        <v>54800</v>
+        <v>78000</v>
       </c>
       <c r="G59" s="3">
-        <v>44100</v>
+        <v>51900</v>
       </c>
       <c r="H59" s="3">
-        <v>33900</v>
+        <v>41800</v>
       </c>
       <c r="I59" s="3">
-        <v>35600</v>
+        <v>32100</v>
       </c>
       <c r="J59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K59" s="3">
         <v>34700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3031,44 +3167,47 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2282300</v>
+        <v>2369300</v>
       </c>
       <c r="E60" s="3">
-        <v>2112000</v>
+        <v>2159600</v>
       </c>
       <c r="F60" s="3">
-        <v>1914300</v>
+        <v>1998500</v>
       </c>
       <c r="G60" s="3">
-        <v>2221700</v>
+        <v>1811400</v>
       </c>
       <c r="H60" s="3">
-        <v>1640700</v>
+        <v>2102300</v>
       </c>
       <c r="I60" s="3">
-        <v>1535600</v>
+        <v>1552500</v>
       </c>
       <c r="J60" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1370300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1080200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>923000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>972100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3081,44 +3220,47 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>557000</v>
+        <v>520400</v>
       </c>
       <c r="E61" s="3">
-        <v>230800</v>
+        <v>527100</v>
       </c>
       <c r="F61" s="3">
-        <v>377800</v>
+        <v>218400</v>
       </c>
       <c r="G61" s="3">
-        <v>319500</v>
+        <v>357500</v>
       </c>
       <c r="H61" s="3">
-        <v>468700</v>
+        <v>302300</v>
       </c>
       <c r="I61" s="3">
-        <v>529800</v>
+        <v>443500</v>
       </c>
       <c r="J61" s="3">
+        <v>501300</v>
+      </c>
+      <c r="K61" s="3">
         <v>295800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>367400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>381000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>481100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>58400</v>
+        <v>77500</v>
       </c>
       <c r="E62" s="3">
-        <v>48700</v>
+        <v>55300</v>
       </c>
       <c r="F62" s="3">
-        <v>9400</v>
+        <v>46100</v>
       </c>
       <c r="G62" s="3">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="H62" s="3">
-        <v>20500</v>
+        <v>9300</v>
       </c>
       <c r="I62" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="J62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K62" s="3">
         <v>15600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2915200</v>
+        <v>2991600</v>
       </c>
       <c r="E66" s="3">
-        <v>2409000</v>
+        <v>2758500</v>
       </c>
       <c r="F66" s="3">
-        <v>2319000</v>
+        <v>2279500</v>
       </c>
       <c r="G66" s="3">
-        <v>2551200</v>
+        <v>2194300</v>
       </c>
       <c r="H66" s="3">
-        <v>2129800</v>
+        <v>2414100</v>
       </c>
       <c r="I66" s="3">
-        <v>2084900</v>
+        <v>2015300</v>
       </c>
       <c r="J66" s="3">
+        <v>1972900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1681600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1462900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1325800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1476000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2736300</v>
+        <v>2644500</v>
       </c>
       <c r="E72" s="3">
-        <v>1218200</v>
+        <v>2589200</v>
       </c>
       <c r="F72" s="3">
-        <v>1187900</v>
+        <v>1152700</v>
       </c>
       <c r="G72" s="3">
-        <v>1131200</v>
+        <v>1124000</v>
       </c>
       <c r="H72" s="3">
-        <v>1069100</v>
+        <v>1070300</v>
       </c>
       <c r="I72" s="3">
-        <v>1032200</v>
+        <v>1011600</v>
       </c>
       <c r="J72" s="3">
+        <v>976700</v>
+      </c>
+      <c r="K72" s="3">
         <v>998300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>918700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>132900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>175600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2715000</v>
+        <v>2630100</v>
       </c>
       <c r="E76" s="3">
-        <v>1195100</v>
+        <v>2569100</v>
       </c>
       <c r="F76" s="3">
-        <v>1165700</v>
+        <v>1130900</v>
       </c>
       <c r="G76" s="3">
-        <v>1117600</v>
+        <v>1103000</v>
       </c>
       <c r="H76" s="3">
-        <v>1054600</v>
+        <v>1057500</v>
       </c>
       <c r="I76" s="3">
-        <v>1016900</v>
+        <v>997900</v>
       </c>
       <c r="J76" s="3">
+        <v>962200</v>
+      </c>
+      <c r="K76" s="3">
         <v>986200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>908600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4159,52 @@
         <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>23700</v>
+        <v>45100</v>
       </c>
       <c r="F81" s="3">
-        <v>29700</v>
+        <v>22400</v>
       </c>
       <c r="G81" s="3">
-        <v>49200</v>
+        <v>28100</v>
       </c>
       <c r="H81" s="3">
-        <v>35800</v>
+        <v>46600</v>
       </c>
       <c r="I81" s="3">
-        <v>32200</v>
+        <v>33900</v>
       </c>
       <c r="J81" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K81" s="3">
         <v>33100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11500</v>
+        <v>12600</v>
       </c>
       <c r="E83" s="3">
-        <v>11800</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="G83" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="H83" s="3">
-        <v>8200</v>
+        <v>9900</v>
       </c>
       <c r="I83" s="3">
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="J83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K83" s="3">
         <v>5600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-312500</v>
+        <v>43000</v>
       </c>
       <c r="E89" s="3">
-        <v>209800</v>
+        <v>-295700</v>
       </c>
       <c r="F89" s="3">
-        <v>67800</v>
+        <v>198500</v>
       </c>
       <c r="G89" s="3">
-        <v>-124200</v>
+        <v>64200</v>
       </c>
       <c r="H89" s="3">
-        <v>35600</v>
+        <v>-117500</v>
       </c>
       <c r="I89" s="3">
-        <v>-352500</v>
+        <v>33700</v>
       </c>
       <c r="J89" s="3">
+        <v>-333500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-55200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-379200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-32200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-54900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-130100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28800</v>
+        <v>-6600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17000</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-16000</v>
       </c>
       <c r="H91" s="3">
-        <v>-36900</v>
+        <v>-3400</v>
       </c>
       <c r="I91" s="3">
-        <v>-11700</v>
+        <v>-34900</v>
       </c>
       <c r="J91" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1426700</v>
+        <v>-21600</v>
       </c>
       <c r="E94" s="3">
-        <v>270000</v>
+        <v>-1350000</v>
       </c>
       <c r="F94" s="3">
-        <v>92500</v>
+        <v>255400</v>
       </c>
       <c r="G94" s="3">
-        <v>-23400</v>
+        <v>87600</v>
       </c>
       <c r="H94" s="3">
-        <v>-55800</v>
+        <v>-22100</v>
       </c>
       <c r="I94" s="3">
-        <v>-19600</v>
+        <v>-52800</v>
       </c>
       <c r="J94" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K94" s="3">
         <v>16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-470400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-17900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>26700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1629500</v>
+        <v>20500</v>
       </c>
       <c r="E100" s="3">
-        <v>-243900</v>
+        <v>1541900</v>
       </c>
       <c r="F100" s="3">
-        <v>-57000</v>
+        <v>-230800</v>
       </c>
       <c r="G100" s="3">
-        <v>282700</v>
+        <v>-53900</v>
       </c>
       <c r="H100" s="3">
-        <v>35600</v>
+        <v>267500</v>
       </c>
       <c r="I100" s="3">
-        <v>386100</v>
+        <v>33700</v>
       </c>
       <c r="J100" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>870200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>229100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-400</v>
       </c>
       <c r="F101" s="3">
         <v>-400</v>
       </c>
       <c r="G101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-109400</v>
+        <v>45100</v>
       </c>
       <c r="E102" s="3">
-        <v>235400</v>
+        <v>-103500</v>
       </c>
       <c r="F102" s="3">
-        <v>103000</v>
+        <v>222800</v>
       </c>
       <c r="G102" s="3">
-        <v>135300</v>
+        <v>97400</v>
       </c>
       <c r="H102" s="3">
-        <v>15800</v>
+        <v>128100</v>
       </c>
       <c r="I102" s="3">
-        <v>13800</v>
+        <v>15000</v>
       </c>
       <c r="J102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-39500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-42600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-74000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>125900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -747,26 +747,26 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>185500</v>
       </c>
       <c r="E8" s="3">
-        <v>165400</v>
+        <v>175300</v>
       </c>
       <c r="F8" s="3">
-        <v>118200</v>
+        <v>125200</v>
       </c>
       <c r="G8" s="3">
-        <v>126900</v>
+        <v>134500</v>
       </c>
       <c r="H8" s="3">
-        <v>138600</v>
+        <v>146900</v>
       </c>
       <c r="I8" s="3">
-        <v>118800</v>
+        <v>125900</v>
       </c>
       <c r="J8" s="3">
-        <v>103800</v>
+        <v>110000</v>
       </c>
       <c r="K8" s="3">
         <v>100300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37800</v>
+        <v>40000</v>
       </c>
       <c r="E9" s="3">
-        <v>36800</v>
+        <v>39000</v>
       </c>
       <c r="F9" s="3">
-        <v>35200</v>
+        <v>37300</v>
       </c>
       <c r="G9" s="3">
-        <v>26600</v>
+        <v>28100</v>
       </c>
       <c r="H9" s="3">
-        <v>22700</v>
+        <v>24100</v>
       </c>
       <c r="I9" s="3">
-        <v>19900</v>
+        <v>21100</v>
       </c>
       <c r="J9" s="3">
-        <v>17800</v>
+        <v>18900</v>
       </c>
       <c r="K9" s="3">
         <v>16000</v>
@@ -853,26 +853,26 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>145500</v>
       </c>
       <c r="E10" s="3">
-        <v>128600</v>
+        <v>136200</v>
       </c>
       <c r="F10" s="3">
-        <v>83000</v>
+        <v>87900</v>
       </c>
       <c r="G10" s="3">
-        <v>100400</v>
+        <v>106300</v>
       </c>
       <c r="H10" s="3">
-        <v>115900</v>
+        <v>122800</v>
       </c>
       <c r="I10" s="3">
-        <v>98900</v>
+        <v>104800</v>
       </c>
       <c r="J10" s="3">
-        <v>86000</v>
+        <v>91100</v>
       </c>
       <c r="K10" s="3">
         <v>84300</v>
@@ -1086,26 +1086,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>4700</v>
       </c>
       <c r="E15" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3">
-        <v>3600</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J15" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K15" s="3">
         <v>2500</v>
@@ -1157,26 +1157,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>106100</v>
       </c>
       <c r="E17" s="3">
-        <v>88000</v>
+        <v>93200</v>
       </c>
       <c r="F17" s="3">
-        <v>78500</v>
+        <v>83200</v>
       </c>
       <c r="G17" s="3">
-        <v>60100</v>
+        <v>63600</v>
       </c>
       <c r="H17" s="3">
-        <v>55300</v>
+        <v>58600</v>
       </c>
       <c r="I17" s="3">
-        <v>52600</v>
+        <v>55700</v>
       </c>
       <c r="J17" s="3">
-        <v>52700</v>
+        <v>55900</v>
       </c>
       <c r="K17" s="3">
         <v>42000</v>
@@ -1210,26 +1210,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>79400</v>
       </c>
       <c r="E18" s="3">
-        <v>77400</v>
+        <v>82000</v>
       </c>
       <c r="F18" s="3">
-        <v>39700</v>
+        <v>42000</v>
       </c>
       <c r="G18" s="3">
-        <v>66900</v>
+        <v>70800</v>
       </c>
       <c r="H18" s="3">
-        <v>83300</v>
+        <v>88300</v>
       </c>
       <c r="I18" s="3">
-        <v>66300</v>
+        <v>70200</v>
       </c>
       <c r="J18" s="3">
-        <v>51100</v>
+        <v>54100</v>
       </c>
       <c r="K18" s="3">
         <v>58300</v>
@@ -1284,26 +1284,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-10300</v>
       </c>
       <c r="E20" s="3">
-        <v>-11600</v>
+        <v>-12300</v>
       </c>
       <c r="F20" s="3">
-        <v>-11400</v>
+        <v>-12000</v>
       </c>
       <c r="G20" s="3">
-        <v>-26500</v>
+        <v>-28100</v>
       </c>
       <c r="H20" s="3">
-        <v>-18800</v>
+        <v>-19900</v>
       </c>
       <c r="I20" s="3">
-        <v>-17500</v>
+        <v>-18500</v>
       </c>
       <c r="J20" s="3">
-        <v>-13900</v>
+        <v>-14800</v>
       </c>
       <c r="K20" s="3">
         <v>-12500</v>
@@ -1337,26 +1337,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>82500</v>
       </c>
       <c r="E21" s="3">
-        <v>76700</v>
+        <v>81200</v>
       </c>
       <c r="F21" s="3">
-        <v>39500</v>
+        <v>41800</v>
       </c>
       <c r="G21" s="3">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="H21" s="3">
-        <v>74400</v>
+        <v>78800</v>
       </c>
       <c r="I21" s="3">
-        <v>56600</v>
+        <v>59900</v>
       </c>
       <c r="J21" s="3">
-        <v>43200</v>
+        <v>45800</v>
       </c>
       <c r="K21" s="3">
         <v>51400</v>
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>65200</v>
+        <v>69100</v>
       </c>
       <c r="E23" s="3">
-        <v>65800</v>
+        <v>69700</v>
       </c>
       <c r="F23" s="3">
-        <v>28300</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="3">
-        <v>40400</v>
+        <v>42800</v>
       </c>
       <c r="H23" s="3">
-        <v>64200</v>
+        <v>68000</v>
       </c>
       <c r="I23" s="3">
-        <v>48500</v>
+        <v>51400</v>
       </c>
       <c r="J23" s="3">
-        <v>37000</v>
+        <v>39200</v>
       </c>
       <c r="K23" s="3">
         <v>45800</v>
@@ -1496,26 +1496,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>11700</v>
       </c>
       <c r="E24" s="3">
-        <v>21700</v>
+        <v>23000</v>
       </c>
       <c r="F24" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="G24" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="H24" s="3">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="I24" s="3">
-        <v>14600</v>
+        <v>15500</v>
       </c>
       <c r="J24" s="3">
-        <v>6600</v>
+        <v>7000</v>
       </c>
       <c r="K24" s="3">
         <v>12700</v>
@@ -1602,26 +1602,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>57400</v>
       </c>
       <c r="E26" s="3">
-        <v>44100</v>
+        <v>46700</v>
       </c>
       <c r="F26" s="3">
-        <v>21900</v>
+        <v>23200</v>
       </c>
       <c r="G26" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="H26" s="3">
-        <v>46700</v>
+        <v>49500</v>
       </c>
       <c r="I26" s="3">
-        <v>33900</v>
+        <v>35900</v>
       </c>
       <c r="J26" s="3">
-        <v>30400</v>
+        <v>32200</v>
       </c>
       <c r="K26" s="3">
         <v>33100</v>
@@ -1655,26 +1655,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>58900</v>
       </c>
       <c r="E27" s="3">
-        <v>45100</v>
+        <v>47800</v>
       </c>
       <c r="F27" s="3">
-        <v>22400</v>
+        <v>23700</v>
       </c>
       <c r="G27" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="H27" s="3">
-        <v>46600</v>
+        <v>49300</v>
       </c>
       <c r="I27" s="3">
-        <v>33900</v>
+        <v>35900</v>
       </c>
       <c r="J27" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="K27" s="3">
         <v>33100</v>
@@ -1920,26 +1920,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>10300</v>
       </c>
       <c r="E32" s="3">
-        <v>11600</v>
+        <v>12300</v>
       </c>
       <c r="F32" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="G32" s="3">
-        <v>26500</v>
+        <v>28100</v>
       </c>
       <c r="H32" s="3">
-        <v>18800</v>
+        <v>19900</v>
       </c>
       <c r="I32" s="3">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="J32" s="3">
-        <v>13900</v>
+        <v>14800</v>
       </c>
       <c r="K32" s="3">
         <v>12500</v>
@@ -1973,26 +1973,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>58900</v>
       </c>
       <c r="E33" s="3">
-        <v>45100</v>
+        <v>47800</v>
       </c>
       <c r="F33" s="3">
-        <v>22400</v>
+        <v>23700</v>
       </c>
       <c r="G33" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="H33" s="3">
-        <v>46600</v>
+        <v>49300</v>
       </c>
       <c r="I33" s="3">
-        <v>33900</v>
+        <v>35900</v>
       </c>
       <c r="J33" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="K33" s="3">
         <v>33100</v>
@@ -2079,26 +2079,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>58900</v>
       </c>
       <c r="E35" s="3">
-        <v>45100</v>
+        <v>47800</v>
       </c>
       <c r="F35" s="3">
-        <v>22400</v>
+        <v>23700</v>
       </c>
       <c r="G35" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="H35" s="3">
-        <v>46600</v>
+        <v>49300</v>
       </c>
       <c r="I35" s="3">
-        <v>33900</v>
+        <v>35900</v>
       </c>
       <c r="J35" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="K35" s="3">
         <v>33100</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>433300</v>
+        <v>459000</v>
       </c>
       <c r="E41" s="3">
-        <v>388200</v>
+        <v>411200</v>
       </c>
       <c r="F41" s="3">
-        <v>491700</v>
+        <v>520900</v>
       </c>
       <c r="G41" s="3">
-        <v>268900</v>
+        <v>284900</v>
       </c>
       <c r="H41" s="3">
-        <v>171500</v>
+        <v>181600</v>
       </c>
       <c r="I41" s="3">
-        <v>43400</v>
+        <v>46000</v>
       </c>
       <c r="J41" s="3">
-        <v>28400</v>
+        <v>30100</v>
       </c>
       <c r="K41" s="3">
         <v>16300</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1439200</v>
+        <v>1524700</v>
       </c>
       <c r="E42" s="3">
-        <v>1449300</v>
+        <v>1535300</v>
       </c>
       <c r="F42" s="3">
-        <v>139700</v>
+        <v>147900</v>
       </c>
       <c r="G42" s="3">
-        <v>426200</v>
+        <v>451500</v>
       </c>
       <c r="H42" s="3">
-        <v>520100</v>
+        <v>550900</v>
       </c>
       <c r="I42" s="3">
-        <v>501000</v>
+        <v>530700</v>
       </c>
       <c r="J42" s="3">
-        <v>478900</v>
+        <v>507400</v>
       </c>
       <c r="K42" s="3">
         <v>497800</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3148200</v>
+        <v>3335100</v>
       </c>
       <c r="E43" s="3">
-        <v>3070000</v>
+        <v>3252200</v>
       </c>
       <c r="F43" s="3">
-        <v>2427700</v>
+        <v>2571800</v>
       </c>
       <c r="G43" s="3">
-        <v>2330000</v>
+        <v>2468300</v>
       </c>
       <c r="H43" s="3">
-        <v>2543900</v>
+        <v>2694900</v>
       </c>
       <c r="I43" s="3">
-        <v>2242200</v>
+        <v>2375300</v>
       </c>
       <c r="J43" s="3">
-        <v>2242100</v>
+        <v>2375200</v>
       </c>
       <c r="K43" s="3">
         <v>1971100</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>162900</v>
+        <v>172600</v>
       </c>
       <c r="E45" s="3">
-        <v>111900</v>
+        <v>118500</v>
       </c>
       <c r="F45" s="3">
-        <v>74900</v>
+        <v>79400</v>
       </c>
       <c r="G45" s="3">
-        <v>45900</v>
+        <v>48700</v>
       </c>
       <c r="H45" s="3">
-        <v>23500</v>
+        <v>24900</v>
       </c>
       <c r="I45" s="3">
-        <v>26900</v>
+        <v>28500</v>
       </c>
       <c r="J45" s="3">
-        <v>8600</v>
+        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>7100</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5183700</v>
+        <v>5491400</v>
       </c>
       <c r="E46" s="3">
-        <v>5019400</v>
+        <v>5317300</v>
       </c>
       <c r="F46" s="3">
-        <v>3134000</v>
+        <v>3320000</v>
       </c>
       <c r="G46" s="3">
-        <v>3071100</v>
+        <v>3253400</v>
       </c>
       <c r="H46" s="3">
-        <v>3259000</v>
+        <v>3452400</v>
       </c>
       <c r="I46" s="3">
-        <v>2813500</v>
+        <v>2980500</v>
       </c>
       <c r="J46" s="3">
-        <v>2758100</v>
+        <v>2921800</v>
       </c>
       <c r="K46" s="3">
         <v>2492300</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78100</v>
+        <v>82800</v>
       </c>
       <c r="E47" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="F47" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="H47" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="I47" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="J47" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="K47" s="3">
         <v>2300</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127000</v>
+        <v>134500</v>
       </c>
       <c r="E48" s="3">
-        <v>114400</v>
+        <v>121200</v>
       </c>
       <c r="F48" s="3">
-        <v>106500</v>
+        <v>112800</v>
       </c>
       <c r="G48" s="3">
-        <v>105300</v>
+        <v>111500</v>
       </c>
       <c r="H48" s="3">
-        <v>97100</v>
+        <v>102900</v>
       </c>
       <c r="I48" s="3">
-        <v>84800</v>
+        <v>89800</v>
       </c>
       <c r="J48" s="3">
-        <v>66500</v>
+        <v>70500</v>
       </c>
       <c r="K48" s="3">
         <v>62800</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>184100</v>
+        <v>195100</v>
       </c>
       <c r="E49" s="3">
-        <v>137000</v>
+        <v>145200</v>
       </c>
       <c r="F49" s="3">
-        <v>123000</v>
+        <v>130300</v>
       </c>
       <c r="G49" s="3">
-        <v>67600</v>
+        <v>71600</v>
       </c>
       <c r="H49" s="3">
-        <v>66200</v>
+        <v>70100</v>
       </c>
       <c r="I49" s="3">
-        <v>65000</v>
+        <v>68900</v>
       </c>
       <c r="J49" s="3">
-        <v>57300</v>
+        <v>60700</v>
       </c>
       <c r="K49" s="3">
         <v>58500</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48800</v>
+        <v>51700</v>
       </c>
       <c r="E52" s="3">
-        <v>45400</v>
+        <v>48100</v>
       </c>
       <c r="F52" s="3">
-        <v>42000</v>
+        <v>44500</v>
       </c>
       <c r="G52" s="3">
-        <v>44600</v>
+        <v>47200</v>
       </c>
       <c r="H52" s="3">
-        <v>42000</v>
+        <v>44500</v>
       </c>
       <c r="I52" s="3">
-        <v>44600</v>
+        <v>47300</v>
       </c>
       <c r="J52" s="3">
-        <v>48300</v>
+        <v>51200</v>
       </c>
       <c r="K52" s="3">
         <v>51900</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5621700</v>
+        <v>5955400</v>
       </c>
       <c r="E54" s="3">
-        <v>5327600</v>
+        <v>5643800</v>
       </c>
       <c r="F54" s="3">
-        <v>3410400</v>
+        <v>3612800</v>
       </c>
       <c r="G54" s="3">
-        <v>3297300</v>
+        <v>3493000</v>
       </c>
       <c r="H54" s="3">
-        <v>3471600</v>
+        <v>3677600</v>
       </c>
       <c r="I54" s="3">
-        <v>3013200</v>
+        <v>3192000</v>
       </c>
       <c r="J54" s="3">
-        <v>2935100</v>
+        <v>3109300</v>
       </c>
       <c r="K54" s="3">
         <v>2667700</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1656100</v>
+        <v>1754400</v>
       </c>
       <c r="E57" s="3">
-        <v>1530600</v>
+        <v>1621500</v>
       </c>
       <c r="F57" s="3">
-        <v>1251000</v>
+        <v>1325300</v>
       </c>
       <c r="G57" s="3">
-        <v>1005200</v>
+        <v>1064800</v>
       </c>
       <c r="H57" s="3">
-        <v>1168300</v>
+        <v>1237600</v>
       </c>
       <c r="I57" s="3">
-        <v>1028800</v>
+        <v>1089800</v>
       </c>
       <c r="J57" s="3">
-        <v>1043200</v>
+        <v>1105200</v>
       </c>
       <c r="K57" s="3">
         <v>1088800</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>556800</v>
+        <v>589900</v>
       </c>
       <c r="E58" s="3">
-        <v>515700</v>
+        <v>546300</v>
       </c>
       <c r="F58" s="3">
-        <v>669400</v>
+        <v>709200</v>
       </c>
       <c r="G58" s="3">
-        <v>754300</v>
+        <v>799000</v>
       </c>
       <c r="H58" s="3">
-        <v>892200</v>
+        <v>945200</v>
       </c>
       <c r="I58" s="3">
-        <v>491600</v>
+        <v>520800</v>
       </c>
       <c r="J58" s="3">
-        <v>376100</v>
+        <v>398400</v>
       </c>
       <c r="K58" s="3">
         <v>246700</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156300</v>
+        <v>165600</v>
       </c>
       <c r="E59" s="3">
-        <v>113200</v>
+        <v>120000</v>
       </c>
       <c r="F59" s="3">
-        <v>78000</v>
+        <v>82600</v>
       </c>
       <c r="G59" s="3">
-        <v>51900</v>
+        <v>55000</v>
       </c>
       <c r="H59" s="3">
-        <v>41800</v>
+        <v>44300</v>
       </c>
       <c r="I59" s="3">
-        <v>32100</v>
+        <v>34000</v>
       </c>
       <c r="J59" s="3">
-        <v>33700</v>
+        <v>35700</v>
       </c>
       <c r="K59" s="3">
         <v>34700</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2369300</v>
+        <v>2509900</v>
       </c>
       <c r="E60" s="3">
-        <v>2159600</v>
+        <v>2287800</v>
       </c>
       <c r="F60" s="3">
-        <v>1998500</v>
+        <v>2117100</v>
       </c>
       <c r="G60" s="3">
-        <v>1811400</v>
+        <v>1918900</v>
       </c>
       <c r="H60" s="3">
-        <v>2102300</v>
+        <v>2227000</v>
       </c>
       <c r="I60" s="3">
-        <v>1552500</v>
+        <v>1644600</v>
       </c>
       <c r="J60" s="3">
-        <v>1453000</v>
+        <v>1539300</v>
       </c>
       <c r="K60" s="3">
         <v>1370300</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>520400</v>
+        <v>551300</v>
       </c>
       <c r="E61" s="3">
-        <v>527100</v>
+        <v>558400</v>
       </c>
       <c r="F61" s="3">
-        <v>218400</v>
+        <v>231400</v>
       </c>
       <c r="G61" s="3">
-        <v>357500</v>
+        <v>378700</v>
       </c>
       <c r="H61" s="3">
-        <v>302300</v>
+        <v>320300</v>
       </c>
       <c r="I61" s="3">
-        <v>443500</v>
+        <v>469800</v>
       </c>
       <c r="J61" s="3">
-        <v>501300</v>
+        <v>531100</v>
       </c>
       <c r="K61" s="3">
         <v>295800</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>77500</v>
+        <v>82100</v>
       </c>
       <c r="E62" s="3">
-        <v>55300</v>
+        <v>58600</v>
       </c>
       <c r="F62" s="3">
-        <v>46100</v>
+        <v>48900</v>
       </c>
       <c r="G62" s="3">
-        <v>8900</v>
+        <v>9400</v>
       </c>
       <c r="H62" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="I62" s="3">
-        <v>19400</v>
+        <v>20500</v>
       </c>
       <c r="J62" s="3">
-        <v>18600</v>
+        <v>19700</v>
       </c>
       <c r="K62" s="3">
         <v>15600</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2991600</v>
+        <v>3169200</v>
       </c>
       <c r="E66" s="3">
-        <v>2758500</v>
+        <v>2922200</v>
       </c>
       <c r="F66" s="3">
-        <v>2279500</v>
+        <v>2414800</v>
       </c>
       <c r="G66" s="3">
-        <v>2194300</v>
+        <v>2324500</v>
       </c>
       <c r="H66" s="3">
-        <v>2414100</v>
+        <v>2557300</v>
       </c>
       <c r="I66" s="3">
-        <v>2015300</v>
+        <v>2134900</v>
       </c>
       <c r="J66" s="3">
-        <v>1972900</v>
+        <v>2090000</v>
       </c>
       <c r="K66" s="3">
         <v>1681600</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2644500</v>
+        <v>2801500</v>
       </c>
       <c r="E72" s="3">
-        <v>2589200</v>
+        <v>2742900</v>
       </c>
       <c r="F72" s="3">
-        <v>1152700</v>
+        <v>1221100</v>
       </c>
       <c r="G72" s="3">
-        <v>1124000</v>
+        <v>1190800</v>
       </c>
       <c r="H72" s="3">
-        <v>1070300</v>
+        <v>1133900</v>
       </c>
       <c r="I72" s="3">
-        <v>1011600</v>
+        <v>1071600</v>
       </c>
       <c r="J72" s="3">
-        <v>976700</v>
+        <v>1034600</v>
       </c>
       <c r="K72" s="3">
         <v>998300</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2630100</v>
+        <v>2786200</v>
       </c>
       <c r="E76" s="3">
-        <v>2569100</v>
+        <v>2721600</v>
       </c>
       <c r="F76" s="3">
-        <v>1130900</v>
+        <v>1198000</v>
       </c>
       <c r="G76" s="3">
-        <v>1103000</v>
+        <v>1168500</v>
       </c>
       <c r="H76" s="3">
-        <v>1057500</v>
+        <v>1120300</v>
       </c>
       <c r="I76" s="3">
-        <v>997900</v>
+        <v>1057100</v>
       </c>
       <c r="J76" s="3">
-        <v>962200</v>
+        <v>1019300</v>
       </c>
       <c r="K76" s="3">
         <v>986200</v>
@@ -4155,26 +4155,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>58900</v>
       </c>
       <c r="E81" s="3">
-        <v>45100</v>
+        <v>47800</v>
       </c>
       <c r="F81" s="3">
-        <v>22400</v>
+        <v>23700</v>
       </c>
       <c r="G81" s="3">
-        <v>28100</v>
+        <v>29800</v>
       </c>
       <c r="H81" s="3">
-        <v>46600</v>
+        <v>49300</v>
       </c>
       <c r="I81" s="3">
-        <v>33900</v>
+        <v>35900</v>
       </c>
       <c r="J81" s="3">
-        <v>30400</v>
+        <v>32300</v>
       </c>
       <c r="K81" s="3">
         <v>33100</v>
@@ -4230,25 +4230,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12600</v>
+        <v>13400</v>
       </c>
       <c r="E83" s="3">
-        <v>10900</v>
+        <v>11500</v>
       </c>
       <c r="F83" s="3">
-        <v>11200</v>
+        <v>11900</v>
       </c>
       <c r="G83" s="3">
-        <v>10700</v>
+        <v>11300</v>
       </c>
       <c r="H83" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="I83" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="J83" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="K83" s="3">
         <v>5600</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>43000</v>
+        <v>45500</v>
       </c>
       <c r="E89" s="3">
-        <v>-295700</v>
+        <v>-313200</v>
       </c>
       <c r="F89" s="3">
-        <v>198500</v>
+        <v>210300</v>
       </c>
       <c r="G89" s="3">
-        <v>64200</v>
+        <v>68000</v>
       </c>
       <c r="H89" s="3">
-        <v>-117500</v>
+        <v>-124500</v>
       </c>
       <c r="I89" s="3">
-        <v>33700</v>
+        <v>35700</v>
       </c>
       <c r="J89" s="3">
-        <v>-333500</v>
+        <v>-353300</v>
       </c>
       <c r="K89" s="3">
         <v>-55200</v>
@@ -4622,25 +4622,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
-        <v>-27200</v>
+        <v>-28800</v>
       </c>
       <c r="F91" s="3">
-        <v>-16100</v>
+        <v>-17000</v>
       </c>
       <c r="G91" s="3">
-        <v>-16000</v>
+        <v>-16900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="I91" s="3">
-        <v>-34900</v>
+        <v>-37000</v>
       </c>
       <c r="J91" s="3">
-        <v>-11000</v>
+        <v>-11700</v>
       </c>
       <c r="K91" s="3">
         <v>-10200</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21600</v>
+        <v>-22900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1350000</v>
+        <v>-1430100</v>
       </c>
       <c r="F94" s="3">
-        <v>255400</v>
+        <v>270600</v>
       </c>
       <c r="G94" s="3">
-        <v>87600</v>
+        <v>92800</v>
       </c>
       <c r="H94" s="3">
-        <v>-22100</v>
+        <v>-23500</v>
       </c>
       <c r="I94" s="3">
-        <v>-52800</v>
+        <v>-55900</v>
       </c>
       <c r="J94" s="3">
-        <v>-18500</v>
+        <v>-19600</v>
       </c>
       <c r="K94" s="3">
         <v>16900</v>
@@ -5067,25 +5067,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>20500</v>
+        <v>21700</v>
       </c>
       <c r="E100" s="3">
-        <v>1541900</v>
+        <v>1633500</v>
       </c>
       <c r="F100" s="3">
-        <v>-230800</v>
+        <v>-244500</v>
       </c>
       <c r="G100" s="3">
-        <v>-53900</v>
+        <v>-57100</v>
       </c>
       <c r="H100" s="3">
-        <v>267500</v>
+        <v>283400</v>
       </c>
       <c r="I100" s="3">
-        <v>33700</v>
+        <v>35700</v>
       </c>
       <c r="J100" s="3">
-        <v>365300</v>
+        <v>387000</v>
       </c>
       <c r="K100" s="3">
         <v>-1200</v>
@@ -5120,13 +5120,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45100</v>
+        <v>47800</v>
       </c>
       <c r="E102" s="3">
-        <v>-103500</v>
+        <v>-109600</v>
       </c>
       <c r="F102" s="3">
-        <v>222800</v>
+        <v>236000</v>
       </c>
       <c r="G102" s="3">
-        <v>97400</v>
+        <v>103200</v>
       </c>
       <c r="H102" s="3">
-        <v>128100</v>
+        <v>135700</v>
       </c>
       <c r="I102" s="3">
-        <v>15000</v>
+        <v>15800</v>
       </c>
       <c r="J102" s="3">
-        <v>13000</v>
+        <v>13800</v>
       </c>
       <c r="K102" s="3">
         <v>-39500</v>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>185500</v>
+        <v>160300</v>
       </c>
       <c r="E8" s="3">
-        <v>175300</v>
+        <v>182600</v>
       </c>
       <c r="F8" s="3">
-        <v>125200</v>
+        <v>172600</v>
       </c>
       <c r="G8" s="3">
-        <v>134500</v>
+        <v>123300</v>
       </c>
       <c r="H8" s="3">
-        <v>146900</v>
+        <v>132400</v>
       </c>
       <c r="I8" s="3">
-        <v>125900</v>
+        <v>144600</v>
       </c>
       <c r="J8" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K8" s="3">
         <v>110000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>76600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>18900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>40000</v>
+        <v>44300</v>
       </c>
       <c r="E9" s="3">
-        <v>39000</v>
+        <v>39400</v>
       </c>
       <c r="F9" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="G9" s="3">
-        <v>28100</v>
+        <v>36700</v>
       </c>
       <c r="H9" s="3">
-        <v>24100</v>
+        <v>27700</v>
       </c>
       <c r="I9" s="3">
-        <v>21100</v>
+        <v>23700</v>
       </c>
       <c r="J9" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K9" s="3">
         <v>18900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>145500</v>
+        <v>116000</v>
       </c>
       <c r="E10" s="3">
-        <v>136200</v>
+        <v>143300</v>
       </c>
       <c r="F10" s="3">
-        <v>87900</v>
+        <v>134100</v>
       </c>
       <c r="G10" s="3">
-        <v>106300</v>
+        <v>86600</v>
       </c>
       <c r="H10" s="3">
-        <v>122800</v>
+        <v>104700</v>
       </c>
       <c r="I10" s="3">
-        <v>104800</v>
+        <v>120900</v>
       </c>
       <c r="J10" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K10" s="3">
         <v>91100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>84300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>5200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,38 +1101,41 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E15" s="3">
         <v>4700</v>
       </c>
-      <c r="E15" s="3">
-        <v>5200</v>
-      </c>
       <c r="F15" s="3">
-        <v>4000</v>
+        <v>5100</v>
       </c>
       <c r="G15" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3800</v>
+        <v>3900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1145,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>106100</v>
+        <v>103700</v>
       </c>
       <c r="E17" s="3">
-        <v>93200</v>
+        <v>104500</v>
       </c>
       <c r="F17" s="3">
-        <v>83200</v>
+        <v>91800</v>
       </c>
       <c r="G17" s="3">
-        <v>63600</v>
+        <v>81900</v>
       </c>
       <c r="H17" s="3">
-        <v>58600</v>
+        <v>62700</v>
       </c>
       <c r="I17" s="3">
-        <v>55700</v>
+        <v>57700</v>
       </c>
       <c r="J17" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K17" s="3">
         <v>55900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>36000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>28600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>79400</v>
+        <v>56500</v>
       </c>
       <c r="E18" s="3">
-        <v>82000</v>
+        <v>78200</v>
       </c>
       <c r="F18" s="3">
-        <v>42000</v>
+        <v>80800</v>
       </c>
       <c r="G18" s="3">
-        <v>70800</v>
+        <v>41400</v>
       </c>
       <c r="H18" s="3">
-        <v>88300</v>
+        <v>69700</v>
       </c>
       <c r="I18" s="3">
-        <v>70200</v>
+        <v>86900</v>
       </c>
       <c r="J18" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K18" s="3">
         <v>54100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-17000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,97 +1312,101 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10300</v>
+        <v>-8800</v>
       </c>
       <c r="E20" s="3">
-        <v>-12300</v>
+        <v>-10100</v>
       </c>
       <c r="F20" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G20" s="3">
-        <v>-28100</v>
+        <v>-11900</v>
       </c>
       <c r="H20" s="3">
-        <v>-19900</v>
+        <v>-27600</v>
       </c>
       <c r="I20" s="3">
-        <v>-18500</v>
+        <v>-19600</v>
       </c>
       <c r="J20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>14400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>82500</v>
+        <v>63400</v>
       </c>
       <c r="E21" s="3">
         <v>81200</v>
       </c>
       <c r="F21" s="3">
-        <v>41800</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="3">
-        <v>54000</v>
+        <v>41200</v>
       </c>
       <c r="H21" s="3">
-        <v>78800</v>
+        <v>53200</v>
       </c>
       <c r="I21" s="3">
-        <v>59900</v>
+        <v>77600</v>
       </c>
       <c r="J21" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K21" s="3">
         <v>45800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>28700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1379,19 +1416,22 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>6900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>9000</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1402,18 +1442,18 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69100</v>
+        <v>38800</v>
       </c>
       <c r="E23" s="3">
-        <v>69700</v>
+        <v>68000</v>
       </c>
       <c r="F23" s="3">
-        <v>30000</v>
+        <v>68600</v>
       </c>
       <c r="G23" s="3">
-        <v>42800</v>
+        <v>29500</v>
       </c>
       <c r="H23" s="3">
-        <v>68000</v>
+        <v>42100</v>
       </c>
       <c r="I23" s="3">
-        <v>51400</v>
+        <v>67000</v>
       </c>
       <c r="J23" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K23" s="3">
         <v>39200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11700</v>
+        <v>9500</v>
       </c>
       <c r="E24" s="3">
-        <v>23000</v>
+        <v>11500</v>
       </c>
       <c r="F24" s="3">
-        <v>6800</v>
+        <v>22600</v>
       </c>
       <c r="G24" s="3">
-        <v>13000</v>
+        <v>6700</v>
       </c>
       <c r="H24" s="3">
-        <v>18500</v>
+        <v>12800</v>
       </c>
       <c r="I24" s="3">
-        <v>15500</v>
+        <v>18200</v>
       </c>
       <c r="J24" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5200</v>
       </c>
       <c r="O24" s="3">
         <v>5200</v>
       </c>
       <c r="P24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57400</v>
+        <v>29200</v>
       </c>
       <c r="E26" s="3">
-        <v>46700</v>
+        <v>56500</v>
       </c>
       <c r="F26" s="3">
-        <v>23200</v>
+        <v>46000</v>
       </c>
       <c r="G26" s="3">
-        <v>29800</v>
+        <v>22800</v>
       </c>
       <c r="H26" s="3">
-        <v>49500</v>
+        <v>29300</v>
       </c>
       <c r="I26" s="3">
-        <v>35900</v>
+        <v>48800</v>
       </c>
       <c r="J26" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K26" s="3">
         <v>32200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>16700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58900</v>
+        <v>29200</v>
       </c>
       <c r="E27" s="3">
-        <v>47800</v>
+        <v>58000</v>
       </c>
       <c r="F27" s="3">
-        <v>23700</v>
+        <v>47100</v>
       </c>
       <c r="G27" s="3">
-        <v>29800</v>
+        <v>23400</v>
       </c>
       <c r="H27" s="3">
-        <v>49300</v>
+        <v>29300</v>
       </c>
       <c r="I27" s="3">
-        <v>35900</v>
+        <v>48600</v>
       </c>
       <c r="J27" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K27" s="3">
         <v>32300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10300</v>
+        <v>8800</v>
       </c>
       <c r="E32" s="3">
-        <v>12300</v>
+        <v>10100</v>
       </c>
       <c r="F32" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G32" s="3">
-        <v>28100</v>
+        <v>11900</v>
       </c>
       <c r="H32" s="3">
-        <v>19900</v>
+        <v>27600</v>
       </c>
       <c r="I32" s="3">
-        <v>18500</v>
+        <v>19600</v>
       </c>
       <c r="J32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-14400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58900</v>
+        <v>29200</v>
       </c>
       <c r="E33" s="3">
-        <v>47800</v>
+        <v>58000</v>
       </c>
       <c r="F33" s="3">
-        <v>23700</v>
+        <v>47100</v>
       </c>
       <c r="G33" s="3">
-        <v>29800</v>
+        <v>23400</v>
       </c>
       <c r="H33" s="3">
-        <v>49300</v>
+        <v>29300</v>
       </c>
       <c r="I33" s="3">
-        <v>35900</v>
+        <v>48600</v>
       </c>
       <c r="J33" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K33" s="3">
         <v>32300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58900</v>
+        <v>29200</v>
       </c>
       <c r="E35" s="3">
-        <v>47800</v>
+        <v>58000</v>
       </c>
       <c r="F35" s="3">
-        <v>23700</v>
+        <v>47100</v>
       </c>
       <c r="G35" s="3">
-        <v>29800</v>
+        <v>23400</v>
       </c>
       <c r="H35" s="3">
-        <v>49300</v>
+        <v>29300</v>
       </c>
       <c r="I35" s="3">
-        <v>35900</v>
+        <v>48600</v>
       </c>
       <c r="J35" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K35" s="3">
         <v>32300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>459000</v>
+        <v>344200</v>
       </c>
       <c r="E41" s="3">
-        <v>411200</v>
+        <v>452000</v>
       </c>
       <c r="F41" s="3">
-        <v>520900</v>
+        <v>404900</v>
       </c>
       <c r="G41" s="3">
-        <v>284900</v>
+        <v>512900</v>
       </c>
       <c r="H41" s="3">
-        <v>181600</v>
+        <v>280500</v>
       </c>
       <c r="I41" s="3">
-        <v>46000</v>
+        <v>178900</v>
       </c>
       <c r="J41" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K41" s="3">
         <v>30100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>53200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,47 +2367,50 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1524700</v>
+        <v>1602000</v>
       </c>
       <c r="E42" s="3">
-        <v>1535300</v>
+        <v>1501300</v>
       </c>
       <c r="F42" s="3">
-        <v>147900</v>
+        <v>1511800</v>
       </c>
       <c r="G42" s="3">
-        <v>451500</v>
+        <v>145700</v>
       </c>
       <c r="H42" s="3">
-        <v>550900</v>
+        <v>444600</v>
       </c>
       <c r="I42" s="3">
-        <v>530700</v>
+        <v>542500</v>
       </c>
       <c r="J42" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K42" s="3">
         <v>507400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>497800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>494300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>48800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2333,47 +2423,50 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3335100</v>
+        <v>3177800</v>
       </c>
       <c r="E43" s="3">
-        <v>3252200</v>
+        <v>3283800</v>
       </c>
       <c r="F43" s="3">
-        <v>2571800</v>
+        <v>3202300</v>
       </c>
       <c r="G43" s="3">
-        <v>2468300</v>
+        <v>2532400</v>
       </c>
       <c r="H43" s="3">
-        <v>2694900</v>
+        <v>2430400</v>
       </c>
       <c r="I43" s="3">
-        <v>2375300</v>
+        <v>2653500</v>
       </c>
       <c r="J43" s="3">
+        <v>2338800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2375200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1971100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1667400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1233300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1385400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,47 +2535,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172600</v>
+        <v>197000</v>
       </c>
       <c r="E45" s="3">
-        <v>118500</v>
+        <v>170000</v>
       </c>
       <c r="F45" s="3">
-        <v>79400</v>
+        <v>116700</v>
       </c>
       <c r="G45" s="3">
-        <v>48700</v>
+        <v>78200</v>
       </c>
       <c r="H45" s="3">
-        <v>24900</v>
+        <v>47900</v>
       </c>
       <c r="I45" s="3">
-        <v>28500</v>
+        <v>24500</v>
       </c>
       <c r="J45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,47 +2591,50 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5491400</v>
+        <v>5321100</v>
       </c>
       <c r="E46" s="3">
-        <v>5317300</v>
+        <v>5407100</v>
       </c>
       <c r="F46" s="3">
-        <v>3320000</v>
+        <v>5235700</v>
       </c>
       <c r="G46" s="3">
-        <v>3253400</v>
+        <v>3269100</v>
       </c>
       <c r="H46" s="3">
-        <v>3452400</v>
+        <v>3203400</v>
       </c>
       <c r="I46" s="3">
-        <v>2980500</v>
+        <v>3399400</v>
       </c>
       <c r="J46" s="3">
+        <v>2934700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2921800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2492300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2218900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1300000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1471500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2545,47 +2647,50 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82800</v>
+        <v>77500</v>
       </c>
       <c r="E47" s="3">
-        <v>12000</v>
+        <v>81500</v>
       </c>
       <c r="F47" s="3">
-        <v>5200</v>
+        <v>11900</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>5100</v>
       </c>
       <c r="H47" s="3">
-        <v>7700</v>
+        <v>9100</v>
       </c>
       <c r="I47" s="3">
-        <v>5500</v>
+        <v>7600</v>
       </c>
       <c r="J47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K47" s="3">
         <v>5100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>134500</v>
+        <v>164800</v>
       </c>
       <c r="E48" s="3">
-        <v>121200</v>
+        <v>132500</v>
       </c>
       <c r="F48" s="3">
-        <v>112800</v>
+        <v>119300</v>
       </c>
       <c r="G48" s="3">
-        <v>111500</v>
+        <v>111100</v>
       </c>
       <c r="H48" s="3">
-        <v>102900</v>
+        <v>109800</v>
       </c>
       <c r="I48" s="3">
-        <v>89800</v>
+        <v>101300</v>
       </c>
       <c r="J48" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K48" s="3">
         <v>70500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>47500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>57400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,47 +2759,50 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195100</v>
+        <v>195700</v>
       </c>
       <c r="E49" s="3">
-        <v>145200</v>
+        <v>192100</v>
       </c>
       <c r="F49" s="3">
-        <v>130300</v>
+        <v>142900</v>
       </c>
       <c r="G49" s="3">
-        <v>71600</v>
+        <v>128300</v>
       </c>
       <c r="H49" s="3">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="I49" s="3">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="J49" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K49" s="3">
         <v>60700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>58500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>55900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51700</v>
+        <v>90700</v>
       </c>
       <c r="E52" s="3">
-        <v>48100</v>
+        <v>50900</v>
       </c>
       <c r="F52" s="3">
-        <v>44500</v>
+        <v>47300</v>
       </c>
       <c r="G52" s="3">
-        <v>47200</v>
+        <v>43800</v>
       </c>
       <c r="H52" s="3">
-        <v>44500</v>
+        <v>46500</v>
       </c>
       <c r="I52" s="3">
-        <v>47300</v>
+        <v>43900</v>
       </c>
       <c r="J52" s="3">
+        <v>46600</v>
+      </c>
+      <c r="K52" s="3">
         <v>51200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5955400</v>
+        <v>5849800</v>
       </c>
       <c r="E54" s="3">
-        <v>5643800</v>
+        <v>5864000</v>
       </c>
       <c r="F54" s="3">
-        <v>3612800</v>
+        <v>5557100</v>
       </c>
       <c r="G54" s="3">
-        <v>3493000</v>
+        <v>3557400</v>
       </c>
       <c r="H54" s="3">
-        <v>3677600</v>
+        <v>3439400</v>
       </c>
       <c r="I54" s="3">
-        <v>3192000</v>
+        <v>3621200</v>
       </c>
       <c r="J54" s="3">
+        <v>3143000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3109300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2667700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2371500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1452700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1643300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3141,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1754400</v>
+        <v>1596700</v>
       </c>
       <c r="E57" s="3">
-        <v>1621500</v>
+        <v>1727500</v>
       </c>
       <c r="F57" s="3">
-        <v>1325300</v>
+        <v>1596600</v>
       </c>
       <c r="G57" s="3">
-        <v>1064800</v>
+        <v>1304900</v>
       </c>
       <c r="H57" s="3">
-        <v>1237600</v>
+        <v>1048500</v>
       </c>
       <c r="I57" s="3">
-        <v>1089800</v>
+        <v>1218600</v>
       </c>
       <c r="J57" s="3">
+        <v>1073100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1105200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1088800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>912300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>865300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>940200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,47 +3195,50 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>589900</v>
+        <v>626400</v>
       </c>
       <c r="E58" s="3">
-        <v>546300</v>
+        <v>580900</v>
       </c>
       <c r="F58" s="3">
-        <v>709200</v>
+        <v>537900</v>
       </c>
       <c r="G58" s="3">
-        <v>799000</v>
+        <v>698300</v>
       </c>
       <c r="H58" s="3">
-        <v>945200</v>
+        <v>786800</v>
       </c>
       <c r="I58" s="3">
-        <v>520800</v>
+        <v>930600</v>
       </c>
       <c r="J58" s="3">
+        <v>512800</v>
+      </c>
+      <c r="K58" s="3">
         <v>398400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>246700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>138700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>165600</v>
+        <v>163400</v>
       </c>
       <c r="E59" s="3">
-        <v>120000</v>
+        <v>163000</v>
       </c>
       <c r="F59" s="3">
-        <v>82600</v>
+        <v>118100</v>
       </c>
       <c r="G59" s="3">
-        <v>55000</v>
+        <v>81400</v>
       </c>
       <c r="H59" s="3">
-        <v>44300</v>
+        <v>54100</v>
       </c>
       <c r="I59" s="3">
-        <v>34000</v>
+        <v>43600</v>
       </c>
       <c r="J59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3170,47 +3307,50 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2509900</v>
+        <v>2386600</v>
       </c>
       <c r="E60" s="3">
-        <v>2287800</v>
+        <v>2471400</v>
       </c>
       <c r="F60" s="3">
-        <v>2117100</v>
+        <v>2252600</v>
       </c>
       <c r="G60" s="3">
-        <v>1918900</v>
+        <v>2084600</v>
       </c>
       <c r="H60" s="3">
-        <v>2227000</v>
+        <v>1889400</v>
       </c>
       <c r="I60" s="3">
-        <v>1644600</v>
+        <v>2192900</v>
       </c>
       <c r="J60" s="3">
+        <v>1619400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1539300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1370300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1080200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>923000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>972100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,47 +3363,50 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>551300</v>
+        <v>534500</v>
       </c>
       <c r="E61" s="3">
-        <v>558400</v>
+        <v>542800</v>
       </c>
       <c r="F61" s="3">
-        <v>231400</v>
+        <v>549800</v>
       </c>
       <c r="G61" s="3">
-        <v>378700</v>
+        <v>227800</v>
       </c>
       <c r="H61" s="3">
-        <v>320300</v>
+        <v>372900</v>
       </c>
       <c r="I61" s="3">
-        <v>469800</v>
+        <v>315400</v>
       </c>
       <c r="J61" s="3">
+        <v>462600</v>
+      </c>
+      <c r="K61" s="3">
         <v>531100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>295800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>367400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>381000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>481100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82100</v>
+        <v>85200</v>
       </c>
       <c r="E62" s="3">
-        <v>58600</v>
+        <v>80800</v>
       </c>
       <c r="F62" s="3">
-        <v>48900</v>
+        <v>57700</v>
       </c>
       <c r="G62" s="3">
-        <v>9400</v>
+        <v>48100</v>
       </c>
       <c r="H62" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="I62" s="3">
-        <v>20500</v>
+        <v>9700</v>
       </c>
       <c r="J62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3169200</v>
+        <v>3017700</v>
       </c>
       <c r="E66" s="3">
-        <v>2922200</v>
+        <v>3120500</v>
       </c>
       <c r="F66" s="3">
-        <v>2414800</v>
+        <v>2877400</v>
       </c>
       <c r="G66" s="3">
-        <v>2324500</v>
+        <v>2377800</v>
       </c>
       <c r="H66" s="3">
-        <v>2557300</v>
+        <v>2288900</v>
       </c>
       <c r="I66" s="3">
-        <v>2134900</v>
+        <v>2518100</v>
       </c>
       <c r="J66" s="3">
+        <v>2102100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2090000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1681600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1462900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1325800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1476000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2801500</v>
+        <v>2848600</v>
       </c>
       <c r="E72" s="3">
-        <v>2742900</v>
+        <v>2758400</v>
       </c>
       <c r="F72" s="3">
-        <v>1221100</v>
+        <v>2700800</v>
       </c>
       <c r="G72" s="3">
-        <v>1190800</v>
+        <v>1202400</v>
       </c>
       <c r="H72" s="3">
-        <v>1133900</v>
+        <v>1172500</v>
       </c>
       <c r="I72" s="3">
-        <v>1071600</v>
+        <v>1116500</v>
       </c>
       <c r="J72" s="3">
+        <v>1055200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1034600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>998300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>918700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>132900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>175600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2786200</v>
+        <v>2832100</v>
       </c>
       <c r="E76" s="3">
-        <v>2721600</v>
+        <v>2743400</v>
       </c>
       <c r="F76" s="3">
-        <v>1198000</v>
+        <v>2679800</v>
       </c>
       <c r="G76" s="3">
-        <v>1168500</v>
+        <v>1179600</v>
       </c>
       <c r="H76" s="3">
-        <v>1120300</v>
+        <v>1150500</v>
       </c>
       <c r="I76" s="3">
-        <v>1057100</v>
+        <v>1103100</v>
       </c>
       <c r="J76" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1019300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>986200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>908600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>167300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58900</v>
+        <v>29200</v>
       </c>
       <c r="E81" s="3">
-        <v>47800</v>
+        <v>58000</v>
       </c>
       <c r="F81" s="3">
-        <v>23700</v>
+        <v>47100</v>
       </c>
       <c r="G81" s="3">
-        <v>29800</v>
+        <v>23400</v>
       </c>
       <c r="H81" s="3">
-        <v>49300</v>
+        <v>29300</v>
       </c>
       <c r="I81" s="3">
-        <v>35900</v>
+        <v>48600</v>
       </c>
       <c r="J81" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K81" s="3">
         <v>32300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13400</v>
+        <v>15600</v>
       </c>
       <c r="E83" s="3">
-        <v>11500</v>
+        <v>13200</v>
       </c>
       <c r="F83" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="G83" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H83" s="3">
-        <v>10400</v>
+        <v>11100</v>
       </c>
       <c r="I83" s="3">
-        <v>8200</v>
+        <v>10300</v>
       </c>
       <c r="J83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K83" s="3">
         <v>6400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45500</v>
+        <v>-16500</v>
       </c>
       <c r="E89" s="3">
-        <v>-313200</v>
+        <v>44800</v>
       </c>
       <c r="F89" s="3">
-        <v>210300</v>
+        <v>-308400</v>
       </c>
       <c r="G89" s="3">
-        <v>68000</v>
+        <v>207100</v>
       </c>
       <c r="H89" s="3">
-        <v>-124500</v>
+        <v>66900</v>
       </c>
       <c r="I89" s="3">
-        <v>35700</v>
+        <v>-122500</v>
       </c>
       <c r="J89" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-353300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-55200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-379200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>15400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-32200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-54900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-130100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7000</v>
+        <v>-61800</v>
       </c>
       <c r="E91" s="3">
-        <v>-28800</v>
+        <v>-6900</v>
       </c>
       <c r="F91" s="3">
-        <v>-17000</v>
+        <v>-28400</v>
       </c>
       <c r="G91" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="H91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-37000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22900</v>
+        <v>-115600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1430100</v>
+        <v>-22600</v>
       </c>
       <c r="F94" s="3">
-        <v>270600</v>
+        <v>-1408100</v>
       </c>
       <c r="G94" s="3">
-        <v>92800</v>
+        <v>266400</v>
       </c>
       <c r="H94" s="3">
-        <v>-23500</v>
+        <v>91300</v>
       </c>
       <c r="I94" s="3">
-        <v>-55900</v>
+        <v>-23100</v>
       </c>
       <c r="J94" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-470400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>26700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>21700</v>
+        <v>28400</v>
       </c>
       <c r="E100" s="3">
-        <v>1633500</v>
+        <v>21400</v>
       </c>
       <c r="F100" s="3">
-        <v>-244500</v>
+        <v>1608400</v>
       </c>
       <c r="G100" s="3">
-        <v>-57100</v>
+        <v>-240700</v>
       </c>
       <c r="H100" s="3">
-        <v>283400</v>
+        <v>-56200</v>
       </c>
       <c r="I100" s="3">
-        <v>35700</v>
+        <v>279100</v>
       </c>
       <c r="J100" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K100" s="3">
         <v>387000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>870200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>229100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>-4100</v>
       </c>
       <c r="E101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-500</v>
       </c>
       <c r="G101" s="3">
         <v>-400</v>
       </c>
       <c r="H101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>47800</v>
+        <v>-107800</v>
       </c>
       <c r="E102" s="3">
-        <v>-109600</v>
+        <v>47000</v>
       </c>
       <c r="F102" s="3">
-        <v>236000</v>
+        <v>-107900</v>
       </c>
       <c r="G102" s="3">
-        <v>103200</v>
+        <v>232400</v>
       </c>
       <c r="H102" s="3">
-        <v>135700</v>
+        <v>101600</v>
       </c>
       <c r="I102" s="3">
-        <v>15800</v>
+        <v>133600</v>
       </c>
       <c r="J102" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K102" s="3">
         <v>13800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-42600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-74000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>125900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>160300</v>
+        <v>262400</v>
       </c>
       <c r="E8" s="3">
-        <v>182600</v>
+        <v>109500</v>
       </c>
       <c r="F8" s="3">
-        <v>172600</v>
+        <v>154900</v>
       </c>
       <c r="G8" s="3">
-        <v>123300</v>
+        <v>176500</v>
       </c>
       <c r="H8" s="3">
-        <v>132400</v>
+        <v>166800</v>
       </c>
       <c r="I8" s="3">
+        <v>119100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K8" s="3">
         <v>144600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>110000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>94400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>76600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>18900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>18400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44300</v>
+        <v>93800</v>
       </c>
       <c r="E9" s="3">
-        <v>39400</v>
+        <v>54000</v>
       </c>
       <c r="F9" s="3">
-        <v>38400</v>
+        <v>42800</v>
       </c>
       <c r="G9" s="3">
-        <v>36700</v>
+        <v>38100</v>
       </c>
       <c r="H9" s="3">
-        <v>27700</v>
+        <v>37100</v>
       </c>
       <c r="I9" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K9" s="3">
         <v>23700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>18100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>14900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>16500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>18800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>13800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>12900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>116000</v>
+        <v>168500</v>
       </c>
       <c r="E10" s="3">
-        <v>143300</v>
+        <v>55500</v>
       </c>
       <c r="F10" s="3">
-        <v>134100</v>
+        <v>112100</v>
       </c>
       <c r="G10" s="3">
-        <v>86600</v>
+        <v>138500</v>
       </c>
       <c r="H10" s="3">
-        <v>104700</v>
+        <v>129600</v>
       </c>
       <c r="I10" s="3">
+        <v>83700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K10" s="3">
         <v>120900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>103200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>91100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>84300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>76400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>61700</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>5200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1082,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,55 +1144,61 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>5900</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>4700</v>
+        <v>6200</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>5700</v>
       </c>
       <c r="G15" s="3">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="H15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103700</v>
+        <v>218300</v>
       </c>
       <c r="E17" s="3">
-        <v>104500</v>
+        <v>127000</v>
       </c>
       <c r="F17" s="3">
-        <v>91800</v>
+        <v>100200</v>
       </c>
       <c r="G17" s="3">
-        <v>81900</v>
+        <v>101000</v>
       </c>
       <c r="H17" s="3">
-        <v>62700</v>
+        <v>88700</v>
       </c>
       <c r="I17" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K17" s="3">
         <v>57700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>54800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>55900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>42000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>49000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>37000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>36000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>28600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>56500</v>
+        <v>44100</v>
       </c>
       <c r="E18" s="3">
-        <v>78200</v>
+        <v>-17500</v>
       </c>
       <c r="F18" s="3">
-        <v>80800</v>
+        <v>54700</v>
       </c>
       <c r="G18" s="3">
-        <v>41400</v>
+        <v>75500</v>
       </c>
       <c r="H18" s="3">
-        <v>69700</v>
+        <v>78100</v>
       </c>
       <c r="I18" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K18" s="3">
         <v>86900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>69100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>54100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>58300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>45400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>39700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-17000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,131 +1379,145 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8800</v>
+        <v>-299000</v>
       </c>
       <c r="E20" s="3">
-        <v>-10100</v>
+        <v>135200</v>
       </c>
       <c r="F20" s="3">
-        <v>-12100</v>
+        <v>-8500</v>
       </c>
       <c r="G20" s="3">
-        <v>-11900</v>
+        <v>-9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-27600</v>
+        <v>-11700</v>
       </c>
       <c r="I20" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-18200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-12500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-13400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-15400</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>14400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>10500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63400</v>
+        <v>-216700</v>
       </c>
       <c r="E21" s="3">
-        <v>81200</v>
+        <v>135100</v>
       </c>
       <c r="F21" s="3">
-        <v>80000</v>
+        <v>61200</v>
       </c>
       <c r="G21" s="3">
-        <v>41200</v>
+        <v>78500</v>
       </c>
       <c r="H21" s="3">
-        <v>53200</v>
+        <v>77300</v>
       </c>
       <c r="I21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K21" s="3">
         <v>77600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>59000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>45800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>51400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>37000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>28700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>6900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1445,21 +1525,21 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38800</v>
+        <v>-254900</v>
       </c>
       <c r="E23" s="3">
-        <v>68000</v>
+        <v>104000</v>
       </c>
       <c r="F23" s="3">
-        <v>68600</v>
+        <v>37500</v>
       </c>
       <c r="G23" s="3">
-        <v>29500</v>
+        <v>65800</v>
       </c>
       <c r="H23" s="3">
-        <v>42100</v>
+        <v>66300</v>
       </c>
       <c r="I23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K23" s="3">
         <v>67000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>50600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>39200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>45800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>19900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9500</v>
+        <v>-29900</v>
       </c>
       <c r="E24" s="3">
-        <v>11500</v>
+        <v>10100</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>9200</v>
       </c>
       <c r="G24" s="3">
-        <v>6700</v>
+        <v>11100</v>
       </c>
       <c r="H24" s="3">
-        <v>12800</v>
+        <v>21800</v>
       </c>
       <c r="I24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K24" s="3">
         <v>18200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>15300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29200</v>
+        <v>-225000</v>
       </c>
       <c r="E26" s="3">
-        <v>56500</v>
+        <v>93900</v>
       </c>
       <c r="F26" s="3">
-        <v>46000</v>
+        <v>28300</v>
       </c>
       <c r="G26" s="3">
-        <v>22800</v>
+        <v>54600</v>
       </c>
       <c r="H26" s="3">
-        <v>29300</v>
+        <v>44500</v>
       </c>
       <c r="I26" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K26" s="3">
         <v>48800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>35300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>32200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>33100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>22700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>29200</v>
+        <v>-225000</v>
       </c>
       <c r="E27" s="3">
-        <v>58000</v>
+        <v>94500</v>
       </c>
       <c r="F27" s="3">
-        <v>47100</v>
+        <v>28300</v>
       </c>
       <c r="G27" s="3">
-        <v>23400</v>
+        <v>56000</v>
       </c>
       <c r="H27" s="3">
-        <v>29300</v>
+        <v>45500</v>
       </c>
       <c r="I27" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K27" s="3">
         <v>48600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>35300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>32300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>33100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>22700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8800</v>
+        <v>299000</v>
       </c>
       <c r="E32" s="3">
-        <v>10100</v>
+        <v>-135200</v>
       </c>
       <c r="F32" s="3">
-        <v>12100</v>
+        <v>8500</v>
       </c>
       <c r="G32" s="3">
-        <v>11900</v>
+        <v>9800</v>
       </c>
       <c r="H32" s="3">
-        <v>27600</v>
+        <v>11700</v>
       </c>
       <c r="I32" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K32" s="3">
         <v>19600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>18200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>12500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>13400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>15400</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>-14400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-10500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>29200</v>
+        <v>-225000</v>
       </c>
       <c r="E33" s="3">
-        <v>58000</v>
+        <v>94500</v>
       </c>
       <c r="F33" s="3">
-        <v>47100</v>
+        <v>28300</v>
       </c>
       <c r="G33" s="3">
-        <v>23400</v>
+        <v>56000</v>
       </c>
       <c r="H33" s="3">
-        <v>29300</v>
+        <v>45500</v>
       </c>
       <c r="I33" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K33" s="3">
         <v>48600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>35300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>32300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>33100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>29200</v>
+        <v>-225000</v>
       </c>
       <c r="E35" s="3">
-        <v>58000</v>
+        <v>94500</v>
       </c>
       <c r="F35" s="3">
-        <v>47100</v>
+        <v>28300</v>
       </c>
       <c r="G35" s="3">
-        <v>23400</v>
+        <v>56000</v>
       </c>
       <c r="H35" s="3">
-        <v>29300</v>
+        <v>45500</v>
       </c>
       <c r="I35" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K35" s="3">
         <v>48600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>35300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>32300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>33100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>344200</v>
+        <v>543000</v>
       </c>
       <c r="E41" s="3">
-        <v>452000</v>
+        <v>1048400</v>
       </c>
       <c r="F41" s="3">
-        <v>404900</v>
+        <v>332700</v>
       </c>
       <c r="G41" s="3">
-        <v>512900</v>
+        <v>436800</v>
       </c>
       <c r="H41" s="3">
-        <v>280500</v>
+        <v>391400</v>
       </c>
       <c r="I41" s="3">
+        <v>495700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K41" s="3">
         <v>178900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>45300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>16300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>53200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,53 +2544,59 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1602000</v>
+        <v>401000</v>
       </c>
       <c r="E42" s="3">
-        <v>1501300</v>
+        <v>892500</v>
       </c>
       <c r="F42" s="3">
-        <v>1511800</v>
+        <v>1548400</v>
       </c>
       <c r="G42" s="3">
-        <v>145700</v>
+        <v>1451000</v>
       </c>
       <c r="H42" s="3">
-        <v>444600</v>
+        <v>1461200</v>
       </c>
       <c r="I42" s="3">
+        <v>140800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K42" s="3">
         <v>542500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>522600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>507400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>497800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>494300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>26300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>48800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2426,53 +2606,59 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3177800</v>
+        <v>3545600</v>
       </c>
       <c r="E43" s="3">
-        <v>3283800</v>
+        <v>3284700</v>
       </c>
       <c r="F43" s="3">
-        <v>3202300</v>
+        <v>3071500</v>
       </c>
       <c r="G43" s="3">
-        <v>2532400</v>
+        <v>3174000</v>
       </c>
       <c r="H43" s="3">
-        <v>2430400</v>
+        <v>3095100</v>
       </c>
       <c r="I43" s="3">
+        <v>2447600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2349100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2653500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2338800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2375200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1971100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1667400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1233300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1385400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2730,59 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>197000</v>
+        <v>393300</v>
       </c>
       <c r="E45" s="3">
-        <v>170000</v>
+        <v>229200</v>
       </c>
       <c r="F45" s="3">
-        <v>116700</v>
+        <v>190500</v>
       </c>
       <c r="G45" s="3">
-        <v>78200</v>
+        <v>164300</v>
       </c>
       <c r="H45" s="3">
-        <v>47900</v>
+        <v>112800</v>
       </c>
       <c r="I45" s="3">
+        <v>75600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,53 +2792,59 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5321100</v>
+        <v>4882900</v>
       </c>
       <c r="E46" s="3">
-        <v>5407100</v>
+        <v>5454800</v>
       </c>
       <c r="F46" s="3">
-        <v>5235700</v>
+        <v>5143100</v>
       </c>
       <c r="G46" s="3">
-        <v>3269100</v>
+        <v>5226100</v>
       </c>
       <c r="H46" s="3">
-        <v>3203400</v>
+        <v>5060500</v>
       </c>
       <c r="I46" s="3">
+        <v>3159700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3096200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3399400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2934700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2921800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2492300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2218900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1300000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1471500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,53 +2854,59 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77500</v>
+        <v>386400</v>
       </c>
       <c r="E47" s="3">
-        <v>81500</v>
+        <v>640300</v>
       </c>
       <c r="F47" s="3">
-        <v>11900</v>
+        <v>74900</v>
       </c>
       <c r="G47" s="3">
+        <v>78800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K47" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M47" s="3">
         <v>5100</v>
       </c>
-      <c r="H47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>164800</v>
+        <v>232300</v>
       </c>
       <c r="E48" s="3">
-        <v>132500</v>
+        <v>173500</v>
       </c>
       <c r="F48" s="3">
-        <v>119300</v>
+        <v>159300</v>
       </c>
       <c r="G48" s="3">
-        <v>111100</v>
+        <v>128000</v>
       </c>
       <c r="H48" s="3">
-        <v>109800</v>
+        <v>115400</v>
       </c>
       <c r="I48" s="3">
+        <v>107300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K48" s="3">
         <v>101300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>88500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>70500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>62800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>47500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>46800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>57400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2762,53 +2978,59 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195700</v>
+        <v>1467200</v>
       </c>
       <c r="E49" s="3">
-        <v>192100</v>
+        <v>203500</v>
       </c>
       <c r="F49" s="3">
-        <v>142900</v>
+        <v>189200</v>
       </c>
       <c r="G49" s="3">
-        <v>128300</v>
+        <v>185600</v>
       </c>
       <c r="H49" s="3">
-        <v>70500</v>
+        <v>138200</v>
       </c>
       <c r="I49" s="3">
+        <v>124000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K49" s="3">
         <v>69000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>67800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>60700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>58500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>54900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>56800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>55900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>90700</v>
+        <v>120400</v>
       </c>
       <c r="E52" s="3">
-        <v>50900</v>
+        <v>100600</v>
       </c>
       <c r="F52" s="3">
-        <v>47300</v>
+        <v>87700</v>
       </c>
       <c r="G52" s="3">
-        <v>43800</v>
+        <v>49200</v>
       </c>
       <c r="H52" s="3">
-        <v>46500</v>
+        <v>45800</v>
       </c>
       <c r="I52" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K52" s="3">
         <v>43900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>51200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>51900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>48400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>46800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>54500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5849800</v>
+        <v>7089300</v>
       </c>
       <c r="E54" s="3">
-        <v>5864000</v>
+        <v>6572700</v>
       </c>
       <c r="F54" s="3">
-        <v>5557100</v>
+        <v>5654100</v>
       </c>
       <c r="G54" s="3">
-        <v>3557400</v>
+        <v>5667800</v>
       </c>
       <c r="H54" s="3">
-        <v>3439400</v>
+        <v>5371200</v>
       </c>
       <c r="I54" s="3">
+        <v>3438300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3324300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3621200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3143000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3109300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2667700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2371500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1452700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1643300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3402,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1596700</v>
+        <v>2651500</v>
       </c>
       <c r="E57" s="3">
-        <v>1727500</v>
+        <v>1988300</v>
       </c>
       <c r="F57" s="3">
-        <v>1596600</v>
+        <v>1543300</v>
       </c>
       <c r="G57" s="3">
-        <v>1304900</v>
+        <v>1669700</v>
       </c>
       <c r="H57" s="3">
-        <v>1048500</v>
+        <v>1543200</v>
       </c>
       <c r="I57" s="3">
+        <v>1261300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1013400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1218600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1073100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1105200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1088800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>912300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>865300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>940200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3198,53 +3460,59 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>626400</v>
+        <v>507100</v>
       </c>
       <c r="E58" s="3">
-        <v>580900</v>
+        <v>620100</v>
       </c>
       <c r="F58" s="3">
-        <v>537900</v>
+        <v>605500</v>
       </c>
       <c r="G58" s="3">
-        <v>698300</v>
+        <v>561400</v>
       </c>
       <c r="H58" s="3">
-        <v>786800</v>
+        <v>519900</v>
       </c>
       <c r="I58" s="3">
+        <v>674900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>760500</v>
+      </c>
+      <c r="K58" s="3">
         <v>930600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>512800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>398400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>246700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>138700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3254,53 +3522,59 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163400</v>
+        <v>374100</v>
       </c>
       <c r="E59" s="3">
-        <v>163000</v>
+        <v>194200</v>
       </c>
       <c r="F59" s="3">
-        <v>118100</v>
+        <v>157900</v>
       </c>
       <c r="G59" s="3">
-        <v>81400</v>
+        <v>157600</v>
       </c>
       <c r="H59" s="3">
-        <v>54100</v>
+        <v>114200</v>
       </c>
       <c r="I59" s="3">
+        <v>78600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K59" s="3">
         <v>43600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>33500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>34700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>29100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>46900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>27900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,53 +3584,59 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2386600</v>
+        <v>3532800</v>
       </c>
       <c r="E60" s="3">
-        <v>2471400</v>
+        <v>2802500</v>
       </c>
       <c r="F60" s="3">
-        <v>2252600</v>
+        <v>2306700</v>
       </c>
       <c r="G60" s="3">
-        <v>2084600</v>
+        <v>2388700</v>
       </c>
       <c r="H60" s="3">
-        <v>1889400</v>
+        <v>2177300</v>
       </c>
       <c r="I60" s="3">
+        <v>2014800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1826200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2192900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1619400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1539300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1370300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1080200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>923000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>972100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3366,53 +3646,59 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>534500</v>
+        <v>762600</v>
       </c>
       <c r="E61" s="3">
-        <v>542800</v>
+        <v>962800</v>
       </c>
       <c r="F61" s="3">
-        <v>549800</v>
+        <v>516600</v>
       </c>
       <c r="G61" s="3">
-        <v>227800</v>
+        <v>524600</v>
       </c>
       <c r="H61" s="3">
-        <v>372900</v>
+        <v>531400</v>
       </c>
       <c r="I61" s="3">
+        <v>220200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>360400</v>
+      </c>
+      <c r="K61" s="3">
         <v>315400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>462600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>531100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>295800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>367400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>381000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>481100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3708,59 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85200</v>
+        <v>201900</v>
       </c>
       <c r="E62" s="3">
-        <v>80800</v>
+        <v>102600</v>
       </c>
       <c r="F62" s="3">
-        <v>57700</v>
+        <v>82400</v>
       </c>
       <c r="G62" s="3">
-        <v>48100</v>
+        <v>78100</v>
       </c>
       <c r="H62" s="3">
-        <v>9300</v>
+        <v>55700</v>
       </c>
       <c r="I62" s="3">
+        <v>46500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3017700</v>
+        <v>4512500</v>
       </c>
       <c r="E66" s="3">
-        <v>3120500</v>
+        <v>3882300</v>
       </c>
       <c r="F66" s="3">
-        <v>2877400</v>
+        <v>2916700</v>
       </c>
       <c r="G66" s="3">
-        <v>2377800</v>
+        <v>3016100</v>
       </c>
       <c r="H66" s="3">
-        <v>2288900</v>
+        <v>2781100</v>
       </c>
       <c r="I66" s="3">
+        <v>2298200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2212300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2518100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2102100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2090000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1681600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1462900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1325800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1476000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2848600</v>
+        <v>2745000</v>
       </c>
       <c r="E72" s="3">
-        <v>2758400</v>
+        <v>2960600</v>
       </c>
       <c r="F72" s="3">
-        <v>2700800</v>
+        <v>2753300</v>
       </c>
       <c r="G72" s="3">
-        <v>1202400</v>
+        <v>2666200</v>
       </c>
       <c r="H72" s="3">
-        <v>1172500</v>
+        <v>2610400</v>
       </c>
       <c r="I72" s="3">
+        <v>1162200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1133200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1116500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1055200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1034600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>998300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>918700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>132900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>175600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2832100</v>
+        <v>2576800</v>
       </c>
       <c r="E76" s="3">
-        <v>2743400</v>
+        <v>2690300</v>
       </c>
       <c r="F76" s="3">
-        <v>2679800</v>
+        <v>2737400</v>
       </c>
       <c r="G76" s="3">
-        <v>1179600</v>
+        <v>2651600</v>
       </c>
       <c r="H76" s="3">
-        <v>1150500</v>
+        <v>2590100</v>
       </c>
       <c r="I76" s="3">
+        <v>1140100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1112000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1103100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1040900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1019300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>986200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>908600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>126900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>167300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>29200</v>
+        <v>-225000</v>
       </c>
       <c r="E81" s="3">
-        <v>58000</v>
+        <v>94500</v>
       </c>
       <c r="F81" s="3">
-        <v>47100</v>
+        <v>28300</v>
       </c>
       <c r="G81" s="3">
-        <v>23400</v>
+        <v>56000</v>
       </c>
       <c r="H81" s="3">
-        <v>29300</v>
+        <v>45500</v>
       </c>
       <c r="I81" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K81" s="3">
         <v>48600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>35300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>32300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>33100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15600</v>
+        <v>38200</v>
       </c>
       <c r="E83" s="3">
-        <v>13200</v>
+        <v>17400</v>
       </c>
       <c r="F83" s="3">
-        <v>11400</v>
+        <v>15100</v>
       </c>
       <c r="G83" s="3">
-        <v>11700</v>
+        <v>12700</v>
       </c>
       <c r="H83" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K83" s="3">
         <v>10300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>6400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>4000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>4400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16500</v>
+        <v>317600</v>
       </c>
       <c r="E89" s="3">
-        <v>44800</v>
+        <v>236000</v>
       </c>
       <c r="F89" s="3">
-        <v>-308400</v>
+        <v>-15900</v>
       </c>
       <c r="G89" s="3">
-        <v>207100</v>
+        <v>43300</v>
       </c>
       <c r="H89" s="3">
-        <v>66900</v>
+        <v>-298100</v>
       </c>
       <c r="I89" s="3">
+        <v>200200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-122500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>35100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-353300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-55200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-379200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>15400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-32200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-54900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-130100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61800</v>
+        <v>93400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-34000</v>
       </c>
       <c r="F91" s="3">
-        <v>-28400</v>
+        <v>-59700</v>
       </c>
       <c r="G91" s="3">
-        <v>-16800</v>
+        <v>-6700</v>
       </c>
       <c r="H91" s="3">
-        <v>-16700</v>
+        <v>-27400</v>
       </c>
       <c r="I91" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-36400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115600</v>
+        <v>-528700</v>
       </c>
       <c r="E94" s="3">
-        <v>-22600</v>
+        <v>154200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1408100</v>
+        <v>-111700</v>
       </c>
       <c r="G94" s="3">
-        <v>266400</v>
+        <v>-21800</v>
       </c>
       <c r="H94" s="3">
-        <v>91300</v>
+        <v>-1361000</v>
       </c>
       <c r="I94" s="3">
+        <v>257500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>88300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-55100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-19600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-470400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>26700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28400</v>
+        <v>-291500</v>
       </c>
       <c r="E100" s="3">
-        <v>21400</v>
+        <v>318400</v>
       </c>
       <c r="F100" s="3">
-        <v>1608400</v>
+        <v>27500</v>
       </c>
       <c r="G100" s="3">
-        <v>-240700</v>
+        <v>20700</v>
       </c>
       <c r="H100" s="3">
-        <v>-56200</v>
+        <v>1554600</v>
       </c>
       <c r="I100" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K100" s="3">
         <v>279100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>35200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>387000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>870200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>229100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4100</v>
+        <v>-2700</v>
       </c>
       <c r="E101" s="3">
-        <v>3400</v>
+        <v>7100</v>
       </c>
       <c r="F101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-107800</v>
+        <v>-505300</v>
       </c>
       <c r="E102" s="3">
-        <v>47000</v>
+        <v>715700</v>
       </c>
       <c r="F102" s="3">
-        <v>-107900</v>
+        <v>-104200</v>
       </c>
       <c r="G102" s="3">
-        <v>232400</v>
+        <v>45500</v>
       </c>
       <c r="H102" s="3">
-        <v>101600</v>
+        <v>-104300</v>
       </c>
       <c r="I102" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K102" s="3">
         <v>133600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-39500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>22200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-42600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>125900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>262400</v>
+        <v>289600</v>
       </c>
       <c r="E8" s="3">
-        <v>109500</v>
+        <v>120900</v>
       </c>
       <c r="F8" s="3">
-        <v>154900</v>
+        <v>171000</v>
       </c>
       <c r="G8" s="3">
-        <v>176500</v>
+        <v>194900</v>
       </c>
       <c r="H8" s="3">
-        <v>166800</v>
+        <v>184100</v>
       </c>
       <c r="I8" s="3">
-        <v>119100</v>
+        <v>131500</v>
       </c>
       <c r="J8" s="3">
-        <v>128000</v>
+        <v>141300</v>
       </c>
       <c r="K8" s="3">
         <v>144600</v>
@@ -822,25 +822,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>93800</v>
+        <v>103600</v>
       </c>
       <c r="E9" s="3">
-        <v>54000</v>
+        <v>59600</v>
       </c>
       <c r="F9" s="3">
-        <v>42800</v>
+        <v>47200</v>
       </c>
       <c r="G9" s="3">
-        <v>38100</v>
+        <v>42000</v>
       </c>
       <c r="H9" s="3">
-        <v>37100</v>
+        <v>41000</v>
       </c>
       <c r="I9" s="3">
-        <v>35500</v>
+        <v>39200</v>
       </c>
       <c r="J9" s="3">
-        <v>26800</v>
+        <v>29500</v>
       </c>
       <c r="K9" s="3">
         <v>23700</v>
@@ -884,25 +884,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>168500</v>
+        <v>186000</v>
       </c>
       <c r="E10" s="3">
-        <v>55500</v>
+        <v>61300</v>
       </c>
       <c r="F10" s="3">
-        <v>112100</v>
+        <v>123800</v>
       </c>
       <c r="G10" s="3">
-        <v>138500</v>
+        <v>152900</v>
       </c>
       <c r="H10" s="3">
-        <v>129600</v>
+        <v>143100</v>
       </c>
       <c r="I10" s="3">
-        <v>83700</v>
+        <v>92400</v>
       </c>
       <c r="J10" s="3">
-        <v>101200</v>
+        <v>111700</v>
       </c>
       <c r="K10" s="3">
         <v>120900</v>
@@ -1093,14 +1093,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>12500</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1155,26 +1155,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>26800</v>
       </c>
       <c r="E15" s="3">
-        <v>6200</v>
+        <v>6900</v>
       </c>
       <c r="F15" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="G15" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="H15" s="3">
-        <v>4900</v>
+        <v>5400</v>
       </c>
       <c r="I15" s="3">
-        <v>3800</v>
+        <v>4200</v>
       </c>
       <c r="J15" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>218300</v>
+        <v>240900</v>
       </c>
       <c r="E17" s="3">
-        <v>127000</v>
+        <v>140200</v>
       </c>
       <c r="F17" s="3">
-        <v>100200</v>
+        <v>110700</v>
       </c>
       <c r="G17" s="3">
-        <v>101000</v>
+        <v>111500</v>
       </c>
       <c r="H17" s="3">
-        <v>88700</v>
+        <v>97900</v>
       </c>
       <c r="I17" s="3">
-        <v>79200</v>
+        <v>87400</v>
       </c>
       <c r="J17" s="3">
-        <v>60600</v>
+        <v>66800</v>
       </c>
       <c r="K17" s="3">
         <v>57700</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>60300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>83400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>86200</v>
+      </c>
+      <c r="I18" s="3">
         <v>44100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>54700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>75500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>78100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>40000</v>
-      </c>
       <c r="J18" s="3">
-        <v>67400</v>
+        <v>74400</v>
       </c>
       <c r="K18" s="3">
         <v>86900</v>
@@ -1387,25 +1387,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-299000</v>
+        <v>-302200</v>
       </c>
       <c r="E20" s="3">
-        <v>135200</v>
+        <v>149300</v>
       </c>
       <c r="F20" s="3">
-        <v>-8500</v>
+        <v>-9400</v>
       </c>
       <c r="G20" s="3">
-        <v>-9800</v>
+        <v>-10800</v>
       </c>
       <c r="H20" s="3">
-        <v>-11700</v>
+        <v>-13000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11500</v>
+        <v>-12600</v>
       </c>
       <c r="J20" s="3">
-        <v>-26700</v>
+        <v>-29500</v>
       </c>
       <c r="K20" s="3">
         <v>-19600</v>
@@ -1449,25 +1449,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-216700</v>
+        <v>-211400</v>
       </c>
       <c r="E21" s="3">
-        <v>135100</v>
+        <v>149100</v>
       </c>
       <c r="F21" s="3">
-        <v>61200</v>
+        <v>67600</v>
       </c>
       <c r="G21" s="3">
-        <v>78500</v>
+        <v>86700</v>
       </c>
       <c r="H21" s="3">
-        <v>77300</v>
+        <v>85300</v>
       </c>
       <c r="I21" s="3">
-        <v>39800</v>
+        <v>44000</v>
       </c>
       <c r="J21" s="3">
-        <v>51400</v>
+        <v>56800</v>
       </c>
       <c r="K21" s="3">
         <v>77600</v>
@@ -1510,14 +1510,14 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>27800</v>
       </c>
       <c r="E22" s="3">
-        <v>13700</v>
+        <v>15100</v>
       </c>
       <c r="F22" s="3">
-        <v>8700</v>
+        <v>9600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1573,25 +1573,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-254900</v>
+        <v>-281400</v>
       </c>
       <c r="E23" s="3">
-        <v>104000</v>
+        <v>114800</v>
       </c>
       <c r="F23" s="3">
-        <v>37500</v>
+        <v>41400</v>
       </c>
       <c r="G23" s="3">
-        <v>65800</v>
+        <v>72600</v>
       </c>
       <c r="H23" s="3">
-        <v>66300</v>
+        <v>73200</v>
       </c>
       <c r="I23" s="3">
-        <v>28500</v>
+        <v>31500</v>
       </c>
       <c r="J23" s="3">
-        <v>40700</v>
+        <v>44900</v>
       </c>
       <c r="K23" s="3">
         <v>67000</v>
@@ -1635,25 +1635,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-29900</v>
+        <v>-33000</v>
       </c>
       <c r="E24" s="3">
-        <v>10100</v>
+        <v>11200</v>
       </c>
       <c r="F24" s="3">
-        <v>9200</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
-        <v>11100</v>
+        <v>12300</v>
       </c>
       <c r="H24" s="3">
-        <v>21800</v>
+        <v>24100</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>7100</v>
       </c>
       <c r="J24" s="3">
-        <v>12400</v>
+        <v>13700</v>
       </c>
       <c r="K24" s="3">
         <v>18200</v>
@@ -1759,25 +1759,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-225000</v>
+        <v>-248300</v>
       </c>
       <c r="E26" s="3">
-        <v>93900</v>
+        <v>103700</v>
       </c>
       <c r="F26" s="3">
-        <v>28300</v>
+        <v>31200</v>
       </c>
       <c r="G26" s="3">
-        <v>54600</v>
+        <v>60300</v>
       </c>
       <c r="H26" s="3">
-        <v>44500</v>
+        <v>49100</v>
       </c>
       <c r="I26" s="3">
-        <v>22100</v>
+        <v>24400</v>
       </c>
       <c r="J26" s="3">
-        <v>28300</v>
+        <v>31300</v>
       </c>
       <c r="K26" s="3">
         <v>48800</v>
@@ -1821,25 +1821,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-225000</v>
+        <v>-246700</v>
       </c>
       <c r="E27" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="F27" s="3">
-        <v>28300</v>
+        <v>31200</v>
       </c>
       <c r="G27" s="3">
-        <v>56000</v>
+        <v>61800</v>
       </c>
       <c r="H27" s="3">
-        <v>45500</v>
+        <v>50200</v>
       </c>
       <c r="I27" s="3">
-        <v>22600</v>
+        <v>24900</v>
       </c>
       <c r="J27" s="3">
-        <v>28400</v>
+        <v>31300</v>
       </c>
       <c r="K27" s="3">
         <v>48600</v>
@@ -2131,25 +2131,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>299000</v>
+        <v>302200</v>
       </c>
       <c r="E32" s="3">
-        <v>-135200</v>
+        <v>-149300</v>
       </c>
       <c r="F32" s="3">
-        <v>8500</v>
+        <v>9400</v>
       </c>
       <c r="G32" s="3">
-        <v>9800</v>
+        <v>10800</v>
       </c>
       <c r="H32" s="3">
-        <v>11700</v>
+        <v>13000</v>
       </c>
       <c r="I32" s="3">
-        <v>11500</v>
+        <v>12600</v>
       </c>
       <c r="J32" s="3">
-        <v>26700</v>
+        <v>29500</v>
       </c>
       <c r="K32" s="3">
         <v>19600</v>
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-225000</v>
+        <v>-246700</v>
       </c>
       <c r="E33" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="F33" s="3">
-        <v>28300</v>
+        <v>31200</v>
       </c>
       <c r="G33" s="3">
-        <v>56000</v>
+        <v>61800</v>
       </c>
       <c r="H33" s="3">
-        <v>45500</v>
+        <v>50200</v>
       </c>
       <c r="I33" s="3">
-        <v>22600</v>
+        <v>24900</v>
       </c>
       <c r="J33" s="3">
-        <v>28400</v>
+        <v>31300</v>
       </c>
       <c r="K33" s="3">
         <v>48600</v>
@@ -2317,25 +2317,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-225000</v>
+        <v>-246700</v>
       </c>
       <c r="E35" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="F35" s="3">
-        <v>28300</v>
+        <v>31200</v>
       </c>
       <c r="G35" s="3">
-        <v>56000</v>
+        <v>61800</v>
       </c>
       <c r="H35" s="3">
-        <v>45500</v>
+        <v>50200</v>
       </c>
       <c r="I35" s="3">
-        <v>22600</v>
+        <v>24900</v>
       </c>
       <c r="J35" s="3">
-        <v>28400</v>
+        <v>31300</v>
       </c>
       <c r="K35" s="3">
         <v>48600</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>543000</v>
+        <v>599400</v>
       </c>
       <c r="E41" s="3">
-        <v>1048400</v>
+        <v>1157300</v>
       </c>
       <c r="F41" s="3">
-        <v>332700</v>
+        <v>367200</v>
       </c>
       <c r="G41" s="3">
-        <v>436800</v>
+        <v>482200</v>
       </c>
       <c r="H41" s="3">
-        <v>391400</v>
+        <v>432000</v>
       </c>
       <c r="I41" s="3">
-        <v>495700</v>
+        <v>547200</v>
       </c>
       <c r="J41" s="3">
-        <v>271100</v>
+        <v>299300</v>
       </c>
       <c r="K41" s="3">
         <v>178900</v>
@@ -2556,25 +2556,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>401000</v>
+        <v>442600</v>
       </c>
       <c r="E42" s="3">
-        <v>892500</v>
+        <v>985200</v>
       </c>
       <c r="F42" s="3">
-        <v>1548400</v>
+        <v>1709300</v>
       </c>
       <c r="G42" s="3">
-        <v>1451000</v>
+        <v>1601700</v>
       </c>
       <c r="H42" s="3">
-        <v>1461200</v>
+        <v>1612900</v>
       </c>
       <c r="I42" s="3">
-        <v>140800</v>
+        <v>155400</v>
       </c>
       <c r="J42" s="3">
-        <v>429700</v>
+        <v>474300</v>
       </c>
       <c r="K42" s="3">
         <v>542500</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3545600</v>
+        <v>3913900</v>
       </c>
       <c r="E43" s="3">
-        <v>3284700</v>
+        <v>3625800</v>
       </c>
       <c r="F43" s="3">
-        <v>3071500</v>
+        <v>3390500</v>
       </c>
       <c r="G43" s="3">
-        <v>3174000</v>
+        <v>3503600</v>
       </c>
       <c r="H43" s="3">
-        <v>3095100</v>
+        <v>3416600</v>
       </c>
       <c r="I43" s="3">
-        <v>2447600</v>
+        <v>2701800</v>
       </c>
       <c r="J43" s="3">
-        <v>2349100</v>
+        <v>2593100</v>
       </c>
       <c r="K43" s="3">
         <v>2653500</v>
@@ -2742,25 +2742,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>393300</v>
+        <v>434100</v>
       </c>
       <c r="E45" s="3">
-        <v>229200</v>
+        <v>253000</v>
       </c>
       <c r="F45" s="3">
-        <v>190500</v>
+        <v>210200</v>
       </c>
       <c r="G45" s="3">
-        <v>164300</v>
+        <v>181400</v>
       </c>
       <c r="H45" s="3">
-        <v>112800</v>
+        <v>124500</v>
       </c>
       <c r="I45" s="3">
-        <v>75600</v>
+        <v>83400</v>
       </c>
       <c r="J45" s="3">
-        <v>46300</v>
+        <v>51100</v>
       </c>
       <c r="K45" s="3">
         <v>24500</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4882900</v>
+        <v>5390000</v>
       </c>
       <c r="E46" s="3">
-        <v>5454800</v>
+        <v>6021300</v>
       </c>
       <c r="F46" s="3">
-        <v>5143100</v>
+        <v>5677200</v>
       </c>
       <c r="G46" s="3">
-        <v>5226100</v>
+        <v>5768900</v>
       </c>
       <c r="H46" s="3">
-        <v>5060500</v>
+        <v>5586000</v>
       </c>
       <c r="I46" s="3">
-        <v>3159700</v>
+        <v>3487800</v>
       </c>
       <c r="J46" s="3">
-        <v>3096200</v>
+        <v>3417800</v>
       </c>
       <c r="K46" s="3">
         <v>3399400</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>386400</v>
+        <v>426500</v>
       </c>
       <c r="E47" s="3">
-        <v>640300</v>
+        <v>706800</v>
       </c>
       <c r="F47" s="3">
-        <v>74900</v>
+        <v>82600</v>
       </c>
       <c r="G47" s="3">
-        <v>78800</v>
+        <v>87000</v>
       </c>
       <c r="H47" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="I47" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="J47" s="3">
-        <v>8800</v>
+        <v>9700</v>
       </c>
       <c r="K47" s="3">
         <v>7600</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>232300</v>
+        <v>256400</v>
       </c>
       <c r="E48" s="3">
-        <v>173500</v>
+        <v>191600</v>
       </c>
       <c r="F48" s="3">
-        <v>159300</v>
+        <v>175800</v>
       </c>
       <c r="G48" s="3">
-        <v>128000</v>
+        <v>141300</v>
       </c>
       <c r="H48" s="3">
-        <v>115400</v>
+        <v>127300</v>
       </c>
       <c r="I48" s="3">
-        <v>107300</v>
+        <v>118500</v>
       </c>
       <c r="J48" s="3">
-        <v>106100</v>
+        <v>117200</v>
       </c>
       <c r="K48" s="3">
         <v>101300</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1467200</v>
+        <v>1619600</v>
       </c>
       <c r="E49" s="3">
-        <v>203500</v>
+        <v>224600</v>
       </c>
       <c r="F49" s="3">
-        <v>189200</v>
+        <v>208800</v>
       </c>
       <c r="G49" s="3">
-        <v>185600</v>
+        <v>204900</v>
       </c>
       <c r="H49" s="3">
-        <v>138200</v>
+        <v>152500</v>
       </c>
       <c r="I49" s="3">
-        <v>124000</v>
+        <v>136900</v>
       </c>
       <c r="J49" s="3">
-        <v>68200</v>
+        <v>75200</v>
       </c>
       <c r="K49" s="3">
         <v>69000</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>120400</v>
+        <v>132900</v>
       </c>
       <c r="E52" s="3">
-        <v>100600</v>
+        <v>111000</v>
       </c>
       <c r="F52" s="3">
-        <v>87700</v>
+        <v>96800</v>
       </c>
       <c r="G52" s="3">
-        <v>49200</v>
+        <v>54300</v>
       </c>
       <c r="H52" s="3">
-        <v>45800</v>
+        <v>50500</v>
       </c>
       <c r="I52" s="3">
-        <v>42300</v>
+        <v>46700</v>
       </c>
       <c r="J52" s="3">
-        <v>45000</v>
+        <v>49600</v>
       </c>
       <c r="K52" s="3">
         <v>43900</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7089300</v>
+        <v>7825500</v>
       </c>
       <c r="E54" s="3">
-        <v>6572700</v>
+        <v>7255300</v>
       </c>
       <c r="F54" s="3">
-        <v>5654100</v>
+        <v>6241300</v>
       </c>
       <c r="G54" s="3">
-        <v>5667800</v>
+        <v>6256400</v>
       </c>
       <c r="H54" s="3">
-        <v>5371200</v>
+        <v>5929000</v>
       </c>
       <c r="I54" s="3">
-        <v>3438300</v>
+        <v>3795400</v>
       </c>
       <c r="J54" s="3">
-        <v>3324300</v>
+        <v>3669500</v>
       </c>
       <c r="K54" s="3">
         <v>3621200</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2651500</v>
+        <v>2926900</v>
       </c>
       <c r="E57" s="3">
-        <v>1988300</v>
+        <v>2194700</v>
       </c>
       <c r="F57" s="3">
-        <v>1543300</v>
+        <v>1703600</v>
       </c>
       <c r="G57" s="3">
-        <v>1669700</v>
+        <v>1843100</v>
       </c>
       <c r="H57" s="3">
-        <v>1543200</v>
+        <v>1703400</v>
       </c>
       <c r="I57" s="3">
-        <v>1261300</v>
+        <v>1392300</v>
       </c>
       <c r="J57" s="3">
-        <v>1013400</v>
+        <v>1118700</v>
       </c>
       <c r="K57" s="3">
         <v>1218600</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>507100</v>
+        <v>559800</v>
       </c>
       <c r="E58" s="3">
-        <v>620100</v>
+        <v>684500</v>
       </c>
       <c r="F58" s="3">
-        <v>605500</v>
+        <v>668400</v>
       </c>
       <c r="G58" s="3">
-        <v>561400</v>
+        <v>619700</v>
       </c>
       <c r="H58" s="3">
-        <v>519900</v>
+        <v>573900</v>
       </c>
       <c r="I58" s="3">
-        <v>674900</v>
+        <v>745000</v>
       </c>
       <c r="J58" s="3">
-        <v>760500</v>
+        <v>839400</v>
       </c>
       <c r="K58" s="3">
         <v>930600</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>374100</v>
+        <v>412900</v>
       </c>
       <c r="E59" s="3">
-        <v>194200</v>
+        <v>214400</v>
       </c>
       <c r="F59" s="3">
-        <v>157900</v>
+        <v>174300</v>
       </c>
       <c r="G59" s="3">
-        <v>157600</v>
+        <v>173900</v>
       </c>
       <c r="H59" s="3">
-        <v>114200</v>
+        <v>126000</v>
       </c>
       <c r="I59" s="3">
-        <v>78600</v>
+        <v>86800</v>
       </c>
       <c r="J59" s="3">
-        <v>52300</v>
+        <v>57700</v>
       </c>
       <c r="K59" s="3">
         <v>43600</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3532800</v>
+        <v>3899600</v>
       </c>
       <c r="E60" s="3">
-        <v>2802500</v>
+        <v>3093600</v>
       </c>
       <c r="F60" s="3">
-        <v>2306700</v>
+        <v>2546300</v>
       </c>
       <c r="G60" s="3">
-        <v>2388700</v>
+        <v>2636700</v>
       </c>
       <c r="H60" s="3">
-        <v>2177300</v>
+        <v>2403400</v>
       </c>
       <c r="I60" s="3">
-        <v>2014800</v>
+        <v>2224100</v>
       </c>
       <c r="J60" s="3">
-        <v>1826200</v>
+        <v>2015800</v>
       </c>
       <c r="K60" s="3">
         <v>2192900</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>762600</v>
+        <v>841800</v>
       </c>
       <c r="E61" s="3">
-        <v>962800</v>
+        <v>1062700</v>
       </c>
       <c r="F61" s="3">
-        <v>516600</v>
+        <v>570300</v>
       </c>
       <c r="G61" s="3">
-        <v>524600</v>
+        <v>579100</v>
       </c>
       <c r="H61" s="3">
-        <v>531400</v>
+        <v>586600</v>
       </c>
       <c r="I61" s="3">
-        <v>220200</v>
+        <v>243100</v>
       </c>
       <c r="J61" s="3">
-        <v>360400</v>
+        <v>397800</v>
       </c>
       <c r="K61" s="3">
         <v>315400</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>201900</v>
+        <v>222800</v>
       </c>
       <c r="E62" s="3">
-        <v>102600</v>
+        <v>113300</v>
       </c>
       <c r="F62" s="3">
-        <v>82400</v>
+        <v>90900</v>
       </c>
       <c r="G62" s="3">
-        <v>78100</v>
+        <v>86200</v>
       </c>
       <c r="H62" s="3">
-        <v>55700</v>
+        <v>61500</v>
       </c>
       <c r="I62" s="3">
-        <v>46500</v>
+        <v>51300</v>
       </c>
       <c r="J62" s="3">
-        <v>9000</v>
+        <v>9900</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4512500</v>
+        <v>4981100</v>
       </c>
       <c r="E66" s="3">
-        <v>3882300</v>
+        <v>4285500</v>
       </c>
       <c r="F66" s="3">
-        <v>2916700</v>
+        <v>3219700</v>
       </c>
       <c r="G66" s="3">
-        <v>3016100</v>
+        <v>3329400</v>
       </c>
       <c r="H66" s="3">
-        <v>2781100</v>
+        <v>3069900</v>
       </c>
       <c r="I66" s="3">
-        <v>2298200</v>
+        <v>2536900</v>
       </c>
       <c r="J66" s="3">
-        <v>2212300</v>
+        <v>2442000</v>
       </c>
       <c r="K66" s="3">
         <v>2518100</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2745000</v>
+        <v>3030000</v>
       </c>
       <c r="E72" s="3">
-        <v>2960600</v>
+        <v>3268100</v>
       </c>
       <c r="F72" s="3">
-        <v>2753300</v>
+        <v>3039300</v>
       </c>
       <c r="G72" s="3">
-        <v>2666200</v>
+        <v>2943000</v>
       </c>
       <c r="H72" s="3">
-        <v>2610400</v>
+        <v>2881500</v>
       </c>
       <c r="I72" s="3">
-        <v>1162200</v>
+        <v>1282900</v>
       </c>
       <c r="J72" s="3">
-        <v>1133200</v>
+        <v>1250900</v>
       </c>
       <c r="K72" s="3">
         <v>1116500</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2576800</v>
+        <v>2844400</v>
       </c>
       <c r="E76" s="3">
-        <v>2690300</v>
+        <v>2969700</v>
       </c>
       <c r="F76" s="3">
-        <v>2737400</v>
+        <v>3021600</v>
       </c>
       <c r="G76" s="3">
-        <v>2651600</v>
+        <v>2927000</v>
       </c>
       <c r="H76" s="3">
-        <v>2590100</v>
+        <v>2859100</v>
       </c>
       <c r="I76" s="3">
-        <v>1140100</v>
+        <v>1258500</v>
       </c>
       <c r="J76" s="3">
-        <v>1112000</v>
+        <v>1227500</v>
       </c>
       <c r="K76" s="3">
         <v>1103100</v>
@@ -4741,25 +4741,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-225000</v>
+        <v>-246700</v>
       </c>
       <c r="E81" s="3">
-        <v>94500</v>
+        <v>104300</v>
       </c>
       <c r="F81" s="3">
-        <v>28300</v>
+        <v>31200</v>
       </c>
       <c r="G81" s="3">
-        <v>56000</v>
+        <v>61800</v>
       </c>
       <c r="H81" s="3">
-        <v>45500</v>
+        <v>50200</v>
       </c>
       <c r="I81" s="3">
-        <v>22600</v>
+        <v>24900</v>
       </c>
       <c r="J81" s="3">
-        <v>28400</v>
+        <v>31300</v>
       </c>
       <c r="K81" s="3">
         <v>48600</v>
@@ -4827,25 +4827,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38200</v>
+        <v>42200</v>
       </c>
       <c r="E83" s="3">
-        <v>17400</v>
+        <v>19200</v>
       </c>
       <c r="F83" s="3">
-        <v>15100</v>
+        <v>16600</v>
       </c>
       <c r="G83" s="3">
-        <v>12700</v>
+        <v>14100</v>
       </c>
       <c r="H83" s="3">
-        <v>11000</v>
+        <v>12100</v>
       </c>
       <c r="I83" s="3">
-        <v>11300</v>
+        <v>12500</v>
       </c>
       <c r="J83" s="3">
-        <v>10700</v>
+        <v>11900</v>
       </c>
       <c r="K83" s="3">
         <v>10300</v>
@@ -5199,25 +5199,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>317600</v>
+        <v>350500</v>
       </c>
       <c r="E89" s="3">
-        <v>236000</v>
+        <v>260600</v>
       </c>
       <c r="F89" s="3">
-        <v>-15900</v>
+        <v>-17600</v>
       </c>
       <c r="G89" s="3">
-        <v>43300</v>
+        <v>47800</v>
       </c>
       <c r="H89" s="3">
-        <v>-298100</v>
+        <v>-329100</v>
       </c>
       <c r="I89" s="3">
-        <v>200200</v>
+        <v>221000</v>
       </c>
       <c r="J89" s="3">
-        <v>64700</v>
+        <v>71400</v>
       </c>
       <c r="K89" s="3">
         <v>-122500</v>
@@ -5285,25 +5285,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>93400</v>
+        <v>103100</v>
       </c>
       <c r="E91" s="3">
-        <v>-34000</v>
+        <v>-37500</v>
       </c>
       <c r="F91" s="3">
-        <v>-59700</v>
+        <v>-65900</v>
       </c>
       <c r="G91" s="3">
-        <v>-6700</v>
+        <v>-7400</v>
       </c>
       <c r="H91" s="3">
-        <v>-27400</v>
+        <v>-30300</v>
       </c>
       <c r="I91" s="3">
-        <v>-16200</v>
+        <v>-17900</v>
       </c>
       <c r="J91" s="3">
-        <v>-16100</v>
+        <v>-17800</v>
       </c>
       <c r="K91" s="3">
         <v>-3600</v>
@@ -5471,25 +5471,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-528700</v>
+        <v>-583600</v>
       </c>
       <c r="E94" s="3">
-        <v>154200</v>
+        <v>170200</v>
       </c>
       <c r="F94" s="3">
-        <v>-111700</v>
+        <v>-123300</v>
       </c>
       <c r="G94" s="3">
-        <v>-21800</v>
+        <v>-24100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1361000</v>
+        <v>-1502400</v>
       </c>
       <c r="I94" s="3">
-        <v>257500</v>
+        <v>284300</v>
       </c>
       <c r="J94" s="3">
-        <v>88300</v>
+        <v>97400</v>
       </c>
       <c r="K94" s="3">
         <v>-23100</v>
@@ -5805,25 +5805,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-291500</v>
+        <v>-321800</v>
       </c>
       <c r="E100" s="3">
-        <v>318400</v>
+        <v>351400</v>
       </c>
       <c r="F100" s="3">
-        <v>27500</v>
+        <v>30300</v>
       </c>
       <c r="G100" s="3">
-        <v>20700</v>
+        <v>22800</v>
       </c>
       <c r="H100" s="3">
-        <v>1554600</v>
+        <v>1716000</v>
       </c>
       <c r="I100" s="3">
-        <v>-232700</v>
+        <v>-256800</v>
       </c>
       <c r="J100" s="3">
-        <v>-54300</v>
+        <v>-60000</v>
       </c>
       <c r="K100" s="3">
         <v>279100</v>
@@ -5867,25 +5867,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>7100</v>
+        <v>7900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4000</v>
+        <v>-4400</v>
       </c>
       <c r="G101" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -5929,25 +5929,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-505300</v>
+        <v>-557800</v>
       </c>
       <c r="E102" s="3">
-        <v>715700</v>
+        <v>790000</v>
       </c>
       <c r="F102" s="3">
-        <v>-104200</v>
+        <v>-115000</v>
       </c>
       <c r="G102" s="3">
-        <v>45500</v>
+        <v>50200</v>
       </c>
       <c r="H102" s="3">
-        <v>-104300</v>
+        <v>-115200</v>
       </c>
       <c r="I102" s="3">
-        <v>224600</v>
+        <v>247900</v>
       </c>
       <c r="J102" s="3">
-        <v>98200</v>
+        <v>108400</v>
       </c>
       <c r="K102" s="3">
         <v>133600</v>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>289600</v>
+        <v>619200</v>
       </c>
       <c r="E8" s="3">
-        <v>120900</v>
+        <v>286200</v>
       </c>
       <c r="F8" s="3">
-        <v>171000</v>
+        <v>119500</v>
       </c>
       <c r="G8" s="3">
-        <v>194900</v>
+        <v>169000</v>
       </c>
       <c r="H8" s="3">
-        <v>184100</v>
+        <v>192600</v>
       </c>
       <c r="I8" s="3">
-        <v>131500</v>
+        <v>182000</v>
       </c>
       <c r="J8" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K8" s="3">
         <v>141300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>144600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>124000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>76600</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>18900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>103600</v>
+        <v>125900</v>
       </c>
       <c r="E9" s="3">
-        <v>59600</v>
+        <v>102400</v>
       </c>
       <c r="F9" s="3">
-        <v>47200</v>
+        <v>58900</v>
       </c>
       <c r="G9" s="3">
-        <v>42000</v>
+        <v>46700</v>
       </c>
       <c r="H9" s="3">
-        <v>41000</v>
+        <v>41500</v>
       </c>
       <c r="I9" s="3">
-        <v>39200</v>
+        <v>40500</v>
       </c>
       <c r="J9" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K9" s="3">
         <v>29500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>186000</v>
+        <v>493400</v>
       </c>
       <c r="E10" s="3">
-        <v>61300</v>
+        <v>183900</v>
       </c>
       <c r="F10" s="3">
-        <v>123800</v>
+        <v>60600</v>
       </c>
       <c r="G10" s="3">
-        <v>152900</v>
+        <v>122300</v>
       </c>
       <c r="H10" s="3">
-        <v>143100</v>
+        <v>151100</v>
       </c>
       <c r="I10" s="3">
-        <v>92400</v>
+        <v>141500</v>
       </c>
       <c r="J10" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K10" s="3">
         <v>111700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>103200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>91100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>84300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>5200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,23 +1104,26 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12500</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1114,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1150,47 +1169,50 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>26800</v>
+        <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>6900</v>
+        <v>26500</v>
       </c>
       <c r="F15" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G15" s="3">
         <v>6300</v>
       </c>
-      <c r="G15" s="3">
-        <v>5000</v>
-      </c>
       <c r="H15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I15" s="3">
         <v>5400</v>
       </c>
-      <c r="I15" s="3">
-        <v>4200</v>
-      </c>
       <c r="J15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1200,8 +1222,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>240900</v>
+        <v>239500</v>
       </c>
       <c r="E17" s="3">
-        <v>140200</v>
+        <v>238200</v>
       </c>
       <c r="F17" s="3">
-        <v>110700</v>
+        <v>138600</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
+        <v>109400</v>
       </c>
       <c r="H17" s="3">
-        <v>97900</v>
+        <v>110200</v>
       </c>
       <c r="I17" s="3">
-        <v>87400</v>
+        <v>96800</v>
       </c>
       <c r="J17" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K17" s="3">
         <v>66800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>55900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>49000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>36000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>28600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48700</v>
+        <v>379700</v>
       </c>
       <c r="E18" s="3">
-        <v>-19300</v>
+        <v>48100</v>
       </c>
       <c r="F18" s="3">
-        <v>60300</v>
+        <v>-19100</v>
       </c>
       <c r="G18" s="3">
-        <v>83400</v>
+        <v>59600</v>
       </c>
       <c r="H18" s="3">
-        <v>86200</v>
+        <v>82400</v>
       </c>
       <c r="I18" s="3">
-        <v>44100</v>
+        <v>85200</v>
       </c>
       <c r="J18" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K18" s="3">
         <v>74400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>69100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>54100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>58300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>39700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-17000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,115 +1413,119 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-302200</v>
+        <v>-504300</v>
       </c>
       <c r="E20" s="3">
-        <v>149300</v>
+        <v>-298700</v>
       </c>
       <c r="F20" s="3">
-        <v>-9400</v>
+        <v>147500</v>
       </c>
       <c r="G20" s="3">
-        <v>-10800</v>
+        <v>-9300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13000</v>
+        <v>-10700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="J20" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-18200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>14400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-211400</v>
+        <v>-102900</v>
       </c>
       <c r="E21" s="3">
-        <v>149100</v>
+        <v>-209000</v>
       </c>
       <c r="F21" s="3">
-        <v>67600</v>
+        <v>147400</v>
       </c>
       <c r="G21" s="3">
-        <v>86700</v>
+        <v>66800</v>
       </c>
       <c r="H21" s="3">
-        <v>85300</v>
+        <v>85700</v>
       </c>
       <c r="I21" s="3">
-        <v>44000</v>
+        <v>84300</v>
       </c>
       <c r="J21" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K21" s="3">
         <v>56800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>77600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>59000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>37000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>28700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1499,28 +1535,31 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>6900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27800</v>
+        <v>33300</v>
       </c>
       <c r="E22" s="3">
-        <v>15100</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+        <v>14900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1531,18 +1570,18 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-281400</v>
+        <v>-157800</v>
       </c>
       <c r="E23" s="3">
-        <v>114800</v>
+        <v>-278100</v>
       </c>
       <c r="F23" s="3">
-        <v>41400</v>
+        <v>113500</v>
       </c>
       <c r="G23" s="3">
-        <v>72600</v>
+        <v>40900</v>
       </c>
       <c r="H23" s="3">
-        <v>73200</v>
+        <v>71800</v>
       </c>
       <c r="I23" s="3">
-        <v>31500</v>
+        <v>72400</v>
       </c>
       <c r="J23" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K23" s="3">
         <v>44900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>67000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>45800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-33000</v>
+        <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>11200</v>
+        <v>-32600</v>
       </c>
       <c r="F24" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="G24" s="3">
-        <v>12300</v>
+        <v>10100</v>
       </c>
       <c r="H24" s="3">
-        <v>24100</v>
+        <v>12100</v>
       </c>
       <c r="I24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J24" s="3">
         <v>7100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>15300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5200</v>
       </c>
       <c r="R24" s="3">
         <v>5200</v>
       </c>
       <c r="S24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-248300</v>
+        <v>-156100</v>
       </c>
       <c r="E26" s="3">
-        <v>103700</v>
+        <v>-245500</v>
       </c>
       <c r="F26" s="3">
-        <v>31200</v>
+        <v>102500</v>
       </c>
       <c r="G26" s="3">
-        <v>60300</v>
+        <v>30800</v>
       </c>
       <c r="H26" s="3">
-        <v>49100</v>
+        <v>59600</v>
       </c>
       <c r="I26" s="3">
-        <v>24400</v>
+        <v>48500</v>
       </c>
       <c r="J26" s="3">
+        <v>24100</v>
+      </c>
+      <c r="K26" s="3">
         <v>31300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>33100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-246700</v>
+        <v>-154800</v>
       </c>
       <c r="E27" s="3">
-        <v>104300</v>
+        <v>-243800</v>
       </c>
       <c r="F27" s="3">
-        <v>31200</v>
+        <v>103100</v>
       </c>
       <c r="G27" s="3">
-        <v>61800</v>
+        <v>30800</v>
       </c>
       <c r="H27" s="3">
-        <v>50200</v>
+        <v>61100</v>
       </c>
       <c r="I27" s="3">
-        <v>24900</v>
+        <v>49600</v>
       </c>
       <c r="J27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K27" s="3">
         <v>31300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>33100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>302200</v>
+        <v>504300</v>
       </c>
       <c r="E32" s="3">
-        <v>-149300</v>
+        <v>298700</v>
       </c>
       <c r="F32" s="3">
-        <v>9400</v>
+        <v>-147500</v>
       </c>
       <c r="G32" s="3">
-        <v>10800</v>
+        <v>9300</v>
       </c>
       <c r="H32" s="3">
-        <v>13000</v>
+        <v>10700</v>
       </c>
       <c r="I32" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="J32" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K32" s="3">
         <v>29500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>18200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15400</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-14400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-246700</v>
+        <v>-154800</v>
       </c>
       <c r="E33" s="3">
-        <v>104300</v>
+        <v>-243800</v>
       </c>
       <c r="F33" s="3">
-        <v>31200</v>
+        <v>103100</v>
       </c>
       <c r="G33" s="3">
-        <v>61800</v>
+        <v>30800</v>
       </c>
       <c r="H33" s="3">
-        <v>50200</v>
+        <v>61100</v>
       </c>
       <c r="I33" s="3">
-        <v>24900</v>
+        <v>49600</v>
       </c>
       <c r="J33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K33" s="3">
         <v>31300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-246700</v>
+        <v>-154800</v>
       </c>
       <c r="E35" s="3">
-        <v>104300</v>
+        <v>-243800</v>
       </c>
       <c r="F35" s="3">
-        <v>31200</v>
+        <v>103100</v>
       </c>
       <c r="G35" s="3">
-        <v>61800</v>
+        <v>30800</v>
       </c>
       <c r="H35" s="3">
-        <v>50200</v>
+        <v>61100</v>
       </c>
       <c r="I35" s="3">
-        <v>24900</v>
+        <v>49600</v>
       </c>
       <c r="J35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K35" s="3">
         <v>31300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>599400</v>
+        <v>875700</v>
       </c>
       <c r="E41" s="3">
-        <v>1157300</v>
+        <v>592500</v>
       </c>
       <c r="F41" s="3">
-        <v>367200</v>
+        <v>1143900</v>
       </c>
       <c r="G41" s="3">
-        <v>482200</v>
+        <v>363000</v>
       </c>
       <c r="H41" s="3">
-        <v>432000</v>
+        <v>476600</v>
       </c>
       <c r="I41" s="3">
-        <v>547200</v>
+        <v>427000</v>
       </c>
       <c r="J41" s="3">
+        <v>540900</v>
+      </c>
+      <c r="K41" s="3">
         <v>299300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>178900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>45300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>53200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,56 +2636,59 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>442600</v>
+        <v>388200</v>
       </c>
       <c r="E42" s="3">
-        <v>985200</v>
+        <v>437500</v>
       </c>
       <c r="F42" s="3">
-        <v>1709300</v>
+        <v>973800</v>
       </c>
       <c r="G42" s="3">
-        <v>1601700</v>
+        <v>1689500</v>
       </c>
       <c r="H42" s="3">
-        <v>1612900</v>
+        <v>1583200</v>
       </c>
       <c r="I42" s="3">
-        <v>155400</v>
+        <v>1594300</v>
       </c>
       <c r="J42" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K42" s="3">
         <v>474300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>542500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>522600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>507400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>497800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>494300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>48800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2612,56 +2701,59 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3913900</v>
+        <v>3974100</v>
       </c>
       <c r="E43" s="3">
-        <v>3625800</v>
+        <v>3868600</v>
       </c>
       <c r="F43" s="3">
-        <v>3390500</v>
+        <v>3583900</v>
       </c>
       <c r="G43" s="3">
-        <v>3503600</v>
+        <v>3351300</v>
       </c>
       <c r="H43" s="3">
-        <v>3416600</v>
+        <v>3463100</v>
       </c>
       <c r="I43" s="3">
-        <v>2701800</v>
+        <v>3377000</v>
       </c>
       <c r="J43" s="3">
+        <v>2670600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2593100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2653500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2338800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2375200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1971100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1667400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1233300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1385400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,56 +2831,59 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>434100</v>
+        <v>597600</v>
       </c>
       <c r="E45" s="3">
-        <v>253000</v>
+        <v>429100</v>
       </c>
       <c r="F45" s="3">
-        <v>210200</v>
+        <v>250000</v>
       </c>
       <c r="G45" s="3">
-        <v>181400</v>
+        <v>207800</v>
       </c>
       <c r="H45" s="3">
-        <v>124500</v>
+        <v>179300</v>
       </c>
       <c r="I45" s="3">
-        <v>83400</v>
+        <v>123000</v>
       </c>
       <c r="J45" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K45" s="3">
         <v>51100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2798,56 +2896,59 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5390000</v>
+        <v>5835600</v>
       </c>
       <c r="E46" s="3">
-        <v>6021300</v>
+        <v>5327700</v>
       </c>
       <c r="F46" s="3">
-        <v>5677200</v>
+        <v>5951600</v>
       </c>
       <c r="G46" s="3">
-        <v>5768900</v>
+        <v>5611500</v>
       </c>
       <c r="H46" s="3">
-        <v>5586000</v>
+        <v>5702200</v>
       </c>
       <c r="I46" s="3">
-        <v>3487800</v>
+        <v>5521400</v>
       </c>
       <c r="J46" s="3">
+        <v>3447500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3417800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3399400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2934700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2921800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2492300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2218900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1300000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1471500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2860,56 +2961,59 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>426500</v>
+        <v>266700</v>
       </c>
       <c r="E47" s="3">
-        <v>706800</v>
+        <v>421600</v>
       </c>
       <c r="F47" s="3">
-        <v>82600</v>
+        <v>698600</v>
       </c>
       <c r="G47" s="3">
-        <v>87000</v>
+        <v>81700</v>
       </c>
       <c r="H47" s="3">
-        <v>12700</v>
+        <v>86000</v>
       </c>
       <c r="I47" s="3">
-        <v>5500</v>
+        <v>12500</v>
       </c>
       <c r="J47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K47" s="3">
         <v>9700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2922,56 +3026,59 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>256400</v>
+        <v>305700</v>
       </c>
       <c r="E48" s="3">
-        <v>191600</v>
+        <v>253500</v>
       </c>
       <c r="F48" s="3">
-        <v>175800</v>
+        <v>189300</v>
       </c>
       <c r="G48" s="3">
-        <v>141300</v>
+        <v>173800</v>
       </c>
       <c r="H48" s="3">
-        <v>127300</v>
+        <v>139700</v>
       </c>
       <c r="I48" s="3">
-        <v>118500</v>
+        <v>125900</v>
       </c>
       <c r="J48" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K48" s="3">
         <v>117200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>88500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>47500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>57400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2984,56 +3091,59 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1619600</v>
+        <v>1630400</v>
       </c>
       <c r="E49" s="3">
-        <v>224600</v>
+        <v>1600900</v>
       </c>
       <c r="F49" s="3">
-        <v>208800</v>
+        <v>222000</v>
       </c>
       <c r="G49" s="3">
-        <v>204900</v>
+        <v>206400</v>
       </c>
       <c r="H49" s="3">
-        <v>152500</v>
+        <v>202500</v>
       </c>
       <c r="I49" s="3">
-        <v>136900</v>
+        <v>150800</v>
       </c>
       <c r="J49" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K49" s="3">
         <v>75200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>69000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>67800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>60700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>58500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>56800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>55900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132900</v>
+        <v>153400</v>
       </c>
       <c r="E52" s="3">
-        <v>111000</v>
+        <v>131400</v>
       </c>
       <c r="F52" s="3">
-        <v>96800</v>
+        <v>109800</v>
       </c>
       <c r="G52" s="3">
-        <v>54300</v>
+        <v>95700</v>
       </c>
       <c r="H52" s="3">
-        <v>50500</v>
+        <v>53600</v>
       </c>
       <c r="I52" s="3">
-        <v>46700</v>
+        <v>49900</v>
       </c>
       <c r="J52" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K52" s="3">
         <v>49600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>43900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7825500</v>
+        <v>8191800</v>
       </c>
       <c r="E54" s="3">
-        <v>7255300</v>
+        <v>7735000</v>
       </c>
       <c r="F54" s="3">
-        <v>6241300</v>
+        <v>7171300</v>
       </c>
       <c r="G54" s="3">
-        <v>6256400</v>
+        <v>6169100</v>
       </c>
       <c r="H54" s="3">
-        <v>5929000</v>
+        <v>6184000</v>
       </c>
       <c r="I54" s="3">
-        <v>3795400</v>
+        <v>5860400</v>
       </c>
       <c r="J54" s="3">
+        <v>3751500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3669500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3621200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3143000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3109300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2667700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2371500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1452700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1643300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,56 +3533,57 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2926900</v>
+        <v>3135200</v>
       </c>
       <c r="E57" s="3">
-        <v>2194700</v>
+        <v>2893000</v>
       </c>
       <c r="F57" s="3">
-        <v>1703600</v>
+        <v>2169300</v>
       </c>
       <c r="G57" s="3">
-        <v>1843100</v>
+        <v>1683900</v>
       </c>
       <c r="H57" s="3">
-        <v>1703400</v>
+        <v>1821700</v>
       </c>
       <c r="I57" s="3">
-        <v>1392300</v>
+        <v>1683700</v>
       </c>
       <c r="J57" s="3">
+        <v>1376200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1118700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1218600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1073100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1105200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1088800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>912300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>865300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>940200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3466,56 +3596,59 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>559800</v>
+        <v>754500</v>
       </c>
       <c r="E58" s="3">
-        <v>684500</v>
+        <v>553300</v>
       </c>
       <c r="F58" s="3">
-        <v>668400</v>
+        <v>676500</v>
       </c>
       <c r="G58" s="3">
-        <v>619700</v>
+        <v>660600</v>
       </c>
       <c r="H58" s="3">
-        <v>573900</v>
+        <v>612600</v>
       </c>
       <c r="I58" s="3">
-        <v>745000</v>
+        <v>567300</v>
       </c>
       <c r="J58" s="3">
+        <v>736400</v>
+      </c>
+      <c r="K58" s="3">
         <v>839400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>930600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>512800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>398400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>246700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>138700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3528,56 +3661,59 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412900</v>
+        <v>549400</v>
       </c>
       <c r="E59" s="3">
-        <v>214400</v>
+        <v>408200</v>
       </c>
       <c r="F59" s="3">
-        <v>174300</v>
+        <v>211900</v>
       </c>
       <c r="G59" s="3">
-        <v>173900</v>
+        <v>172300</v>
       </c>
       <c r="H59" s="3">
-        <v>126000</v>
+        <v>171900</v>
       </c>
       <c r="I59" s="3">
-        <v>86800</v>
+        <v>124600</v>
       </c>
       <c r="J59" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K59" s="3">
         <v>57700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>33500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3590,56 +3726,59 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3899600</v>
+        <v>4439000</v>
       </c>
       <c r="E60" s="3">
-        <v>3093600</v>
+        <v>3854500</v>
       </c>
       <c r="F60" s="3">
-        <v>2546300</v>
+        <v>3057800</v>
       </c>
       <c r="G60" s="3">
-        <v>2636700</v>
+        <v>2516800</v>
       </c>
       <c r="H60" s="3">
-        <v>2403400</v>
+        <v>2606200</v>
       </c>
       <c r="I60" s="3">
-        <v>2224100</v>
+        <v>2375600</v>
       </c>
       <c r="J60" s="3">
+        <v>2198400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2015800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2192900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1619400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1539300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1370300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1080200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>923000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>972100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3652,56 +3791,59 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>841800</v>
+        <v>874300</v>
       </c>
       <c r="E61" s="3">
-        <v>1062700</v>
+        <v>832000</v>
       </c>
       <c r="F61" s="3">
-        <v>570300</v>
+        <v>1050400</v>
       </c>
       <c r="G61" s="3">
-        <v>579100</v>
+        <v>563700</v>
       </c>
       <c r="H61" s="3">
-        <v>586600</v>
+        <v>572400</v>
       </c>
       <c r="I61" s="3">
-        <v>243100</v>
+        <v>579800</v>
       </c>
       <c r="J61" s="3">
+        <v>240300</v>
+      </c>
+      <c r="K61" s="3">
         <v>397800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>315400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>462600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>531100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>295800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>367400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>381000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>481100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3714,56 +3856,59 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>222800</v>
+        <v>230600</v>
       </c>
       <c r="E62" s="3">
-        <v>113300</v>
+        <v>220200</v>
       </c>
       <c r="F62" s="3">
-        <v>90900</v>
+        <v>112000</v>
       </c>
       <c r="G62" s="3">
-        <v>86200</v>
+        <v>89900</v>
       </c>
       <c r="H62" s="3">
-        <v>61500</v>
+        <v>85200</v>
       </c>
       <c r="I62" s="3">
-        <v>51300</v>
+        <v>60800</v>
       </c>
       <c r="J62" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K62" s="3">
         <v>9900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4981100</v>
+        <v>5559900</v>
       </c>
       <c r="E66" s="3">
-        <v>4285500</v>
+        <v>4923400</v>
       </c>
       <c r="F66" s="3">
-        <v>3219700</v>
+        <v>4235900</v>
       </c>
       <c r="G66" s="3">
-        <v>3329400</v>
+        <v>3182400</v>
       </c>
       <c r="H66" s="3">
-        <v>3069900</v>
+        <v>3290800</v>
       </c>
       <c r="I66" s="3">
-        <v>2536900</v>
+        <v>3034400</v>
       </c>
       <c r="J66" s="3">
+        <v>2507500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2442000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2518100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2102100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2090000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1681600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1462900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1325800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1476000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3030000</v>
+        <v>2846300</v>
       </c>
       <c r="E72" s="3">
-        <v>3268100</v>
+        <v>2995000</v>
       </c>
       <c r="F72" s="3">
-        <v>3039300</v>
+        <v>3230200</v>
       </c>
       <c r="G72" s="3">
-        <v>2943000</v>
+        <v>3004100</v>
       </c>
       <c r="H72" s="3">
-        <v>2881500</v>
+        <v>2909000</v>
       </c>
       <c r="I72" s="3">
-        <v>1282900</v>
+        <v>2848100</v>
       </c>
       <c r="J72" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1250900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1116500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1055200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1034600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>998300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>918700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>132900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>175600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2844400</v>
+        <v>2631900</v>
       </c>
       <c r="E76" s="3">
-        <v>2969700</v>
+        <v>2811500</v>
       </c>
       <c r="F76" s="3">
-        <v>3021600</v>
+        <v>2935400</v>
       </c>
       <c r="G76" s="3">
-        <v>2927000</v>
+        <v>2986700</v>
       </c>
       <c r="H76" s="3">
-        <v>2859100</v>
+        <v>2893200</v>
       </c>
       <c r="I76" s="3">
-        <v>1258500</v>
+        <v>2826000</v>
       </c>
       <c r="J76" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1227500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1103100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1040900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1019300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>986200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>908600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>126900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>167300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-246700</v>
+        <v>-154800</v>
       </c>
       <c r="E81" s="3">
-        <v>104300</v>
+        <v>-243800</v>
       </c>
       <c r="F81" s="3">
-        <v>31200</v>
+        <v>103100</v>
       </c>
       <c r="G81" s="3">
-        <v>61800</v>
+        <v>30800</v>
       </c>
       <c r="H81" s="3">
-        <v>50200</v>
+        <v>61100</v>
       </c>
       <c r="I81" s="3">
-        <v>24900</v>
+        <v>49600</v>
       </c>
       <c r="J81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K81" s="3">
         <v>31300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42200</v>
+        <v>21700</v>
       </c>
       <c r="E83" s="3">
-        <v>19200</v>
+        <v>41700</v>
       </c>
       <c r="F83" s="3">
-        <v>16600</v>
+        <v>19000</v>
       </c>
       <c r="G83" s="3">
-        <v>14100</v>
+        <v>16400</v>
       </c>
       <c r="H83" s="3">
-        <v>12100</v>
+        <v>13900</v>
       </c>
       <c r="I83" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="J83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K83" s="3">
         <v>11900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>350500</v>
+        <v>115900</v>
       </c>
       <c r="E89" s="3">
-        <v>260600</v>
+        <v>346500</v>
       </c>
       <c r="F89" s="3">
-        <v>-17600</v>
+        <v>257500</v>
       </c>
       <c r="G89" s="3">
-        <v>47800</v>
+        <v>-17400</v>
       </c>
       <c r="H89" s="3">
-        <v>-329100</v>
+        <v>47300</v>
       </c>
       <c r="I89" s="3">
-        <v>221000</v>
+        <v>-325300</v>
       </c>
       <c r="J89" s="3">
+        <v>218400</v>
+      </c>
+      <c r="K89" s="3">
         <v>71400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-122500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>35100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-353300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-55200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-379200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-32200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-54900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-130100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>103100</v>
+        <v>-210700</v>
       </c>
       <c r="E91" s="3">
-        <v>-37500</v>
+        <v>101900</v>
       </c>
       <c r="F91" s="3">
-        <v>-65900</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7400</v>
+        <v>-65100</v>
       </c>
       <c r="H91" s="3">
-        <v>-30300</v>
+        <v>-7300</v>
       </c>
       <c r="I91" s="3">
-        <v>-17900</v>
+        <v>-29900</v>
       </c>
       <c r="J91" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-583600</v>
+        <v>-49400</v>
       </c>
       <c r="E94" s="3">
-        <v>170200</v>
+        <v>-576800</v>
       </c>
       <c r="F94" s="3">
-        <v>-123300</v>
+        <v>168200</v>
       </c>
       <c r="G94" s="3">
-        <v>-24100</v>
+        <v>-121900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1502400</v>
+        <v>-23800</v>
       </c>
       <c r="I94" s="3">
-        <v>284300</v>
+        <v>-1485000</v>
       </c>
       <c r="J94" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K94" s="3">
         <v>97400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-470400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>26700</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321800</v>
+        <v>217200</v>
       </c>
       <c r="E100" s="3">
-        <v>351400</v>
+        <v>-318100</v>
       </c>
       <c r="F100" s="3">
-        <v>30300</v>
+        <v>347400</v>
       </c>
       <c r="G100" s="3">
-        <v>22800</v>
+        <v>30000</v>
       </c>
       <c r="H100" s="3">
-        <v>1716000</v>
+        <v>22600</v>
       </c>
       <c r="I100" s="3">
-        <v>-256800</v>
+        <v>1696200</v>
       </c>
       <c r="J100" s="3">
+        <v>-253900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>279100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>35200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>387000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>870200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>229100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>7900</v>
+        <v>-2900</v>
       </c>
       <c r="F101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G101" s="3">
         <v>-4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="H101" s="3">
-        <v>300</v>
-      </c>
       <c r="I101" s="3">
-        <v>-500</v>
+        <v>200</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
       </c>
       <c r="K101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-557800</v>
+        <v>283200</v>
       </c>
       <c r="E102" s="3">
-        <v>790000</v>
+        <v>-551400</v>
       </c>
       <c r="F102" s="3">
-        <v>-115000</v>
+        <v>780900</v>
       </c>
       <c r="G102" s="3">
-        <v>50200</v>
+        <v>-113700</v>
       </c>
       <c r="H102" s="3">
-        <v>-115200</v>
+        <v>49600</v>
       </c>
       <c r="I102" s="3">
-        <v>247900</v>
+        <v>-113800</v>
       </c>
       <c r="J102" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K102" s="3">
         <v>108400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>133600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-42600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-74000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>125900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>619200</v>
+        <v>622200</v>
       </c>
       <c r="E8" s="3">
-        <v>286200</v>
+        <v>287600</v>
       </c>
       <c r="F8" s="3">
-        <v>119500</v>
+        <v>120000</v>
       </c>
       <c r="G8" s="3">
-        <v>169000</v>
+        <v>169800</v>
       </c>
       <c r="H8" s="3">
-        <v>192600</v>
+        <v>193500</v>
       </c>
       <c r="I8" s="3">
-        <v>182000</v>
+        <v>182800</v>
       </c>
       <c r="J8" s="3">
-        <v>130000</v>
+        <v>130600</v>
       </c>
       <c r="K8" s="3">
         <v>141300</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>125900</v>
+        <v>126400</v>
       </c>
       <c r="E9" s="3">
-        <v>102400</v>
+        <v>102900</v>
       </c>
       <c r="F9" s="3">
-        <v>58900</v>
+        <v>59200</v>
       </c>
       <c r="G9" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="H9" s="3">
-        <v>41500</v>
+        <v>41700</v>
       </c>
       <c r="I9" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="J9" s="3">
-        <v>38700</v>
+        <v>38900</v>
       </c>
       <c r="K9" s="3">
         <v>29500</v>
@@ -893,25 +893,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>493400</v>
+        <v>495700</v>
       </c>
       <c r="E10" s="3">
-        <v>183900</v>
+        <v>184700</v>
       </c>
       <c r="F10" s="3">
-        <v>60600</v>
+        <v>60900</v>
       </c>
       <c r="G10" s="3">
-        <v>122300</v>
+        <v>122900</v>
       </c>
       <c r="H10" s="3">
-        <v>151100</v>
+        <v>151800</v>
       </c>
       <c r="I10" s="3">
-        <v>141500</v>
+        <v>142100</v>
       </c>
       <c r="J10" s="3">
-        <v>91300</v>
+        <v>91700</v>
       </c>
       <c r="K10" s="3">
         <v>111700</v>
@@ -1181,7 +1181,7 @@
         <v>2400</v>
       </c>
       <c r="E15" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="F15" s="3">
         <v>6800</v>
@@ -1196,7 +1196,7 @@
         <v>5400</v>
       </c>
       <c r="J15" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K15" s="3">
         <v>4000</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>239500</v>
+        <v>240700</v>
       </c>
       <c r="E17" s="3">
-        <v>238200</v>
+        <v>239300</v>
       </c>
       <c r="F17" s="3">
-        <v>138600</v>
+        <v>139300</v>
       </c>
       <c r="G17" s="3">
-        <v>109400</v>
+        <v>109900</v>
       </c>
       <c r="H17" s="3">
-        <v>110200</v>
+        <v>110700</v>
       </c>
       <c r="I17" s="3">
-        <v>96800</v>
+        <v>97300</v>
       </c>
       <c r="J17" s="3">
-        <v>86400</v>
+        <v>86800</v>
       </c>
       <c r="K17" s="3">
         <v>66800</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>379700</v>
+        <v>381500</v>
       </c>
       <c r="E18" s="3">
-        <v>48100</v>
+        <v>48300</v>
       </c>
       <c r="F18" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="G18" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="H18" s="3">
-        <v>82400</v>
+        <v>82800</v>
       </c>
       <c r="I18" s="3">
-        <v>85200</v>
+        <v>85600</v>
       </c>
       <c r="J18" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="K18" s="3">
         <v>74400</v>
@@ -1420,13 +1420,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-504300</v>
+        <v>-506700</v>
       </c>
       <c r="E20" s="3">
-        <v>-298700</v>
+        <v>-300200</v>
       </c>
       <c r="F20" s="3">
-        <v>147500</v>
+        <v>148200</v>
       </c>
       <c r="G20" s="3">
         <v>-9300</v>
@@ -1435,10 +1435,10 @@
         <v>-10700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12800</v>
+        <v>-12900</v>
       </c>
       <c r="J20" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="K20" s="3">
         <v>-29500</v>
@@ -1485,25 +1485,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-102900</v>
+        <v>-103300</v>
       </c>
       <c r="E21" s="3">
-        <v>-209000</v>
+        <v>-210000</v>
       </c>
       <c r="F21" s="3">
-        <v>147400</v>
+        <v>148100</v>
       </c>
       <c r="G21" s="3">
-        <v>66800</v>
+        <v>67100</v>
       </c>
       <c r="H21" s="3">
-        <v>85700</v>
+        <v>86100</v>
       </c>
       <c r="I21" s="3">
-        <v>84300</v>
+        <v>84700</v>
       </c>
       <c r="J21" s="3">
-        <v>43400</v>
+        <v>43600</v>
       </c>
       <c r="K21" s="3">
         <v>56800</v>
@@ -1550,13 +1550,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="F22" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G22" s="3">
         <v>9500</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-157800</v>
+        <v>-158600</v>
       </c>
       <c r="E23" s="3">
-        <v>-278100</v>
+        <v>-279400</v>
       </c>
       <c r="F23" s="3">
-        <v>113500</v>
+        <v>114000</v>
       </c>
       <c r="G23" s="3">
-        <v>40900</v>
+        <v>41100</v>
       </c>
       <c r="H23" s="3">
-        <v>71800</v>
+        <v>72100</v>
       </c>
       <c r="I23" s="3">
-        <v>72400</v>
+        <v>72700</v>
       </c>
       <c r="J23" s="3">
-        <v>31100</v>
+        <v>31300</v>
       </c>
       <c r="K23" s="3">
         <v>44900</v>
@@ -1683,19 +1683,19 @@
         <v>-1700</v>
       </c>
       <c r="E24" s="3">
-        <v>-32600</v>
+        <v>-32800</v>
       </c>
       <c r="F24" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="G24" s="3">
         <v>10100</v>
       </c>
       <c r="H24" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I24" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="J24" s="3">
         <v>7100</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-156100</v>
+        <v>-156800</v>
       </c>
       <c r="E26" s="3">
-        <v>-245500</v>
+        <v>-246600</v>
       </c>
       <c r="F26" s="3">
-        <v>102500</v>
+        <v>102900</v>
       </c>
       <c r="G26" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H26" s="3">
-        <v>59600</v>
+        <v>59900</v>
       </c>
       <c r="I26" s="3">
-        <v>48500</v>
+        <v>48800</v>
       </c>
       <c r="J26" s="3">
-        <v>24100</v>
+        <v>24200</v>
       </c>
       <c r="K26" s="3">
         <v>31300</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-154800</v>
+        <v>-155500</v>
       </c>
       <c r="E27" s="3">
-        <v>-243800</v>
+        <v>-245000</v>
       </c>
       <c r="F27" s="3">
-        <v>103100</v>
+        <v>103600</v>
       </c>
       <c r="G27" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H27" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="I27" s="3">
-        <v>49600</v>
+        <v>49900</v>
       </c>
       <c r="J27" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="K27" s="3">
         <v>31300</v>
@@ -2200,13 +2200,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>504300</v>
+        <v>506700</v>
       </c>
       <c r="E32" s="3">
-        <v>298700</v>
+        <v>300200</v>
       </c>
       <c r="F32" s="3">
-        <v>-147500</v>
+        <v>-148200</v>
       </c>
       <c r="G32" s="3">
         <v>9300</v>
@@ -2215,10 +2215,10 @@
         <v>10700</v>
       </c>
       <c r="I32" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="J32" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="K32" s="3">
         <v>29500</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-154800</v>
+        <v>-155500</v>
       </c>
       <c r="E33" s="3">
-        <v>-243800</v>
+        <v>-245000</v>
       </c>
       <c r="F33" s="3">
-        <v>103100</v>
+        <v>103600</v>
       </c>
       <c r="G33" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H33" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="I33" s="3">
-        <v>49600</v>
+        <v>49900</v>
       </c>
       <c r="J33" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="K33" s="3">
         <v>31300</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-154800</v>
+        <v>-155500</v>
       </c>
       <c r="E35" s="3">
-        <v>-243800</v>
+        <v>-245000</v>
       </c>
       <c r="F35" s="3">
-        <v>103100</v>
+        <v>103600</v>
       </c>
       <c r="G35" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H35" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="I35" s="3">
-        <v>49600</v>
+        <v>49900</v>
       </c>
       <c r="J35" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="K35" s="3">
         <v>31300</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>875700</v>
+        <v>879800</v>
       </c>
       <c r="E41" s="3">
-        <v>592500</v>
+        <v>595300</v>
       </c>
       <c r="F41" s="3">
-        <v>1143900</v>
+        <v>1149300</v>
       </c>
       <c r="G41" s="3">
-        <v>363000</v>
+        <v>364700</v>
       </c>
       <c r="H41" s="3">
-        <v>476600</v>
+        <v>478900</v>
       </c>
       <c r="I41" s="3">
-        <v>427000</v>
+        <v>429000</v>
       </c>
       <c r="J41" s="3">
-        <v>540900</v>
+        <v>543400</v>
       </c>
       <c r="K41" s="3">
         <v>299300</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>388200</v>
+        <v>390000</v>
       </c>
       <c r="E42" s="3">
-        <v>437500</v>
+        <v>439500</v>
       </c>
       <c r="F42" s="3">
-        <v>973800</v>
+        <v>978400</v>
       </c>
       <c r="G42" s="3">
-        <v>1689500</v>
+        <v>1697500</v>
       </c>
       <c r="H42" s="3">
-        <v>1583200</v>
+        <v>1590700</v>
       </c>
       <c r="I42" s="3">
-        <v>1594300</v>
+        <v>1601800</v>
       </c>
       <c r="J42" s="3">
-        <v>153600</v>
+        <v>154300</v>
       </c>
       <c r="K42" s="3">
         <v>474300</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3974100</v>
+        <v>3992900</v>
       </c>
       <c r="E43" s="3">
-        <v>3868600</v>
+        <v>3886900</v>
       </c>
       <c r="F43" s="3">
-        <v>3583900</v>
+        <v>3600800</v>
       </c>
       <c r="G43" s="3">
-        <v>3351300</v>
+        <v>3367100</v>
       </c>
       <c r="H43" s="3">
-        <v>3463100</v>
+        <v>3479400</v>
       </c>
       <c r="I43" s="3">
-        <v>3377000</v>
+        <v>3393000</v>
       </c>
       <c r="J43" s="3">
-        <v>2670600</v>
+        <v>2683200</v>
       </c>
       <c r="K43" s="3">
         <v>2593100</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>597600</v>
+        <v>600500</v>
       </c>
       <c r="E45" s="3">
-        <v>429100</v>
+        <v>431100</v>
       </c>
       <c r="F45" s="3">
-        <v>250000</v>
+        <v>251200</v>
       </c>
       <c r="G45" s="3">
-        <v>207800</v>
+        <v>208800</v>
       </c>
       <c r="H45" s="3">
-        <v>179300</v>
+        <v>180100</v>
       </c>
       <c r="I45" s="3">
-        <v>123000</v>
+        <v>123600</v>
       </c>
       <c r="J45" s="3">
-        <v>82400</v>
+        <v>82800</v>
       </c>
       <c r="K45" s="3">
         <v>51100</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5835600</v>
+        <v>5863200</v>
       </c>
       <c r="E46" s="3">
-        <v>5327700</v>
+        <v>5352800</v>
       </c>
       <c r="F46" s="3">
-        <v>5951600</v>
+        <v>5979700</v>
       </c>
       <c r="G46" s="3">
-        <v>5611500</v>
+        <v>5638000</v>
       </c>
       <c r="H46" s="3">
-        <v>5702200</v>
+        <v>5729100</v>
       </c>
       <c r="I46" s="3">
-        <v>5521400</v>
+        <v>5547500</v>
       </c>
       <c r="J46" s="3">
-        <v>3447500</v>
+        <v>3463800</v>
       </c>
       <c r="K46" s="3">
         <v>3417800</v>
@@ -2970,22 +2970,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>266700</v>
+        <v>268000</v>
       </c>
       <c r="E47" s="3">
-        <v>421600</v>
+        <v>423600</v>
       </c>
       <c r="F47" s="3">
-        <v>698600</v>
+        <v>701900</v>
       </c>
       <c r="G47" s="3">
-        <v>81700</v>
+        <v>82100</v>
       </c>
       <c r="H47" s="3">
-        <v>86000</v>
+        <v>86400</v>
       </c>
       <c r="I47" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="J47" s="3">
         <v>5400</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>305700</v>
+        <v>307200</v>
       </c>
       <c r="E48" s="3">
-        <v>253500</v>
+        <v>254700</v>
       </c>
       <c r="F48" s="3">
-        <v>189300</v>
+        <v>190200</v>
       </c>
       <c r="G48" s="3">
-        <v>173800</v>
+        <v>174600</v>
       </c>
       <c r="H48" s="3">
-        <v>139700</v>
+        <v>140400</v>
       </c>
       <c r="I48" s="3">
-        <v>125900</v>
+        <v>126500</v>
       </c>
       <c r="J48" s="3">
-        <v>117100</v>
+        <v>117700</v>
       </c>
       <c r="K48" s="3">
         <v>117200</v>
@@ -3100,25 +3100,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1630400</v>
+        <v>1638100</v>
       </c>
       <c r="E49" s="3">
-        <v>1600900</v>
+        <v>1608400</v>
       </c>
       <c r="F49" s="3">
-        <v>222000</v>
+        <v>223100</v>
       </c>
       <c r="G49" s="3">
-        <v>206400</v>
+        <v>207400</v>
       </c>
       <c r="H49" s="3">
-        <v>202500</v>
+        <v>203500</v>
       </c>
       <c r="I49" s="3">
-        <v>150800</v>
+        <v>151500</v>
       </c>
       <c r="J49" s="3">
-        <v>135300</v>
+        <v>135900</v>
       </c>
       <c r="K49" s="3">
         <v>75200</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153400</v>
+        <v>154100</v>
       </c>
       <c r="E52" s="3">
-        <v>131400</v>
+        <v>132000</v>
       </c>
       <c r="F52" s="3">
-        <v>109800</v>
+        <v>110300</v>
       </c>
       <c r="G52" s="3">
-        <v>95700</v>
+        <v>96100</v>
       </c>
       <c r="H52" s="3">
-        <v>53600</v>
+        <v>53900</v>
       </c>
       <c r="I52" s="3">
-        <v>49900</v>
+        <v>50200</v>
       </c>
       <c r="J52" s="3">
-        <v>46200</v>
+        <v>46400</v>
       </c>
       <c r="K52" s="3">
         <v>49600</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8191800</v>
+        <v>8230500</v>
       </c>
       <c r="E54" s="3">
-        <v>7735000</v>
+        <v>7771500</v>
       </c>
       <c r="F54" s="3">
-        <v>7171300</v>
+        <v>7205200</v>
       </c>
       <c r="G54" s="3">
-        <v>6169100</v>
+        <v>6198200</v>
       </c>
       <c r="H54" s="3">
-        <v>6184000</v>
+        <v>6213200</v>
       </c>
       <c r="I54" s="3">
-        <v>5860400</v>
+        <v>5888100</v>
       </c>
       <c r="J54" s="3">
-        <v>3751500</v>
+        <v>3769200</v>
       </c>
       <c r="K54" s="3">
         <v>3669500</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3135200</v>
+        <v>3150000</v>
       </c>
       <c r="E57" s="3">
-        <v>2893000</v>
+        <v>2906700</v>
       </c>
       <c r="F57" s="3">
-        <v>2169300</v>
+        <v>2179600</v>
       </c>
       <c r="G57" s="3">
-        <v>1683900</v>
+        <v>1691800</v>
       </c>
       <c r="H57" s="3">
-        <v>1821700</v>
+        <v>1830400</v>
       </c>
       <c r="I57" s="3">
-        <v>1683700</v>
+        <v>1691700</v>
       </c>
       <c r="J57" s="3">
-        <v>1376200</v>
+        <v>1382700</v>
       </c>
       <c r="K57" s="3">
         <v>1118700</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>754500</v>
+        <v>758100</v>
       </c>
       <c r="E58" s="3">
-        <v>553300</v>
+        <v>555900</v>
       </c>
       <c r="F58" s="3">
-        <v>676500</v>
+        <v>679700</v>
       </c>
       <c r="G58" s="3">
-        <v>660600</v>
+        <v>663800</v>
       </c>
       <c r="H58" s="3">
-        <v>612600</v>
+        <v>615400</v>
       </c>
       <c r="I58" s="3">
-        <v>567300</v>
+        <v>570000</v>
       </c>
       <c r="J58" s="3">
-        <v>736400</v>
+        <v>739900</v>
       </c>
       <c r="K58" s="3">
         <v>839400</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>549400</v>
+        <v>552000</v>
       </c>
       <c r="E59" s="3">
-        <v>408200</v>
+        <v>410100</v>
       </c>
       <c r="F59" s="3">
-        <v>211900</v>
+        <v>212900</v>
       </c>
       <c r="G59" s="3">
-        <v>172300</v>
+        <v>173100</v>
       </c>
       <c r="H59" s="3">
-        <v>171900</v>
+        <v>172700</v>
       </c>
       <c r="I59" s="3">
-        <v>124600</v>
+        <v>125200</v>
       </c>
       <c r="J59" s="3">
-        <v>85800</v>
+        <v>86200</v>
       </c>
       <c r="K59" s="3">
         <v>57700</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4439000</v>
+        <v>4460000</v>
       </c>
       <c r="E60" s="3">
-        <v>3854500</v>
+        <v>3872700</v>
       </c>
       <c r="F60" s="3">
-        <v>3057800</v>
+        <v>3072300</v>
       </c>
       <c r="G60" s="3">
-        <v>2516800</v>
+        <v>2528700</v>
       </c>
       <c r="H60" s="3">
-        <v>2606200</v>
+        <v>2618500</v>
       </c>
       <c r="I60" s="3">
-        <v>2375600</v>
+        <v>2386800</v>
       </c>
       <c r="J60" s="3">
-        <v>2198400</v>
+        <v>2208700</v>
       </c>
       <c r="K60" s="3">
         <v>2015800</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>874300</v>
+        <v>878500</v>
       </c>
       <c r="E61" s="3">
-        <v>832000</v>
+        <v>836000</v>
       </c>
       <c r="F61" s="3">
-        <v>1050400</v>
+        <v>1055400</v>
       </c>
       <c r="G61" s="3">
-        <v>563700</v>
+        <v>566400</v>
       </c>
       <c r="H61" s="3">
-        <v>572400</v>
+        <v>575100</v>
       </c>
       <c r="I61" s="3">
-        <v>579800</v>
+        <v>582500</v>
       </c>
       <c r="J61" s="3">
-        <v>240300</v>
+        <v>241400</v>
       </c>
       <c r="K61" s="3">
         <v>397800</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230600</v>
+        <v>231600</v>
       </c>
       <c r="E62" s="3">
-        <v>220200</v>
+        <v>221300</v>
       </c>
       <c r="F62" s="3">
-        <v>112000</v>
+        <v>112500</v>
       </c>
       <c r="G62" s="3">
-        <v>89900</v>
+        <v>90300</v>
       </c>
       <c r="H62" s="3">
-        <v>85200</v>
+        <v>85600</v>
       </c>
       <c r="I62" s="3">
-        <v>60800</v>
+        <v>61100</v>
       </c>
       <c r="J62" s="3">
-        <v>50700</v>
+        <v>51000</v>
       </c>
       <c r="K62" s="3">
         <v>9900</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5559900</v>
+        <v>5586200</v>
       </c>
       <c r="E66" s="3">
-        <v>4923400</v>
+        <v>4946700</v>
       </c>
       <c r="F66" s="3">
-        <v>4235900</v>
+        <v>4255900</v>
       </c>
       <c r="G66" s="3">
-        <v>3182400</v>
+        <v>3197400</v>
       </c>
       <c r="H66" s="3">
-        <v>3290800</v>
+        <v>3306400</v>
       </c>
       <c r="I66" s="3">
-        <v>3034400</v>
+        <v>3048700</v>
       </c>
       <c r="J66" s="3">
-        <v>2507500</v>
+        <v>2519400</v>
       </c>
       <c r="K66" s="3">
         <v>2442000</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2846300</v>
+        <v>2859800</v>
       </c>
       <c r="E72" s="3">
-        <v>2995000</v>
+        <v>3009100</v>
       </c>
       <c r="F72" s="3">
-        <v>3230200</v>
+        <v>3245500</v>
       </c>
       <c r="G72" s="3">
-        <v>3004100</v>
+        <v>3018300</v>
       </c>
       <c r="H72" s="3">
-        <v>2909000</v>
+        <v>2922700</v>
       </c>
       <c r="I72" s="3">
-        <v>2848100</v>
+        <v>2861600</v>
       </c>
       <c r="J72" s="3">
-        <v>1268000</v>
+        <v>1274000</v>
       </c>
       <c r="K72" s="3">
         <v>1250900</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2631900</v>
+        <v>2644300</v>
       </c>
       <c r="E76" s="3">
-        <v>2811500</v>
+        <v>2824800</v>
       </c>
       <c r="F76" s="3">
-        <v>2935400</v>
+        <v>2949300</v>
       </c>
       <c r="G76" s="3">
-        <v>2986700</v>
+        <v>3000800</v>
       </c>
       <c r="H76" s="3">
-        <v>2893200</v>
+        <v>2906800</v>
       </c>
       <c r="I76" s="3">
-        <v>2826000</v>
+        <v>2839400</v>
       </c>
       <c r="J76" s="3">
-        <v>1244000</v>
+        <v>1249900</v>
       </c>
       <c r="K76" s="3">
         <v>1227500</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-154800</v>
+        <v>-155500</v>
       </c>
       <c r="E81" s="3">
-        <v>-243800</v>
+        <v>-245000</v>
       </c>
       <c r="F81" s="3">
-        <v>103100</v>
+        <v>103600</v>
       </c>
       <c r="G81" s="3">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="H81" s="3">
-        <v>61100</v>
+        <v>61400</v>
       </c>
       <c r="I81" s="3">
-        <v>49600</v>
+        <v>49900</v>
       </c>
       <c r="J81" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="K81" s="3">
         <v>31300</v>
@@ -5025,25 +5025,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="E83" s="3">
-        <v>41700</v>
+        <v>41900</v>
       </c>
       <c r="F83" s="3">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="G83" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="H83" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="I83" s="3">
         <v>12000</v>
       </c>
       <c r="J83" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="K83" s="3">
         <v>11900</v>
@@ -5415,25 +5415,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>115900</v>
+        <v>116400</v>
       </c>
       <c r="E89" s="3">
-        <v>346500</v>
+        <v>348100</v>
       </c>
       <c r="F89" s="3">
-        <v>257500</v>
+        <v>258800</v>
       </c>
       <c r="G89" s="3">
         <v>-17400</v>
       </c>
       <c r="H89" s="3">
-        <v>47300</v>
+        <v>47500</v>
       </c>
       <c r="I89" s="3">
-        <v>-325300</v>
+        <v>-326800</v>
       </c>
       <c r="J89" s="3">
-        <v>218400</v>
+        <v>219400</v>
       </c>
       <c r="K89" s="3">
         <v>71400</v>
@@ -5505,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210700</v>
+        <v>-211700</v>
       </c>
       <c r="E91" s="3">
-        <v>101900</v>
+        <v>102400</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-37200</v>
       </c>
       <c r="G91" s="3">
-        <v>-65100</v>
+        <v>-65400</v>
       </c>
       <c r="H91" s="3">
         <v>-7300</v>
       </c>
       <c r="I91" s="3">
-        <v>-29900</v>
+        <v>-30100</v>
       </c>
       <c r="J91" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="K91" s="3">
         <v>-17800</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49400</v>
+        <v>-49600</v>
       </c>
       <c r="E94" s="3">
-        <v>-576800</v>
+        <v>-579600</v>
       </c>
       <c r="F94" s="3">
-        <v>168200</v>
+        <v>169000</v>
       </c>
       <c r="G94" s="3">
-        <v>-121900</v>
+        <v>-122500</v>
       </c>
       <c r="H94" s="3">
-        <v>-23800</v>
+        <v>-23900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1485000</v>
+        <v>-1492000</v>
       </c>
       <c r="J94" s="3">
-        <v>281000</v>
+        <v>282300</v>
       </c>
       <c r="K94" s="3">
         <v>97400</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>217200</v>
+        <v>218300</v>
       </c>
       <c r="E100" s="3">
-        <v>-318100</v>
+        <v>-319600</v>
       </c>
       <c r="F100" s="3">
-        <v>347400</v>
+        <v>349000</v>
       </c>
       <c r="G100" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="H100" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="I100" s="3">
-        <v>1696200</v>
+        <v>1704200</v>
       </c>
       <c r="J100" s="3">
-        <v>-253900</v>
+        <v>-255100</v>
       </c>
       <c r="K100" s="3">
         <v>-60000</v>
@@ -6118,7 +6118,7 @@
         <v>-600</v>
       </c>
       <c r="E101" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
         <v>7800</v>
@@ -6180,25 +6180,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>283200</v>
+        <v>284500</v>
       </c>
       <c r="E102" s="3">
-        <v>-551400</v>
+        <v>-554000</v>
       </c>
       <c r="F102" s="3">
-        <v>780900</v>
+        <v>784600</v>
       </c>
       <c r="G102" s="3">
-        <v>-113700</v>
+        <v>-114200</v>
       </c>
       <c r="H102" s="3">
-        <v>49600</v>
+        <v>49800</v>
       </c>
       <c r="I102" s="3">
-        <v>-113800</v>
+        <v>-114400</v>
       </c>
       <c r="J102" s="3">
-        <v>245100</v>
+        <v>246200</v>
       </c>
       <c r="K102" s="3">
         <v>108400</v>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>622200</v>
+        <v>431100</v>
       </c>
       <c r="E8" s="3">
-        <v>287600</v>
+        <v>387300</v>
       </c>
       <c r="F8" s="3">
-        <v>120000</v>
+        <v>594800</v>
       </c>
       <c r="G8" s="3">
-        <v>169800</v>
+        <v>274900</v>
       </c>
       <c r="H8" s="3">
-        <v>193500</v>
+        <v>114800</v>
       </c>
       <c r="I8" s="3">
+        <v>162300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K8" s="3">
         <v>182800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>130600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>141300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>144600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>110000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>94400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>76600</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>18900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>18400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>126400</v>
+        <v>117200</v>
       </c>
       <c r="E9" s="3">
-        <v>102900</v>
+        <v>126200</v>
       </c>
       <c r="F9" s="3">
-        <v>59200</v>
+        <v>120900</v>
       </c>
       <c r="G9" s="3">
-        <v>46900</v>
+        <v>98300</v>
       </c>
       <c r="H9" s="3">
-        <v>41700</v>
+        <v>56600</v>
       </c>
       <c r="I9" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K9" s="3">
         <v>40700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>23700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>20800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>18900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>18100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>16500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>18800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>13800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>12900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>495700</v>
+        <v>313900</v>
       </c>
       <c r="E10" s="3">
-        <v>184700</v>
+        <v>261200</v>
       </c>
       <c r="F10" s="3">
-        <v>60900</v>
+        <v>473900</v>
       </c>
       <c r="G10" s="3">
-        <v>122900</v>
+        <v>176600</v>
       </c>
       <c r="H10" s="3">
-        <v>151800</v>
+        <v>58200</v>
       </c>
       <c r="I10" s="3">
+        <v>117500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K10" s="3">
         <v>142100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>91700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>111700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>120900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>103200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>91100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>84300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>76400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>61700</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>5200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>5500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,28 +1141,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12400</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1136,11 +1176,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1172,64 +1212,70 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2400</v>
+        <v>14900</v>
       </c>
       <c r="E15" s="3">
-        <v>26600</v>
+        <v>11500</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>2300</v>
       </c>
       <c r="G15" s="3">
-        <v>6300</v>
+        <v>25400</v>
       </c>
       <c r="H15" s="3">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K15" s="3">
         <v>5400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>4200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>3000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>240700</v>
+        <v>244000</v>
       </c>
       <c r="E17" s="3">
-        <v>239300</v>
+        <v>248500</v>
       </c>
       <c r="F17" s="3">
-        <v>139300</v>
+        <v>230100</v>
       </c>
       <c r="G17" s="3">
-        <v>109900</v>
+        <v>228800</v>
       </c>
       <c r="H17" s="3">
-        <v>110700</v>
+        <v>133100</v>
       </c>
       <c r="I17" s="3">
+        <v>105100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K17" s="3">
         <v>97300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>86800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>66800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>57700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>54800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>55900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>42000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>49000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>37000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>36000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>28600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>381500</v>
+        <v>187000</v>
       </c>
       <c r="E18" s="3">
-        <v>48300</v>
+        <v>138800</v>
       </c>
       <c r="F18" s="3">
-        <v>-19200</v>
+        <v>364700</v>
       </c>
       <c r="G18" s="3">
-        <v>59900</v>
+        <v>46200</v>
       </c>
       <c r="H18" s="3">
-        <v>82800</v>
+        <v>-18400</v>
       </c>
       <c r="I18" s="3">
+        <v>57300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K18" s="3">
         <v>85600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>43800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>74400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>86900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>69100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>54100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>58300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>45400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>39700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-17000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-10200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,158 +1480,172 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-506700</v>
+        <v>-242500</v>
       </c>
       <c r="E20" s="3">
-        <v>-300200</v>
+        <v>-161500</v>
       </c>
       <c r="F20" s="3">
-        <v>148200</v>
+        <v>-484400</v>
       </c>
       <c r="G20" s="3">
-        <v>-9300</v>
+        <v>-286900</v>
       </c>
       <c r="H20" s="3">
-        <v>-10700</v>
+        <v>141700</v>
       </c>
       <c r="I20" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-12600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-29500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-19600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-18200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-14800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-15400</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>14400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>10500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-103300</v>
+        <v>-18600</v>
       </c>
       <c r="E21" s="3">
-        <v>-210000</v>
+        <v>11900</v>
       </c>
       <c r="F21" s="3">
-        <v>148100</v>
+        <v>-98800</v>
       </c>
       <c r="G21" s="3">
-        <v>67100</v>
+        <v>-200700</v>
       </c>
       <c r="H21" s="3">
-        <v>86100</v>
+        <v>141600</v>
       </c>
       <c r="I21" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K21" s="3">
         <v>84700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>43600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>56800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>77600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>59000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>45800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>51400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>37000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>28700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>6900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="3">
-        <v>27600</v>
+        <v>31500</v>
       </c>
       <c r="F22" s="3">
-        <v>15000</v>
+        <v>31900</v>
       </c>
       <c r="G22" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+        <v>26400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1573,21 +1653,21 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1609,138 +1689,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-158600</v>
+        <v>-90400</v>
       </c>
       <c r="E23" s="3">
-        <v>-279400</v>
+        <v>-54200</v>
       </c>
       <c r="F23" s="3">
-        <v>114000</v>
+        <v>-151600</v>
       </c>
       <c r="G23" s="3">
-        <v>41100</v>
+        <v>-267100</v>
       </c>
       <c r="H23" s="3">
-        <v>72100</v>
+        <v>109000</v>
       </c>
       <c r="I23" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K23" s="3">
         <v>72700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>31300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>44900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>67000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>50600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>39200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>45800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>24200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>19900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>11100</v>
-      </c>
       <c r="G24" s="3">
-        <v>10100</v>
+        <v>-31400</v>
       </c>
       <c r="H24" s="3">
-        <v>12200</v>
+        <v>10600</v>
       </c>
       <c r="I24" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K24" s="3">
         <v>23900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>13700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>15300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>12700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-156800</v>
+        <v>-91500</v>
       </c>
       <c r="E26" s="3">
-        <v>-246600</v>
+        <v>-58600</v>
       </c>
       <c r="F26" s="3">
-        <v>102900</v>
+        <v>-149900</v>
       </c>
       <c r="G26" s="3">
-        <v>31000</v>
+        <v>-235800</v>
       </c>
       <c r="H26" s="3">
-        <v>59900</v>
+        <v>98400</v>
       </c>
       <c r="I26" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K26" s="3">
         <v>48800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>24200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>32200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>33100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>22700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>16700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-155500</v>
+        <v>-91200</v>
       </c>
       <c r="E27" s="3">
-        <v>-245000</v>
+        <v>-58600</v>
       </c>
       <c r="F27" s="3">
-        <v>103600</v>
+        <v>-148700</v>
       </c>
       <c r="G27" s="3">
-        <v>31000</v>
+        <v>-234200</v>
       </c>
       <c r="H27" s="3">
-        <v>61400</v>
+        <v>99000</v>
       </c>
       <c r="I27" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K27" s="3">
         <v>49900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>31300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>48600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>32300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>33100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>22700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>16400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>506700</v>
+        <v>242500</v>
       </c>
       <c r="E32" s="3">
-        <v>300200</v>
+        <v>161500</v>
       </c>
       <c r="F32" s="3">
-        <v>-148200</v>
+        <v>484400</v>
       </c>
       <c r="G32" s="3">
-        <v>9300</v>
+        <v>286900</v>
       </c>
       <c r="H32" s="3">
-        <v>10700</v>
+        <v>-141700</v>
       </c>
       <c r="I32" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K32" s="3">
         <v>12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>12600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>29500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>19600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>18200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>14800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>13400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>15400</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-14400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-10500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-155500</v>
+        <v>-91200</v>
       </c>
       <c r="E33" s="3">
-        <v>-245000</v>
+        <v>-58600</v>
       </c>
       <c r="F33" s="3">
-        <v>103600</v>
+        <v>-148700</v>
       </c>
       <c r="G33" s="3">
-        <v>31000</v>
+        <v>-234200</v>
       </c>
       <c r="H33" s="3">
-        <v>61400</v>
+        <v>99000</v>
       </c>
       <c r="I33" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K33" s="3">
         <v>49900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>31300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>48600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>32300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>33100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>22700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>16400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-155500</v>
+        <v>-91200</v>
       </c>
       <c r="E35" s="3">
-        <v>-245000</v>
+        <v>-58600</v>
       </c>
       <c r="F35" s="3">
-        <v>103600</v>
+        <v>-148700</v>
       </c>
       <c r="G35" s="3">
-        <v>31000</v>
+        <v>-234200</v>
       </c>
       <c r="H35" s="3">
-        <v>61400</v>
+        <v>99000</v>
       </c>
       <c r="I35" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K35" s="3">
         <v>49900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>31300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>48600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>32300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>33100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>22700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>16400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2746,64 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>879800</v>
+        <v>708500</v>
       </c>
       <c r="E41" s="3">
-        <v>595300</v>
+        <v>780100</v>
       </c>
       <c r="F41" s="3">
-        <v>1149300</v>
+        <v>841100</v>
       </c>
       <c r="G41" s="3">
-        <v>364700</v>
+        <v>569100</v>
       </c>
       <c r="H41" s="3">
-        <v>478900</v>
+        <v>1098700</v>
       </c>
       <c r="I41" s="3">
+        <v>348600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>457800</v>
+      </c>
+      <c r="K41" s="3">
         <v>429000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>543400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>299300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>178900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>45300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>16300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>53200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>32100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>33400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,62 +2813,68 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>390000</v>
+        <v>465500</v>
       </c>
       <c r="E42" s="3">
-        <v>439500</v>
+        <v>472200</v>
       </c>
       <c r="F42" s="3">
-        <v>978400</v>
+        <v>372900</v>
       </c>
       <c r="G42" s="3">
-        <v>1697500</v>
+        <v>420200</v>
       </c>
       <c r="H42" s="3">
-        <v>1590700</v>
+        <v>935400</v>
       </c>
       <c r="I42" s="3">
+        <v>1622800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1520700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1601800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>154300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>474300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>542500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>522600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>507400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>497800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>494300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>26300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>48800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2704,62 +2884,68 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3992900</v>
+        <v>3436600</v>
       </c>
       <c r="E43" s="3">
-        <v>3886900</v>
+        <v>3605900</v>
       </c>
       <c r="F43" s="3">
-        <v>3600800</v>
+        <v>3814300</v>
       </c>
       <c r="G43" s="3">
-        <v>3367100</v>
+        <v>3715900</v>
       </c>
       <c r="H43" s="3">
-        <v>3479400</v>
+        <v>3442400</v>
       </c>
       <c r="I43" s="3">
+        <v>3219000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3326300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3393000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2683200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2593100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2653500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2338800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2375200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1971100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1667400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1233300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1385400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +3026,68 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600500</v>
+        <v>616000</v>
       </c>
       <c r="E45" s="3">
-        <v>431100</v>
+        <v>551800</v>
       </c>
       <c r="F45" s="3">
-        <v>251200</v>
+        <v>574000</v>
       </c>
       <c r="G45" s="3">
-        <v>208800</v>
+        <v>412100</v>
       </c>
       <c r="H45" s="3">
-        <v>180100</v>
+        <v>240200</v>
       </c>
       <c r="I45" s="3">
+        <v>199600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K45" s="3">
         <v>123600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>82800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>51100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>4000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,62 +3097,68 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5863200</v>
+        <v>5226500</v>
       </c>
       <c r="E46" s="3">
-        <v>5352800</v>
+        <v>5410000</v>
       </c>
       <c r="F46" s="3">
-        <v>5979700</v>
+        <v>5602300</v>
       </c>
       <c r="G46" s="3">
-        <v>5638000</v>
+        <v>5117300</v>
       </c>
       <c r="H46" s="3">
-        <v>5729100</v>
+        <v>5716600</v>
       </c>
       <c r="I46" s="3">
+        <v>5390000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5477000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5547500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3463800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3417800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3399400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2934700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2921800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2492300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2218900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1300000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1471500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,62 +3168,68 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>268000</v>
+        <v>70400</v>
       </c>
       <c r="E47" s="3">
-        <v>423600</v>
+        <v>195100</v>
       </c>
       <c r="F47" s="3">
-        <v>701900</v>
+        <v>256200</v>
       </c>
       <c r="G47" s="3">
-        <v>82100</v>
+        <v>404900</v>
       </c>
       <c r="H47" s="3">
-        <v>86400</v>
+        <v>671000</v>
       </c>
       <c r="I47" s="3">
+        <v>78500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K47" s="3">
         <v>12600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3029,62 +3239,68 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>314400</v>
+      </c>
+      <c r="E48" s="3">
         <v>307200</v>
       </c>
-      <c r="E48" s="3">
-        <v>254700</v>
-      </c>
       <c r="F48" s="3">
-        <v>190200</v>
+        <v>293600</v>
       </c>
       <c r="G48" s="3">
-        <v>174600</v>
+        <v>243500</v>
       </c>
       <c r="H48" s="3">
-        <v>140400</v>
+        <v>181900</v>
       </c>
       <c r="I48" s="3">
+        <v>166900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K48" s="3">
         <v>126500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>117700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>117200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>101300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>88500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>70500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>62800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>47500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>46800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>57400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,62 +3310,68 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1638100</v>
+        <v>1606600</v>
       </c>
       <c r="E49" s="3">
-        <v>1608400</v>
+        <v>1580200</v>
       </c>
       <c r="F49" s="3">
-        <v>223100</v>
+        <v>1552400</v>
       </c>
       <c r="G49" s="3">
-        <v>207400</v>
+        <v>1537700</v>
       </c>
       <c r="H49" s="3">
-        <v>203500</v>
+        <v>213300</v>
       </c>
       <c r="I49" s="3">
+        <v>198200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>194600</v>
+      </c>
+      <c r="K49" s="3">
         <v>151500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>135900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>75200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>69000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>67800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>60700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>58500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>54900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>56800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>55900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,62 +3523,68 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>154100</v>
+        <v>174500</v>
       </c>
       <c r="E52" s="3">
-        <v>132000</v>
+        <v>151000</v>
       </c>
       <c r="F52" s="3">
-        <v>110300</v>
+        <v>175200</v>
       </c>
       <c r="G52" s="3">
-        <v>96100</v>
+        <v>126200</v>
       </c>
       <c r="H52" s="3">
-        <v>53900</v>
+        <v>105400</v>
       </c>
       <c r="I52" s="3">
+        <v>91900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K52" s="3">
         <v>50200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>49600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>43900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>46600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>51200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>51900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>48400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>46800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>54500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3665,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8230500</v>
+        <v>7392400</v>
       </c>
       <c r="E54" s="3">
-        <v>7771500</v>
+        <v>7643500</v>
       </c>
       <c r="F54" s="3">
-        <v>7205200</v>
+        <v>7877400</v>
       </c>
       <c r="G54" s="3">
-        <v>6198200</v>
+        <v>7429600</v>
       </c>
       <c r="H54" s="3">
-        <v>6213200</v>
+        <v>6888200</v>
       </c>
       <c r="I54" s="3">
+        <v>5925500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5939900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5888100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3769200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3669500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3621200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3143000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3109300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2667700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2371500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1452700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1643300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,62 +3794,64 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3150000</v>
+        <v>74000</v>
       </c>
       <c r="E57" s="3">
-        <v>2906700</v>
+        <v>2870700</v>
       </c>
       <c r="F57" s="3">
-        <v>2179600</v>
+        <v>3011400</v>
       </c>
       <c r="G57" s="3">
-        <v>1691800</v>
+        <v>2778800</v>
       </c>
       <c r="H57" s="3">
-        <v>1830400</v>
+        <v>2083700</v>
       </c>
       <c r="I57" s="3">
+        <v>1617400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1749800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1691700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1382700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1118700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1218600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1073100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1105200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1088800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>912300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>865300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>940200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3599,62 +3861,68 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>758100</v>
+        <v>635900</v>
       </c>
       <c r="E58" s="3">
-        <v>555900</v>
+        <v>830500</v>
       </c>
       <c r="F58" s="3">
-        <v>679700</v>
+        <v>724700</v>
       </c>
       <c r="G58" s="3">
-        <v>663800</v>
+        <v>531500</v>
       </c>
       <c r="H58" s="3">
-        <v>615400</v>
+        <v>649800</v>
       </c>
       <c r="I58" s="3">
+        <v>634600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K58" s="3">
         <v>570000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>739900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>839400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>930600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>512800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>398400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>246700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>138700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3900</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3664,62 +3932,68 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>552000</v>
+        <v>690800</v>
       </c>
       <c r="E59" s="3">
-        <v>410100</v>
+        <v>654500</v>
       </c>
       <c r="F59" s="3">
-        <v>212900</v>
+        <v>527700</v>
       </c>
       <c r="G59" s="3">
-        <v>173100</v>
+        <v>392000</v>
       </c>
       <c r="H59" s="3">
-        <v>172700</v>
+        <v>203600</v>
       </c>
       <c r="I59" s="3">
+        <v>165500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K59" s="3">
         <v>125200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>86200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>57700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>43600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>33500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>35700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>34700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>29100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>46900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>27900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3729,62 +4003,68 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4460000</v>
+        <v>1400700</v>
       </c>
       <c r="E60" s="3">
-        <v>3872700</v>
+        <v>4355700</v>
       </c>
       <c r="F60" s="3">
-        <v>3072300</v>
+        <v>4263800</v>
       </c>
       <c r="G60" s="3">
-        <v>2528700</v>
+        <v>3702300</v>
       </c>
       <c r="H60" s="3">
-        <v>2618500</v>
+        <v>2937100</v>
       </c>
       <c r="I60" s="3">
+        <v>2417500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2503300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2386800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2208700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2015800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2192900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1619400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1539300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1370300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1080200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>923000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>972100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,62 +4074,68 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>878500</v>
+        <v>635100</v>
       </c>
       <c r="E61" s="3">
-        <v>836000</v>
+        <v>588200</v>
       </c>
       <c r="F61" s="3">
-        <v>1055400</v>
+        <v>839800</v>
       </c>
       <c r="G61" s="3">
-        <v>566400</v>
+        <v>799200</v>
       </c>
       <c r="H61" s="3">
-        <v>575100</v>
+        <v>1009000</v>
       </c>
       <c r="I61" s="3">
+        <v>541400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>549800</v>
+      </c>
+      <c r="K61" s="3">
         <v>582500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>241400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>397800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>315400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>462600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>531100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>295800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>367400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>381000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>481100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3859,62 +4145,68 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>231600</v>
+        <v>2988800</v>
       </c>
       <c r="E62" s="3">
-        <v>221300</v>
+        <v>195800</v>
       </c>
       <c r="F62" s="3">
-        <v>112500</v>
+        <v>224300</v>
       </c>
       <c r="G62" s="3">
-        <v>90300</v>
+        <v>211500</v>
       </c>
       <c r="H62" s="3">
-        <v>85600</v>
+        <v>107600</v>
       </c>
       <c r="I62" s="3">
+        <v>86300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K62" s="3">
         <v>61100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>51000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>20200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>19700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>15400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>18300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>18800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4429,68 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5586200</v>
+        <v>5040700</v>
       </c>
       <c r="E66" s="3">
-        <v>4946700</v>
+        <v>5161000</v>
       </c>
       <c r="F66" s="3">
-        <v>4255900</v>
+        <v>5344800</v>
       </c>
       <c r="G66" s="3">
-        <v>3197400</v>
+        <v>4729100</v>
       </c>
       <c r="H66" s="3">
-        <v>3306400</v>
+        <v>4068700</v>
       </c>
       <c r="I66" s="3">
+        <v>3056800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3160900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3048700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2519400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2442000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2518100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2102100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2090000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1681600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1462900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1325800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1476000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4184,8 +4500,14 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4811,68 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2859800</v>
+        <v>2440300</v>
       </c>
       <c r="E72" s="3">
-        <v>3009100</v>
+        <v>2550800</v>
       </c>
       <c r="F72" s="3">
-        <v>3245500</v>
+        <v>2738500</v>
       </c>
       <c r="G72" s="3">
-        <v>3018300</v>
+        <v>2876700</v>
       </c>
       <c r="H72" s="3">
-        <v>2922700</v>
+        <v>3102700</v>
       </c>
       <c r="I72" s="3">
+        <v>2885500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2794100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2861600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1274000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1250900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1116500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1055200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1034600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>998300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>918700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>132900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>175600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +4882,14 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +5095,68 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2644300</v>
+        <v>2351700</v>
       </c>
       <c r="E76" s="3">
-        <v>2824800</v>
+        <v>2482500</v>
       </c>
       <c r="F76" s="3">
-        <v>2949300</v>
+        <v>2532500</v>
       </c>
       <c r="G76" s="3">
-        <v>3000800</v>
+        <v>2700500</v>
       </c>
       <c r="H76" s="3">
-        <v>2906800</v>
+        <v>2819500</v>
       </c>
       <c r="I76" s="3">
+        <v>2868800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2778900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2839400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1249900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1227500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1103100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1040900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1019300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>986200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>908600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>126900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>167300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4794,8 +5166,14 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-155500</v>
+        <v>-91200</v>
       </c>
       <c r="E81" s="3">
-        <v>-245000</v>
+        <v>-58600</v>
       </c>
       <c r="F81" s="3">
-        <v>103600</v>
+        <v>-148700</v>
       </c>
       <c r="G81" s="3">
-        <v>31000</v>
+        <v>-234200</v>
       </c>
       <c r="H81" s="3">
-        <v>61400</v>
+        <v>99000</v>
       </c>
       <c r="I81" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K81" s="3">
         <v>49900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>31300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>48600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>32300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>33100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>22700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>16400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21800</v>
+        <v>36800</v>
       </c>
       <c r="E83" s="3">
-        <v>41900</v>
+        <v>34600</v>
       </c>
       <c r="F83" s="3">
-        <v>19100</v>
+        <v>20900</v>
       </c>
       <c r="G83" s="3">
-        <v>16500</v>
+        <v>40000</v>
       </c>
       <c r="H83" s="3">
-        <v>14000</v>
+        <v>18200</v>
       </c>
       <c r="I83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K83" s="3">
         <v>12000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>6400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>4000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>4400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>116400</v>
+        <v>133700</v>
       </c>
       <c r="E89" s="3">
-        <v>348100</v>
+        <v>148800</v>
       </c>
       <c r="F89" s="3">
-        <v>258800</v>
+        <v>111300</v>
       </c>
       <c r="G89" s="3">
-        <v>-17400</v>
+        <v>332800</v>
       </c>
       <c r="H89" s="3">
-        <v>47500</v>
+        <v>247400</v>
       </c>
       <c r="I89" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-326800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>219400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>71400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-122500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>35100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-353300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-55200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-379200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>15400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-32200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-54900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-130100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-211700</v>
+        <v>-31600</v>
       </c>
       <c r="E91" s="3">
-        <v>102400</v>
+        <v>-25600</v>
       </c>
       <c r="F91" s="3">
-        <v>-37200</v>
+        <v>-202400</v>
       </c>
       <c r="G91" s="3">
-        <v>-65400</v>
+        <v>97900</v>
       </c>
       <c r="H91" s="3">
-        <v>-7300</v>
+        <v>-35600</v>
       </c>
       <c r="I91" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-30100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-36400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-12800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-13600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49600</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>-579600</v>
+        <v>-140500</v>
       </c>
       <c r="F94" s="3">
-        <v>169000</v>
+        <v>-47500</v>
       </c>
       <c r="G94" s="3">
-        <v>-122500</v>
+        <v>-554100</v>
       </c>
       <c r="H94" s="3">
-        <v>-23900</v>
+        <v>161600</v>
       </c>
       <c r="I94" s="3">
+        <v>-117100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1492000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>282300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>97400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-55100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-19600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-470400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>4300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-11000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-17900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>26700</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>218300</v>
+        <v>-207900</v>
       </c>
       <c r="E100" s="3">
-        <v>-319600</v>
+        <v>-66600</v>
       </c>
       <c r="F100" s="3">
-        <v>349000</v>
+        <v>208700</v>
       </c>
       <c r="G100" s="3">
-        <v>30100</v>
+        <v>-305500</v>
       </c>
       <c r="H100" s="3">
-        <v>22700</v>
+        <v>333600</v>
       </c>
       <c r="I100" s="3">
+        <v>28800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1704200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-255100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>279100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>35200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>387000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>870200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>229100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>4500</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>7800</v>
+        <v>-500</v>
       </c>
       <c r="G101" s="3">
-        <v>-4400</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
-        <v>3600</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>284500</v>
+        <v>-71600</v>
       </c>
       <c r="E102" s="3">
-        <v>-554000</v>
+        <v>-61000</v>
       </c>
       <c r="F102" s="3">
-        <v>784600</v>
+        <v>272000</v>
       </c>
       <c r="G102" s="3">
-        <v>-114200</v>
+        <v>-529600</v>
       </c>
       <c r="H102" s="3">
-        <v>49800</v>
+        <v>750100</v>
       </c>
       <c r="I102" s="3">
+        <v>-109200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-114400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>246200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>108400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>133600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>15600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-39500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>22200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-42600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-74000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>125900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>431100</v>
+        <v>485700</v>
       </c>
       <c r="E8" s="3">
-        <v>387300</v>
+        <v>446100</v>
       </c>
       <c r="F8" s="3">
-        <v>594800</v>
+        <v>400900</v>
       </c>
       <c r="G8" s="3">
-        <v>274900</v>
+        <v>615600</v>
       </c>
       <c r="H8" s="3">
-        <v>114800</v>
+        <v>284600</v>
       </c>
       <c r="I8" s="3">
-        <v>162300</v>
+        <v>118800</v>
       </c>
       <c r="J8" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K8" s="3">
         <v>185000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>182800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>130600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>141300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>124000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>76600</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3">
         <v>18900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>117200</v>
+        <v>130000</v>
       </c>
       <c r="E9" s="3">
-        <v>126200</v>
+        <v>121200</v>
       </c>
       <c r="F9" s="3">
-        <v>120900</v>
+        <v>130600</v>
       </c>
       <c r="G9" s="3">
-        <v>98300</v>
+        <v>125100</v>
       </c>
       <c r="H9" s="3">
-        <v>56600</v>
+        <v>101800</v>
       </c>
       <c r="I9" s="3">
-        <v>44800</v>
+        <v>58600</v>
       </c>
       <c r="J9" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K9" s="3">
         <v>39900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>23700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>20800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>313900</v>
+        <v>355700</v>
       </c>
       <c r="E10" s="3">
-        <v>261200</v>
+        <v>324900</v>
       </c>
       <c r="F10" s="3">
-        <v>473900</v>
+        <v>270300</v>
       </c>
       <c r="G10" s="3">
-        <v>176600</v>
+        <v>490500</v>
       </c>
       <c r="H10" s="3">
-        <v>58200</v>
+        <v>182800</v>
       </c>
       <c r="I10" s="3">
-        <v>117500</v>
+        <v>60200</v>
       </c>
       <c r="J10" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K10" s="3">
         <v>145100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>91700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>111700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>120900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>103200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>91100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>84300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61700</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>5200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,20 +1178,20 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
-        <v>11900</v>
-      </c>
       <c r="H14" s="3">
+        <v>12300</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1182,8 +1202,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1218,56 +1238,59 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14900</v>
+        <v>12800</v>
       </c>
       <c r="E15" s="3">
-        <v>11500</v>
+        <v>15400</v>
       </c>
       <c r="F15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="G15" s="3">
-        <v>25400</v>
-      </c>
       <c r="H15" s="3">
-        <v>6500</v>
+        <v>26300</v>
       </c>
       <c r="I15" s="3">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="J15" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K15" s="3">
         <v>4700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1277,8 +1300,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>244000</v>
+        <v>277300</v>
       </c>
       <c r="E17" s="3">
-        <v>248500</v>
+        <v>252600</v>
       </c>
       <c r="F17" s="3">
-        <v>230100</v>
+        <v>257200</v>
       </c>
       <c r="G17" s="3">
-        <v>228800</v>
+        <v>238100</v>
       </c>
       <c r="H17" s="3">
-        <v>133100</v>
+        <v>236800</v>
       </c>
       <c r="I17" s="3">
-        <v>105100</v>
+        <v>137800</v>
       </c>
       <c r="J17" s="3">
+        <v>108700</v>
+      </c>
+      <c r="K17" s="3">
         <v>105800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>57700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>54800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>55900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>37000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>36000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>28600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>187000</v>
+        <v>208400</v>
       </c>
       <c r="E18" s="3">
-        <v>138800</v>
+        <v>193600</v>
       </c>
       <c r="F18" s="3">
-        <v>364700</v>
+        <v>143700</v>
       </c>
       <c r="G18" s="3">
-        <v>46200</v>
+        <v>377500</v>
       </c>
       <c r="H18" s="3">
-        <v>-18400</v>
+        <v>47800</v>
       </c>
       <c r="I18" s="3">
-        <v>57300</v>
+        <v>-19000</v>
       </c>
       <c r="J18" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K18" s="3">
         <v>79200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>85600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>69100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>54100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>58300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-17000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,133 +1515,137 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-242500</v>
+        <v>-130900</v>
       </c>
       <c r="E20" s="3">
-        <v>-161500</v>
+        <v>-251000</v>
       </c>
       <c r="F20" s="3">
-        <v>-484400</v>
+        <v>-167200</v>
       </c>
       <c r="G20" s="3">
-        <v>-286900</v>
+        <v>-501300</v>
       </c>
       <c r="H20" s="3">
-        <v>141700</v>
+        <v>-297000</v>
       </c>
       <c r="I20" s="3">
-        <v>-8900</v>
+        <v>146700</v>
       </c>
       <c r="J20" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15400</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>14400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>10500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18600</v>
+        <v>117000</v>
       </c>
       <c r="E21" s="3">
-        <v>11900</v>
+        <v>-19300</v>
       </c>
       <c r="F21" s="3">
-        <v>-98800</v>
+        <v>12300</v>
       </c>
       <c r="G21" s="3">
-        <v>-200700</v>
+        <v>-102200</v>
       </c>
       <c r="H21" s="3">
-        <v>141600</v>
+        <v>-207700</v>
       </c>
       <c r="I21" s="3">
-        <v>64200</v>
+        <v>146500</v>
       </c>
       <c r="J21" s="3">
+        <v>66400</v>
+      </c>
+      <c r="K21" s="3">
         <v>82300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>43600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>56800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>77600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>59000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>51400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,37 +1655,40 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>6900</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35000</v>
+        <v>29800</v>
       </c>
       <c r="E22" s="3">
-        <v>31500</v>
+        <v>36200</v>
       </c>
       <c r="F22" s="3">
-        <v>31900</v>
+        <v>32700</v>
       </c>
       <c r="G22" s="3">
-        <v>26400</v>
+        <v>33100</v>
       </c>
       <c r="H22" s="3">
-        <v>14300</v>
+        <v>27300</v>
       </c>
       <c r="I22" s="3">
-        <v>9100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+        <v>14800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9400</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1659,18 +1699,18 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-90400</v>
+        <v>47700</v>
       </c>
       <c r="E23" s="3">
-        <v>-54200</v>
+        <v>-93600</v>
       </c>
       <c r="F23" s="3">
-        <v>-151600</v>
+        <v>-56100</v>
       </c>
       <c r="G23" s="3">
-        <v>-267100</v>
+        <v>-156900</v>
       </c>
       <c r="H23" s="3">
-        <v>109000</v>
+        <v>-276500</v>
       </c>
       <c r="I23" s="3">
-        <v>39300</v>
+        <v>112800</v>
       </c>
       <c r="J23" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K23" s="3">
         <v>68900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>19900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
-        <v>4300</v>
-      </c>
       <c r="F24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-31400</v>
-      </c>
       <c r="H24" s="3">
-        <v>10600</v>
+        <v>-32400</v>
       </c>
       <c r="I24" s="3">
-        <v>9700</v>
+        <v>11000</v>
       </c>
       <c r="J24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K24" s="3">
         <v>11700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>5200</v>
       </c>
       <c r="U24" s="3">
         <v>5200</v>
       </c>
       <c r="V24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-91500</v>
+        <v>38200</v>
       </c>
       <c r="E26" s="3">
-        <v>-58600</v>
+        <v>-94700</v>
       </c>
       <c r="F26" s="3">
-        <v>-149900</v>
+        <v>-60600</v>
       </c>
       <c r="G26" s="3">
-        <v>-235800</v>
+        <v>-155200</v>
       </c>
       <c r="H26" s="3">
-        <v>98400</v>
+        <v>-244000</v>
       </c>
       <c r="I26" s="3">
-        <v>29600</v>
+        <v>101900</v>
       </c>
       <c r="J26" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K26" s="3">
         <v>57300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>33100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16700</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91200</v>
+        <v>39200</v>
       </c>
       <c r="E27" s="3">
-        <v>-58600</v>
+        <v>-94400</v>
       </c>
       <c r="F27" s="3">
-        <v>-148700</v>
+        <v>-60600</v>
       </c>
       <c r="G27" s="3">
-        <v>-234200</v>
+        <v>-153900</v>
       </c>
       <c r="H27" s="3">
-        <v>99000</v>
+        <v>-242400</v>
       </c>
       <c r="I27" s="3">
-        <v>29600</v>
+        <v>102500</v>
       </c>
       <c r="J27" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K27" s="3">
         <v>58700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>49900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>33100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>-3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>242500</v>
+        <v>130900</v>
       </c>
       <c r="E32" s="3">
-        <v>161500</v>
+        <v>251000</v>
       </c>
       <c r="F32" s="3">
-        <v>484400</v>
+        <v>167200</v>
       </c>
       <c r="G32" s="3">
-        <v>286900</v>
+        <v>501300</v>
       </c>
       <c r="H32" s="3">
-        <v>-141700</v>
+        <v>297000</v>
       </c>
       <c r="I32" s="3">
-        <v>8900</v>
+        <v>-146700</v>
       </c>
       <c r="J32" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K32" s="3">
         <v>10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15400</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-14400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-91200</v>
+        <v>39200</v>
       </c>
       <c r="E33" s="3">
-        <v>-58600</v>
+        <v>-94400</v>
       </c>
       <c r="F33" s="3">
-        <v>-148700</v>
+        <v>-60600</v>
       </c>
       <c r="G33" s="3">
-        <v>-234200</v>
+        <v>-153900</v>
       </c>
       <c r="H33" s="3">
-        <v>99000</v>
+        <v>-242400</v>
       </c>
       <c r="I33" s="3">
-        <v>29600</v>
+        <v>102500</v>
       </c>
       <c r="J33" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K33" s="3">
         <v>58700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>49900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>48600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>32300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>-3900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-91200</v>
+        <v>39200</v>
       </c>
       <c r="E35" s="3">
-        <v>-58600</v>
+        <v>-94400</v>
       </c>
       <c r="F35" s="3">
-        <v>-148700</v>
+        <v>-60600</v>
       </c>
       <c r="G35" s="3">
-        <v>-234200</v>
+        <v>-153900</v>
       </c>
       <c r="H35" s="3">
-        <v>99000</v>
+        <v>-242400</v>
       </c>
       <c r="I35" s="3">
-        <v>29600</v>
+        <v>102500</v>
       </c>
       <c r="J35" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K35" s="3">
         <v>58700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>49900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>48600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>32300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>-3900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,65 +2834,66 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>708500</v>
+        <v>453700</v>
       </c>
       <c r="E41" s="3">
-        <v>780100</v>
+        <v>733200</v>
       </c>
       <c r="F41" s="3">
-        <v>841100</v>
+        <v>807400</v>
       </c>
       <c r="G41" s="3">
-        <v>569100</v>
+        <v>870500</v>
       </c>
       <c r="H41" s="3">
-        <v>1098700</v>
+        <v>589000</v>
       </c>
       <c r="I41" s="3">
-        <v>348600</v>
+        <v>1137100</v>
       </c>
       <c r="J41" s="3">
+        <v>360800</v>
+      </c>
+      <c r="K41" s="3">
         <v>457800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>429000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>543400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>299300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>178900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>33400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2819,65 +2906,68 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>465500</v>
+        <v>525900</v>
       </c>
       <c r="E42" s="3">
-        <v>472200</v>
+        <v>481800</v>
       </c>
       <c r="F42" s="3">
-        <v>372900</v>
+        <v>488700</v>
       </c>
       <c r="G42" s="3">
-        <v>420200</v>
+        <v>385900</v>
       </c>
       <c r="H42" s="3">
-        <v>935400</v>
+        <v>434900</v>
       </c>
       <c r="I42" s="3">
-        <v>1622800</v>
+        <v>968100</v>
       </c>
       <c r="J42" s="3">
+        <v>1679500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1520700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1601800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>154300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>474300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>542500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>522600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>507400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>497800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>494300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>48800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2890,65 +2980,68 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3436600</v>
+        <v>3767200</v>
       </c>
       <c r="E43" s="3">
-        <v>3605900</v>
+        <v>3556700</v>
       </c>
       <c r="F43" s="3">
-        <v>3814300</v>
+        <v>3731900</v>
       </c>
       <c r="G43" s="3">
-        <v>3715900</v>
+        <v>3947600</v>
       </c>
       <c r="H43" s="3">
-        <v>3442400</v>
+        <v>3845800</v>
       </c>
       <c r="I43" s="3">
-        <v>3219000</v>
+        <v>3562700</v>
       </c>
       <c r="J43" s="3">
+        <v>3331500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3326300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3393000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2683200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2593100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2653500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2338800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2375200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1971100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1667400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1233300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1385400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,65 +3128,68 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>616000</v>
+        <v>674800</v>
       </c>
       <c r="E45" s="3">
-        <v>551800</v>
+        <v>637500</v>
       </c>
       <c r="F45" s="3">
-        <v>574000</v>
+        <v>571100</v>
       </c>
       <c r="G45" s="3">
-        <v>412100</v>
+        <v>594100</v>
       </c>
       <c r="H45" s="3">
-        <v>240200</v>
+        <v>426500</v>
       </c>
       <c r="I45" s="3">
-        <v>199600</v>
+        <v>248600</v>
       </c>
       <c r="J45" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K45" s="3">
         <v>172200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>123600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>82800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>51100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3103,65 +3202,68 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5226500</v>
+        <v>5421600</v>
       </c>
       <c r="E46" s="3">
-        <v>5410000</v>
+        <v>5409200</v>
       </c>
       <c r="F46" s="3">
-        <v>5602300</v>
+        <v>5599100</v>
       </c>
       <c r="G46" s="3">
-        <v>5117300</v>
+        <v>5798100</v>
       </c>
       <c r="H46" s="3">
-        <v>5716600</v>
+        <v>5296200</v>
       </c>
       <c r="I46" s="3">
-        <v>5390000</v>
+        <v>5916500</v>
       </c>
       <c r="J46" s="3">
+        <v>5578400</v>
+      </c>
+      <c r="K46" s="3">
         <v>5477000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5547500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3463800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3417800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3399400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2934700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2921800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2492300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2218900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1471500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3174,65 +3276,68 @@
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70400</v>
+        <v>95500</v>
       </c>
       <c r="E47" s="3">
-        <v>195100</v>
+        <v>72900</v>
       </c>
       <c r="F47" s="3">
-        <v>256200</v>
+        <v>201900</v>
       </c>
       <c r="G47" s="3">
-        <v>404900</v>
+        <v>265100</v>
       </c>
       <c r="H47" s="3">
-        <v>671000</v>
+        <v>419100</v>
       </c>
       <c r="I47" s="3">
-        <v>78500</v>
+        <v>694500</v>
       </c>
       <c r="J47" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K47" s="3">
         <v>82600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3245,65 +3350,68 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>314400</v>
+        <v>318100</v>
       </c>
       <c r="E48" s="3">
-        <v>307200</v>
+        <v>325400</v>
       </c>
       <c r="F48" s="3">
-        <v>293600</v>
+        <v>317900</v>
       </c>
       <c r="G48" s="3">
-        <v>243500</v>
+        <v>303900</v>
       </c>
       <c r="H48" s="3">
-        <v>181900</v>
+        <v>252000</v>
       </c>
       <c r="I48" s="3">
-        <v>166900</v>
+        <v>188200</v>
       </c>
       <c r="J48" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K48" s="3">
         <v>134200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>117700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>117200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>101300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>88500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>70500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>62800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>57400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3316,65 +3424,68 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1606600</v>
+        <v>1665000</v>
       </c>
       <c r="E49" s="3">
-        <v>1580200</v>
+        <v>1662800</v>
       </c>
       <c r="F49" s="3">
-        <v>1552400</v>
+        <v>1635500</v>
       </c>
       <c r="G49" s="3">
-        <v>1537700</v>
+        <v>1605200</v>
       </c>
       <c r="H49" s="3">
-        <v>213300</v>
+        <v>1591400</v>
       </c>
       <c r="I49" s="3">
-        <v>198200</v>
+        <v>220700</v>
       </c>
       <c r="J49" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K49" s="3">
         <v>194600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>151500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>135900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>69000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>67800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>58500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>54900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>56800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>55900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,65 +3646,68 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>174500</v>
+        <v>192600</v>
       </c>
       <c r="E52" s="3">
-        <v>151000</v>
+        <v>180500</v>
       </c>
       <c r="F52" s="3">
-        <v>175200</v>
+        <v>156200</v>
       </c>
       <c r="G52" s="3">
-        <v>126200</v>
+        <v>181300</v>
       </c>
       <c r="H52" s="3">
-        <v>105400</v>
+        <v>130600</v>
       </c>
       <c r="I52" s="3">
-        <v>91900</v>
+        <v>109100</v>
       </c>
       <c r="J52" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K52" s="3">
         <v>51500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>50200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>46600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>51900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>48400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>46800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,65 +3794,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7392400</v>
+        <v>7692800</v>
       </c>
       <c r="E54" s="3">
-        <v>7643500</v>
+        <v>7650800</v>
       </c>
       <c r="F54" s="3">
-        <v>7877400</v>
+        <v>7910700</v>
       </c>
       <c r="G54" s="3">
-        <v>7429600</v>
+        <v>8151200</v>
       </c>
       <c r="H54" s="3">
-        <v>6888200</v>
+        <v>7689300</v>
       </c>
       <c r="I54" s="3">
-        <v>5925500</v>
+        <v>7129000</v>
       </c>
       <c r="J54" s="3">
+        <v>6132700</v>
+      </c>
+      <c r="K54" s="3">
         <v>5939900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5888100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3769200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3669500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3621200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3143000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3109300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2667700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2371500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1452700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1643300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,65 +3926,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74000</v>
+        <v>2947000</v>
       </c>
       <c r="E57" s="3">
-        <v>2870700</v>
+        <v>76600</v>
       </c>
       <c r="F57" s="3">
-        <v>3011400</v>
+        <v>2971100</v>
       </c>
       <c r="G57" s="3">
-        <v>2778800</v>
+        <v>3116600</v>
       </c>
       <c r="H57" s="3">
-        <v>2083700</v>
+        <v>2876000</v>
       </c>
       <c r="I57" s="3">
-        <v>1617400</v>
+        <v>2156500</v>
       </c>
       <c r="J57" s="3">
+        <v>1673900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1749800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1691700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1382700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1118700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1218600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1073100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1105200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1088800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>912300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>865300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>940200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3867,65 +3998,68 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>635900</v>
+        <v>484200</v>
       </c>
       <c r="E58" s="3">
-        <v>830500</v>
+        <v>658100</v>
       </c>
       <c r="F58" s="3">
-        <v>724700</v>
+        <v>859500</v>
       </c>
       <c r="G58" s="3">
-        <v>531500</v>
+        <v>750000</v>
       </c>
       <c r="H58" s="3">
-        <v>649800</v>
+        <v>550100</v>
       </c>
       <c r="I58" s="3">
-        <v>634600</v>
+        <v>672500</v>
       </c>
       <c r="J58" s="3">
+        <v>656700</v>
+      </c>
+      <c r="K58" s="3">
         <v>588400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>570000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>739900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>839400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>930600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>512800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>398400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>246700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>138700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,65 +4072,68 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>690800</v>
+        <v>842200</v>
       </c>
       <c r="E59" s="3">
-        <v>654500</v>
+        <v>715000</v>
       </c>
       <c r="F59" s="3">
-        <v>527700</v>
+        <v>677400</v>
       </c>
       <c r="G59" s="3">
-        <v>392000</v>
+        <v>546100</v>
       </c>
       <c r="H59" s="3">
-        <v>203600</v>
+        <v>405800</v>
       </c>
       <c r="I59" s="3">
-        <v>165500</v>
+        <v>210700</v>
       </c>
       <c r="J59" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K59" s="3">
         <v>165100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4009,65 +4146,68 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400700</v>
+        <v>4273500</v>
       </c>
       <c r="E60" s="3">
-        <v>4355700</v>
+        <v>1449700</v>
       </c>
       <c r="F60" s="3">
-        <v>4263800</v>
+        <v>4507900</v>
       </c>
       <c r="G60" s="3">
-        <v>3702300</v>
+        <v>4412800</v>
       </c>
       <c r="H60" s="3">
-        <v>2937100</v>
+        <v>3831800</v>
       </c>
       <c r="I60" s="3">
-        <v>2417500</v>
+        <v>3039800</v>
       </c>
       <c r="J60" s="3">
+        <v>2502000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2503300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2386800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2208700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2015800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2192900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1619400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1539300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1370300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1080200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>923000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>972100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4080,65 +4220,68 @@
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>635100</v>
+        <v>668600</v>
       </c>
       <c r="E61" s="3">
-        <v>588200</v>
+        <v>657300</v>
       </c>
       <c r="F61" s="3">
-        <v>839800</v>
+        <v>608800</v>
       </c>
       <c r="G61" s="3">
-        <v>799200</v>
+        <v>869200</v>
       </c>
       <c r="H61" s="3">
-        <v>1009000</v>
+        <v>827100</v>
       </c>
       <c r="I61" s="3">
-        <v>541400</v>
+        <v>1044200</v>
       </c>
       <c r="J61" s="3">
+        <v>560400</v>
+      </c>
+      <c r="K61" s="3">
         <v>549800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>582500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>241400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>397800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>315400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>462600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>531100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>295800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>367400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>381000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>481100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,65 +4294,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2988800</v>
+        <v>279600</v>
       </c>
       <c r="E62" s="3">
-        <v>195800</v>
+        <v>3093300</v>
       </c>
       <c r="F62" s="3">
-        <v>224300</v>
+        <v>202700</v>
       </c>
       <c r="G62" s="3">
-        <v>211500</v>
+        <v>230600</v>
       </c>
       <c r="H62" s="3">
-        <v>107600</v>
+        <v>218900</v>
       </c>
       <c r="I62" s="3">
-        <v>86300</v>
+        <v>111300</v>
       </c>
       <c r="J62" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K62" s="3">
         <v>81800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,65 +4590,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5040700</v>
+        <v>5237000</v>
       </c>
       <c r="E66" s="3">
-        <v>5161000</v>
+        <v>5216900</v>
       </c>
       <c r="F66" s="3">
-        <v>5344800</v>
+        <v>5341400</v>
       </c>
       <c r="G66" s="3">
-        <v>4729100</v>
+        <v>5530200</v>
       </c>
       <c r="H66" s="3">
-        <v>4068700</v>
+        <v>4894400</v>
       </c>
       <c r="I66" s="3">
-        <v>3056800</v>
+        <v>4210900</v>
       </c>
       <c r="J66" s="3">
+        <v>3163600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3160900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3048700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2519400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2442000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2518100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2102100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2090000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1681600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1462900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1325800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1476000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,65 +4988,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2440300</v>
+        <v>2547600</v>
       </c>
       <c r="E72" s="3">
-        <v>2550800</v>
+        <v>2525600</v>
       </c>
       <c r="F72" s="3">
-        <v>2738500</v>
+        <v>2639900</v>
       </c>
       <c r="G72" s="3">
-        <v>2876700</v>
+        <v>2834200</v>
       </c>
       <c r="H72" s="3">
-        <v>3102700</v>
+        <v>2977300</v>
       </c>
       <c r="I72" s="3">
-        <v>2885500</v>
+        <v>3211200</v>
       </c>
       <c r="J72" s="3">
+        <v>2986400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2794100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2861600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1274000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1250900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1116500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1055200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1034600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>998300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>918700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>132900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>175600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,65 +5284,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2351700</v>
+        <v>2455800</v>
       </c>
       <c r="E76" s="3">
-        <v>2482500</v>
+        <v>2433900</v>
       </c>
       <c r="F76" s="3">
-        <v>2532500</v>
+        <v>2569200</v>
       </c>
       <c r="G76" s="3">
-        <v>2700500</v>
+        <v>2621100</v>
       </c>
       <c r="H76" s="3">
-        <v>2819500</v>
+        <v>2794900</v>
       </c>
       <c r="I76" s="3">
-        <v>2868800</v>
+        <v>2918100</v>
       </c>
       <c r="J76" s="3">
+        <v>2969000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2778900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2839400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1249900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1227500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1103100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1040900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1019300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>986200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>908600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>126900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>167300</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-91200</v>
+        <v>39200</v>
       </c>
       <c r="E81" s="3">
-        <v>-58600</v>
+        <v>-94400</v>
       </c>
       <c r="F81" s="3">
-        <v>-148700</v>
+        <v>-60600</v>
       </c>
       <c r="G81" s="3">
-        <v>-234200</v>
+        <v>-153900</v>
       </c>
       <c r="H81" s="3">
-        <v>99000</v>
+        <v>-242400</v>
       </c>
       <c r="I81" s="3">
-        <v>29600</v>
+        <v>102500</v>
       </c>
       <c r="J81" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K81" s="3">
         <v>58700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>49900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>48600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>32300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>-3900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>36800</v>
+        <v>39500</v>
       </c>
       <c r="E83" s="3">
-        <v>34600</v>
+        <v>38100</v>
       </c>
       <c r="F83" s="3">
-        <v>20900</v>
+        <v>35800</v>
       </c>
       <c r="G83" s="3">
-        <v>40000</v>
+        <v>21600</v>
       </c>
       <c r="H83" s="3">
-        <v>18200</v>
+        <v>41400</v>
       </c>
       <c r="I83" s="3">
-        <v>15800</v>
+        <v>18900</v>
       </c>
       <c r="J83" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4400</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>133700</v>
+        <v>-32700</v>
       </c>
       <c r="E89" s="3">
-        <v>148800</v>
+        <v>138400</v>
       </c>
       <c r="F89" s="3">
-        <v>111300</v>
+        <v>154000</v>
       </c>
       <c r="G89" s="3">
-        <v>332800</v>
+        <v>115200</v>
       </c>
       <c r="H89" s="3">
-        <v>247400</v>
+        <v>344400</v>
       </c>
       <c r="I89" s="3">
-        <v>-16700</v>
+        <v>256000</v>
       </c>
       <c r="J89" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K89" s="3">
         <v>45400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-326800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>219400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>71400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-122500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-353300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-55200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-379200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-32200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-54900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-130100</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31600</v>
+        <v>-9100</v>
       </c>
       <c r="E91" s="3">
-        <v>-25600</v>
+        <v>-32700</v>
       </c>
       <c r="F91" s="3">
-        <v>-202400</v>
+        <v>-26500</v>
       </c>
       <c r="G91" s="3">
-        <v>97900</v>
+        <v>-209400</v>
       </c>
       <c r="H91" s="3">
-        <v>-35600</v>
+        <v>101300</v>
       </c>
       <c r="I91" s="3">
-        <v>-62600</v>
+        <v>-36800</v>
       </c>
       <c r="J91" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-17800</v>
       </c>
       <c r="M91" s="3">
         <v>-17800</v>
       </c>
       <c r="N91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>-53600</v>
       </c>
       <c r="E94" s="3">
-        <v>-140500</v>
+        <v>-2000</v>
       </c>
       <c r="F94" s="3">
-        <v>-47500</v>
+        <v>-145400</v>
       </c>
       <c r="G94" s="3">
-        <v>-554100</v>
+        <v>-49100</v>
       </c>
       <c r="H94" s="3">
-        <v>161600</v>
+        <v>-573400</v>
       </c>
       <c r="I94" s="3">
-        <v>-117100</v>
+        <v>167200</v>
       </c>
       <c r="J94" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-22900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1492000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>282300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>97400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-470400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>26700</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-207900</v>
+        <v>-192100</v>
       </c>
       <c r="E100" s="3">
-        <v>-66600</v>
+        <v>-215100</v>
       </c>
       <c r="F100" s="3">
-        <v>208700</v>
+        <v>-68900</v>
       </c>
       <c r="G100" s="3">
-        <v>-305500</v>
+        <v>216000</v>
       </c>
       <c r="H100" s="3">
-        <v>333600</v>
+        <v>-316200</v>
       </c>
       <c r="I100" s="3">
-        <v>28800</v>
+        <v>345300</v>
       </c>
       <c r="J100" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K100" s="3">
         <v>21700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1704200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-255100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>279100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>35200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>387000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>870200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>229100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4500</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2600</v>
+        <v>4700</v>
       </c>
       <c r="F101" s="3">
-        <v>-500</v>
+        <v>-2700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2800</v>
+        <v>-600</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-4200</v>
+        <v>7700</v>
       </c>
       <c r="J101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
       </c>
       <c r="M101" s="3">
         <v>-500</v>
       </c>
       <c r="N101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71600</v>
+        <v>-279500</v>
       </c>
       <c r="E102" s="3">
-        <v>-61000</v>
+        <v>-74100</v>
       </c>
       <c r="F102" s="3">
-        <v>272000</v>
+        <v>-63100</v>
       </c>
       <c r="G102" s="3">
-        <v>-529600</v>
+        <v>281500</v>
       </c>
       <c r="H102" s="3">
-        <v>750100</v>
+        <v>-548100</v>
       </c>
       <c r="I102" s="3">
-        <v>-109200</v>
+        <v>776300</v>
       </c>
       <c r="J102" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="K102" s="3">
         <v>47600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-114400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>246200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>108400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>133600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-42600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-74000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>125900</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,359 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>485700</v>
+        <v>546100</v>
       </c>
       <c r="E8" s="3">
-        <v>446100</v>
+        <v>610800</v>
       </c>
       <c r="F8" s="3">
-        <v>400900</v>
+        <v>505200</v>
       </c>
       <c r="G8" s="3">
-        <v>615600</v>
+        <v>464000</v>
       </c>
       <c r="H8" s="3">
-        <v>284600</v>
+        <v>417000</v>
       </c>
       <c r="I8" s="3">
+        <v>640300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>296000</v>
+      </c>
+      <c r="K8" s="3">
         <v>118800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>168000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>185000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>182800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>130600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>141300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>144600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>124000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>110000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>94400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>76600</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3">
         <v>18900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>18400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>130000</v>
+        <v>145300</v>
       </c>
       <c r="E9" s="3">
-        <v>121200</v>
+        <v>140600</v>
       </c>
       <c r="F9" s="3">
-        <v>130600</v>
+        <v>135200</v>
       </c>
       <c r="G9" s="3">
-        <v>125100</v>
+        <v>126100</v>
       </c>
       <c r="H9" s="3">
-        <v>101800</v>
+        <v>135800</v>
       </c>
       <c r="I9" s="3">
+        <v>130100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K9" s="3">
         <v>58600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>46400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>40700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>38900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>29500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>23700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>20800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>18900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>16000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>18100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>14900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>16400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>16500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>18800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>13800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>12900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>355700</v>
+        <v>400900</v>
       </c>
       <c r="E10" s="3">
-        <v>324900</v>
+        <v>470200</v>
       </c>
       <c r="F10" s="3">
-        <v>270300</v>
+        <v>370000</v>
       </c>
       <c r="G10" s="3">
-        <v>490500</v>
+        <v>337900</v>
       </c>
       <c r="H10" s="3">
-        <v>182800</v>
+        <v>281100</v>
       </c>
       <c r="I10" s="3">
+        <v>510200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K10" s="3">
         <v>60200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>121600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>145100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>142100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>91700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>111700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>120900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>103200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>91100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>84300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>76400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>61700</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
         <v>5200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>5500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,35 +1220,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>12300</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1241,73 +1280,79 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E15" s="3">
         <v>12800</v>
       </c>
-      <c r="E15" s="3">
-        <v>15400</v>
-      </c>
       <c r="F15" s="3">
-        <v>11900</v>
+        <v>13300</v>
       </c>
       <c r="G15" s="3">
-        <v>2300</v>
+        <v>16000</v>
       </c>
       <c r="H15" s="3">
-        <v>26300</v>
+        <v>12300</v>
       </c>
       <c r="I15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K15" s="3">
         <v>6700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>6200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>4700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>5400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>4200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>4000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1315,8 +1360,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>277300</v>
+        <v>304300</v>
       </c>
       <c r="E17" s="3">
-        <v>252600</v>
+        <v>310200</v>
       </c>
       <c r="F17" s="3">
-        <v>257200</v>
+        <v>288400</v>
       </c>
       <c r="G17" s="3">
-        <v>238100</v>
+        <v>262700</v>
       </c>
       <c r="H17" s="3">
-        <v>236800</v>
+        <v>267500</v>
       </c>
       <c r="I17" s="3">
+        <v>247700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K17" s="3">
         <v>137800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>108700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>105800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>97300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>86800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>66800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>57700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>54800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>55900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>42000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>49000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>37000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>36000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>28600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>208400</v>
+        <v>241900</v>
       </c>
       <c r="E18" s="3">
-        <v>193600</v>
+        <v>300500</v>
       </c>
       <c r="F18" s="3">
-        <v>143700</v>
+        <v>216800</v>
       </c>
       <c r="G18" s="3">
-        <v>377500</v>
+        <v>201300</v>
       </c>
       <c r="H18" s="3">
-        <v>47800</v>
+        <v>149500</v>
       </c>
       <c r="I18" s="3">
+        <v>392600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>59300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>79200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>85600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>43800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>74400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>86900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>69100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>54100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>58300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>45400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>39700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,207 +1581,221 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-130900</v>
+        <v>-157900</v>
       </c>
       <c r="E20" s="3">
-        <v>-251000</v>
+        <v>-244700</v>
       </c>
       <c r="F20" s="3">
-        <v>-167200</v>
+        <v>-136100</v>
       </c>
       <c r="G20" s="3">
-        <v>-501300</v>
+        <v>-261000</v>
       </c>
       <c r="H20" s="3">
-        <v>-297000</v>
+        <v>-173900</v>
       </c>
       <c r="I20" s="3">
+        <v>-521400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-308900</v>
+      </c>
+      <c r="K20" s="3">
         <v>146700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-9200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-12600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-29500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-19600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-14800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-12500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-13400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-15400</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>14400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>10500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>117000</v>
+        <v>126800</v>
       </c>
       <c r="E21" s="3">
-        <v>-19300</v>
+        <v>99100</v>
       </c>
       <c r="F21" s="3">
-        <v>12300</v>
+        <v>121700</v>
       </c>
       <c r="G21" s="3">
-        <v>-102200</v>
+        <v>-20000</v>
       </c>
       <c r="H21" s="3">
-        <v>-207700</v>
+        <v>12800</v>
       </c>
       <c r="I21" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-216100</v>
+      </c>
+      <c r="K21" s="3">
         <v>146500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>66400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>82300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>84700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>43600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>56800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>77600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>59000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>45800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>51400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>37000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>28700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>6900</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29800</v>
+        <v>22200</v>
       </c>
       <c r="E22" s="3">
-        <v>36200</v>
+        <v>27700</v>
       </c>
       <c r="F22" s="3">
-        <v>32700</v>
+        <v>31000</v>
       </c>
       <c r="G22" s="3">
-        <v>33100</v>
+        <v>37700</v>
       </c>
       <c r="H22" s="3">
-        <v>27300</v>
+        <v>34000</v>
       </c>
       <c r="I22" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K22" s="3">
         <v>14800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>9400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1738,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>47700</v>
+        <v>61800</v>
       </c>
       <c r="E23" s="3">
-        <v>-93600</v>
+        <v>28100</v>
       </c>
       <c r="F23" s="3">
-        <v>-56100</v>
+        <v>49600</v>
       </c>
       <c r="G23" s="3">
-        <v>-156900</v>
+        <v>-97400</v>
       </c>
       <c r="H23" s="3">
-        <v>-276500</v>
+        <v>-58400</v>
       </c>
       <c r="I23" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-287600</v>
+      </c>
+      <c r="K23" s="3">
         <v>112800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>40700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>68900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>72700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>31300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>67000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>50600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>39200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>45800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>32000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>19900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>10900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9600</v>
+        <v>16300</v>
       </c>
       <c r="E24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="L24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="N24" s="3">
+        <v>23900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>18200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>15300</v>
+      </c>
+      <c r="S24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="T24" s="3">
+        <v>12700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="V24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="F24" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>11700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>23900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>13700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>18200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>15300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>12700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>9300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>7500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38200</v>
+        <v>45500</v>
       </c>
       <c r="E26" s="3">
-        <v>-94700</v>
+        <v>15900</v>
       </c>
       <c r="F26" s="3">
-        <v>-60600</v>
+        <v>39700</v>
       </c>
       <c r="G26" s="3">
-        <v>-155200</v>
+        <v>-98500</v>
       </c>
       <c r="H26" s="3">
-        <v>-244000</v>
+        <v>-63000</v>
       </c>
       <c r="I26" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-253800</v>
+      </c>
+      <c r="K26" s="3">
         <v>101900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>30700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>57300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>48800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>31300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>48800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>35300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>32200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>33100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>22700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>16700</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>39200</v>
+        <v>45600</v>
       </c>
       <c r="E27" s="3">
-        <v>-94400</v>
+        <v>15900</v>
       </c>
       <c r="F27" s="3">
-        <v>-60600</v>
+        <v>40800</v>
       </c>
       <c r="G27" s="3">
-        <v>-153900</v>
+        <v>-98200</v>
       </c>
       <c r="H27" s="3">
-        <v>-242400</v>
+        <v>-63100</v>
       </c>
       <c r="I27" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="K27" s="3">
         <v>102500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>30700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>58700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>49900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>24800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>31300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>48600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>35300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>32300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>33100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>22700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>16400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>130900</v>
+        <v>157900</v>
       </c>
       <c r="E32" s="3">
-        <v>251000</v>
+        <v>244700</v>
       </c>
       <c r="F32" s="3">
-        <v>167200</v>
+        <v>136100</v>
       </c>
       <c r="G32" s="3">
-        <v>501300</v>
+        <v>261000</v>
       </c>
       <c r="H32" s="3">
-        <v>297000</v>
+        <v>173900</v>
       </c>
       <c r="I32" s="3">
+        <v>521400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>308900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-146700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>9200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>12600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>29500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>19600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>18200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>14800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>12500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>13400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>15400</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-14400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>39200</v>
+        <v>45600</v>
       </c>
       <c r="E33" s="3">
-        <v>-94400</v>
+        <v>15900</v>
       </c>
       <c r="F33" s="3">
-        <v>-60600</v>
+        <v>40800</v>
       </c>
       <c r="G33" s="3">
-        <v>-153900</v>
+        <v>-98200</v>
       </c>
       <c r="H33" s="3">
-        <v>-242400</v>
+        <v>-63100</v>
       </c>
       <c r="I33" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="K33" s="3">
         <v>102500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>58700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>49900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>24800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>31300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>48600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>35300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>32300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>33100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>22700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>16400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>39200</v>
+        <v>45600</v>
       </c>
       <c r="E35" s="3">
-        <v>-94400</v>
+        <v>15900</v>
       </c>
       <c r="F35" s="3">
-        <v>-60600</v>
+        <v>40800</v>
       </c>
       <c r="G35" s="3">
-        <v>-153900</v>
+        <v>-98200</v>
       </c>
       <c r="H35" s="3">
-        <v>-242400</v>
+        <v>-63100</v>
       </c>
       <c r="I35" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="K35" s="3">
         <v>102500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>58700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>49900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>24800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>31300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>48600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>35300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>32300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>33100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>22700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>16400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,71 +3006,73 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>453700</v>
+        <v>373700</v>
       </c>
       <c r="E41" s="3">
-        <v>733200</v>
+        <v>304600</v>
       </c>
       <c r="F41" s="3">
-        <v>807400</v>
+        <v>471900</v>
       </c>
       <c r="G41" s="3">
-        <v>870500</v>
+        <v>762700</v>
       </c>
       <c r="H41" s="3">
-        <v>589000</v>
+        <v>839800</v>
       </c>
       <c r="I41" s="3">
+        <v>905400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>612600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1137100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>360800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>457800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>429000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>543400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>299300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>178900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>45300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>30100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>16300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>53200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>32100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>33400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2909,71 +3082,77 @@
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>525900</v>
+        <v>656000</v>
       </c>
       <c r="E42" s="3">
-        <v>481800</v>
+        <v>695600</v>
       </c>
       <c r="F42" s="3">
-        <v>488700</v>
+        <v>547000</v>
       </c>
       <c r="G42" s="3">
-        <v>385900</v>
+        <v>501100</v>
       </c>
       <c r="H42" s="3">
-        <v>434900</v>
+        <v>508300</v>
       </c>
       <c r="I42" s="3">
+        <v>401400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>452300</v>
+      </c>
+      <c r="K42" s="3">
         <v>968100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1679500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1520700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1601800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>154300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>474300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>542500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>522600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>507400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>497800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>494300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>26300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>48800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2983,71 +3162,77 @@
       <c r="Z42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3767200</v>
+        <v>3935800</v>
       </c>
       <c r="E43" s="3">
-        <v>3556700</v>
+        <v>4295900</v>
       </c>
       <c r="F43" s="3">
-        <v>3731900</v>
+        <v>3918400</v>
       </c>
       <c r="G43" s="3">
-        <v>3947600</v>
+        <v>3699400</v>
       </c>
       <c r="H43" s="3">
-        <v>3845800</v>
+        <v>3881700</v>
       </c>
       <c r="I43" s="3">
+        <v>4106100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4000100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3562700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3331500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3326300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3393000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2683200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2593100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2653500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2338800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2375200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1971100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1667400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1233300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1385400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3057,8 +3242,14 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,71 +3322,77 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>674800</v>
+        <v>888700</v>
       </c>
       <c r="E45" s="3">
-        <v>637500</v>
+        <v>878600</v>
       </c>
       <c r="F45" s="3">
-        <v>571100</v>
+        <v>701800</v>
       </c>
       <c r="G45" s="3">
-        <v>594100</v>
+        <v>663100</v>
       </c>
       <c r="H45" s="3">
-        <v>426500</v>
+        <v>594000</v>
       </c>
       <c r="I45" s="3">
+        <v>617900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>443700</v>
+      </c>
+      <c r="K45" s="3">
         <v>248600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>206600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>172200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>123600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>82800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>51100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>24500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>28000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>9100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>4000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3205,71 +3402,77 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5421600</v>
+        <v>5854200</v>
       </c>
       <c r="E46" s="3">
-        <v>5409200</v>
+        <v>6174800</v>
       </c>
       <c r="F46" s="3">
-        <v>5599100</v>
+        <v>5639100</v>
       </c>
       <c r="G46" s="3">
-        <v>5798100</v>
+        <v>5626300</v>
       </c>
       <c r="H46" s="3">
-        <v>5296200</v>
+        <v>5823800</v>
       </c>
       <c r="I46" s="3">
+        <v>6030800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5508700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5916500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5578400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5477000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5547500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3463800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3417800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3399400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2934700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2921800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2492300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2218900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1300000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1471500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3279,71 +3482,77 @@
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95500</v>
+        <v>50700</v>
       </c>
       <c r="E47" s="3">
-        <v>72900</v>
+        <v>85800</v>
       </c>
       <c r="F47" s="3">
-        <v>201900</v>
+        <v>99300</v>
       </c>
       <c r="G47" s="3">
-        <v>265100</v>
+        <v>75800</v>
       </c>
       <c r="H47" s="3">
-        <v>419100</v>
+        <v>210000</v>
       </c>
       <c r="I47" s="3">
+        <v>275800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>435900</v>
+      </c>
+      <c r="K47" s="3">
         <v>694500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>81200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>82600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>12600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>9700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3353,71 +3562,77 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>318100</v>
+        <v>360600</v>
       </c>
       <c r="E48" s="3">
-        <v>325400</v>
+        <v>330500</v>
       </c>
       <c r="F48" s="3">
-        <v>317900</v>
+        <v>330900</v>
       </c>
       <c r="G48" s="3">
-        <v>303900</v>
+        <v>338500</v>
       </c>
       <c r="H48" s="3">
-        <v>252000</v>
+        <v>330700</v>
       </c>
       <c r="I48" s="3">
+        <v>316100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>262100</v>
+      </c>
+      <c r="K48" s="3">
         <v>188200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>172800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>134200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>126500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>117700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>117200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>101300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>88500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>70500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>62800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>47500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>46800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>57400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3427,71 +3642,77 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1665000</v>
+        <v>1737600</v>
       </c>
       <c r="E49" s="3">
-        <v>1662800</v>
+        <v>1738600</v>
       </c>
       <c r="F49" s="3">
-        <v>1635500</v>
+        <v>1731800</v>
       </c>
       <c r="G49" s="3">
-        <v>1605200</v>
+        <v>1729500</v>
       </c>
       <c r="H49" s="3">
-        <v>1591400</v>
+        <v>1701100</v>
       </c>
       <c r="I49" s="3">
+        <v>1669600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1655300</v>
+      </c>
+      <c r="K49" s="3">
         <v>220700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>205200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>194600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>151500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>135900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>75200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>69000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>67800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>60700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>58500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>54900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>56800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>55900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3501,8 +3722,14 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,71 +3882,77 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>192600</v>
+        <v>155800</v>
       </c>
       <c r="E52" s="3">
-        <v>180500</v>
+        <v>178500</v>
       </c>
       <c r="F52" s="3">
-        <v>156200</v>
+        <v>200300</v>
       </c>
       <c r="G52" s="3">
-        <v>181300</v>
+        <v>187800</v>
       </c>
       <c r="H52" s="3">
-        <v>130600</v>
+        <v>162500</v>
       </c>
       <c r="I52" s="3">
+        <v>188600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K52" s="3">
         <v>109100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>95100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>51500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>50200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>46400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>49600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>43900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>46600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>51200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>51900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>48400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>46800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>54500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3723,8 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,71 +4042,77 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7692800</v>
+        <v>8159000</v>
       </c>
       <c r="E54" s="3">
-        <v>7650800</v>
+        <v>8508200</v>
       </c>
       <c r="F54" s="3">
-        <v>7910700</v>
+        <v>8001500</v>
       </c>
       <c r="G54" s="3">
-        <v>8151200</v>
+        <v>7957900</v>
       </c>
       <c r="H54" s="3">
-        <v>7689300</v>
+        <v>8228100</v>
       </c>
       <c r="I54" s="3">
+        <v>8478300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7997900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7129000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6132700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5939900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5888100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3769200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3669500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3621200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3143000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3109300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2667700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2371500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1452700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1643300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3871,8 +4122,14 @@
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,71 +4186,73 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2947000</v>
+        <v>3228600</v>
       </c>
       <c r="E57" s="3">
-        <v>76600</v>
+        <v>3459000</v>
       </c>
       <c r="F57" s="3">
-        <v>2971100</v>
+        <v>3065300</v>
       </c>
       <c r="G57" s="3">
-        <v>3116600</v>
+        <v>79600</v>
       </c>
       <c r="H57" s="3">
-        <v>2876000</v>
+        <v>3090300</v>
       </c>
       <c r="I57" s="3">
+        <v>3241700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2991400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2156500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1673900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1749800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1691700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1382700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1118700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1218600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1073100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1105200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1088800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>912300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>865300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>940200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4001,71 +4262,77 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>484200</v>
+        <v>388700</v>
       </c>
       <c r="E58" s="3">
-        <v>658100</v>
+        <v>568500</v>
       </c>
       <c r="F58" s="3">
-        <v>859500</v>
+        <v>503600</v>
       </c>
       <c r="G58" s="3">
-        <v>750000</v>
+        <v>684500</v>
       </c>
       <c r="H58" s="3">
-        <v>550100</v>
+        <v>894000</v>
       </c>
       <c r="I58" s="3">
+        <v>780100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>572100</v>
+      </c>
+      <c r="K58" s="3">
         <v>672500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>656700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>588400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>570000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>739900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>839400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>930600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>512800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>398400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>246700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>138700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>10800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4075,71 +4342,77 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>842200</v>
+        <v>1024800</v>
       </c>
       <c r="E59" s="3">
-        <v>715000</v>
+        <v>1042600</v>
       </c>
       <c r="F59" s="3">
-        <v>677400</v>
+        <v>876000</v>
       </c>
       <c r="G59" s="3">
-        <v>546100</v>
+        <v>743600</v>
       </c>
       <c r="H59" s="3">
-        <v>405800</v>
+        <v>704500</v>
       </c>
       <c r="I59" s="3">
+        <v>568000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>422000</v>
+      </c>
+      <c r="K59" s="3">
         <v>210700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>171300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>165100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>125200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>86200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>57700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>43600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>33500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>35700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>34700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>29100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>46900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>27900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4149,71 +4422,77 @@
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4273500</v>
+        <v>4642100</v>
       </c>
       <c r="E60" s="3">
-        <v>1449700</v>
+        <v>5070100</v>
       </c>
       <c r="F60" s="3">
-        <v>4507900</v>
+        <v>4444900</v>
       </c>
       <c r="G60" s="3">
-        <v>4412800</v>
+        <v>1507800</v>
       </c>
       <c r="H60" s="3">
-        <v>3831800</v>
+        <v>4688800</v>
       </c>
       <c r="I60" s="3">
+        <v>4589900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3985500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3039800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2502000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2503300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2386800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2208700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2015800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2192900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1619400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1539300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1370300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1080200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>923000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>972100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4223,71 +4502,77 @@
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>668600</v>
+        <v>535700</v>
       </c>
       <c r="E61" s="3">
-        <v>657300</v>
+        <v>549500</v>
       </c>
       <c r="F61" s="3">
-        <v>608800</v>
+        <v>695400</v>
       </c>
       <c r="G61" s="3">
-        <v>869200</v>
+        <v>683700</v>
       </c>
       <c r="H61" s="3">
-        <v>827100</v>
+        <v>633200</v>
       </c>
       <c r="I61" s="3">
+        <v>904000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>860300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1044200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>560400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>549800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>582500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>241400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>397800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>315400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>462600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>531100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>295800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>367400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>381000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>481100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4297,71 +4582,77 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>279600</v>
+        <v>284500</v>
       </c>
       <c r="E62" s="3">
-        <v>3093300</v>
+        <v>280500</v>
       </c>
       <c r="F62" s="3">
-        <v>202700</v>
+        <v>290800</v>
       </c>
       <c r="G62" s="3">
-        <v>230600</v>
+        <v>3217400</v>
       </c>
       <c r="H62" s="3">
-        <v>218900</v>
+        <v>210800</v>
       </c>
       <c r="I62" s="3">
+        <v>239900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K62" s="3">
         <v>111300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>89400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>81800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>61100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>51000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>20200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>19700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>15600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>18300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4371,8 +4662,14 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,71 +4902,77 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5237000</v>
+        <v>5473500</v>
       </c>
       <c r="E66" s="3">
-        <v>5216900</v>
+        <v>5911400</v>
       </c>
       <c r="F66" s="3">
-        <v>5341400</v>
+        <v>5447200</v>
       </c>
       <c r="G66" s="3">
-        <v>5530200</v>
+        <v>5426200</v>
       </c>
       <c r="H66" s="3">
-        <v>4894400</v>
+        <v>5555800</v>
       </c>
       <c r="I66" s="3">
+        <v>5752100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5090800</v>
+      </c>
+      <c r="K66" s="3">
         <v>4210900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3163600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3160900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3048700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2519400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2442000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2518100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2102100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2090000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1681600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1462900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1325800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1476000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4667,8 +4982,14 @@
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,71 +5332,77 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2547600</v>
+        <v>2753800</v>
       </c>
       <c r="E72" s="3">
-        <v>2525600</v>
+        <v>2697900</v>
       </c>
       <c r="F72" s="3">
-        <v>2639900</v>
+        <v>2649800</v>
       </c>
       <c r="G72" s="3">
-        <v>2834200</v>
+        <v>2626900</v>
       </c>
       <c r="H72" s="3">
-        <v>2977300</v>
+        <v>2745900</v>
       </c>
       <c r="I72" s="3">
+        <v>2948000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3096800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3211200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2986400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2794100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2861600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1274000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1250900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1116500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1055200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1034600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>998300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>918700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>132900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>175600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5065,8 +5412,14 @@
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,71 +5652,77 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2455800</v>
+        <v>2685500</v>
       </c>
       <c r="E76" s="3">
-        <v>2433900</v>
+        <v>2596800</v>
       </c>
       <c r="F76" s="3">
-        <v>2569200</v>
+        <v>2554300</v>
       </c>
       <c r="G76" s="3">
-        <v>2621100</v>
+        <v>2531600</v>
       </c>
       <c r="H76" s="3">
-        <v>2794900</v>
+        <v>2672300</v>
       </c>
       <c r="I76" s="3">
+        <v>2726200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2907100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2918100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2969000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2778900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2839400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1249900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1227500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1103100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1040900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1019300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>986200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>908600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>126900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>167300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5361,8 +5732,14 @@
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>39200</v>
+        <v>45600</v>
       </c>
       <c r="E81" s="3">
-        <v>-94400</v>
+        <v>15900</v>
       </c>
       <c r="F81" s="3">
-        <v>-60600</v>
+        <v>40800</v>
       </c>
       <c r="G81" s="3">
-        <v>-153900</v>
+        <v>-98200</v>
       </c>
       <c r="H81" s="3">
-        <v>-242400</v>
+        <v>-63100</v>
       </c>
       <c r="I81" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="K81" s="3">
         <v>102500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>58700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>49900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>24800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>31300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>48600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>35300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>32300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>33100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>22700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>16400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +6011,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39500</v>
+        <v>42800</v>
       </c>
       <c r="E83" s="3">
-        <v>38100</v>
+        <v>43300</v>
       </c>
       <c r="F83" s="3">
-        <v>35800</v>
+        <v>41100</v>
       </c>
       <c r="G83" s="3">
-        <v>21600</v>
+        <v>39700</v>
       </c>
       <c r="H83" s="3">
-        <v>41400</v>
+        <v>37200</v>
       </c>
       <c r="I83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K83" s="3">
         <v>18900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>16400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>6400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>4500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>5300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>4000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>4400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-32700</v>
+        <v>235300</v>
       </c>
       <c r="E89" s="3">
-        <v>138400</v>
+        <v>69100</v>
       </c>
       <c r="F89" s="3">
-        <v>154000</v>
+        <v>-34100</v>
       </c>
       <c r="G89" s="3">
-        <v>115200</v>
+        <v>143900</v>
       </c>
       <c r="H89" s="3">
-        <v>344400</v>
+        <v>160100</v>
       </c>
       <c r="I89" s="3">
+        <v>119800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>358300</v>
+      </c>
+      <c r="K89" s="3">
         <v>256000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-17300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>45400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-326800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>219400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>71400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-122500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>35100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-353300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-55200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-379200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>15400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-32200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-54900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-130100</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9100</v>
+        <v>-416400</v>
       </c>
       <c r="E91" s="3">
-        <v>-32700</v>
+        <v>-155300</v>
       </c>
       <c r="F91" s="3">
-        <v>-26500</v>
+        <v>-109300</v>
       </c>
       <c r="G91" s="3">
-        <v>-209400</v>
+        <v>-216800</v>
       </c>
       <c r="H91" s="3">
-        <v>101300</v>
+        <v>-241800</v>
       </c>
       <c r="I91" s="3">
+        <v>-546400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-151300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-36800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-64800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-30100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-17800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-36400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-11700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-10200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-8800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-12800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-13600</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53600</v>
+        <v>10400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2000</v>
+        <v>-167800</v>
       </c>
       <c r="F94" s="3">
-        <v>-145400</v>
+        <v>-55700</v>
       </c>
       <c r="G94" s="3">
-        <v>-49100</v>
+        <v>-2100</v>
       </c>
       <c r="H94" s="3">
-        <v>-573400</v>
+        <v>-151300</v>
       </c>
       <c r="I94" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-596400</v>
+      </c>
+      <c r="K94" s="3">
         <v>167200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-121200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1492000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>282300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>97400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-55100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-19600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>16900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-470400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-11000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-17900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>26700</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7267,250 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-192100</v>
+        <v>-178700</v>
       </c>
       <c r="E100" s="3">
-        <v>-215100</v>
+        <v>-70700</v>
       </c>
       <c r="F100" s="3">
-        <v>-68900</v>
+        <v>-199800</v>
       </c>
       <c r="G100" s="3">
-        <v>216000</v>
+        <v>-223800</v>
       </c>
       <c r="H100" s="3">
-        <v>-316200</v>
+        <v>-71700</v>
       </c>
       <c r="I100" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-328900</v>
+      </c>
+      <c r="K100" s="3">
         <v>345300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>29800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>21700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1704200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-255100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>279100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>35200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>387000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>870200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>229100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>7700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-279500</v>
+        <v>69100</v>
       </c>
       <c r="E102" s="3">
-        <v>-74100</v>
+        <v>-167300</v>
       </c>
       <c r="F102" s="3">
-        <v>-63100</v>
+        <v>-290800</v>
       </c>
       <c r="G102" s="3">
-        <v>281500</v>
+        <v>-77100</v>
       </c>
       <c r="H102" s="3">
-        <v>-548100</v>
+        <v>-65700</v>
       </c>
       <c r="I102" s="3">
+        <v>292800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-570100</v>
+      </c>
+      <c r="K102" s="3">
         <v>776300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-113000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>47600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-114400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>246200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>108400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>133600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>15600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>13800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-39500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>22200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-42600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-74000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>125900</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>546100</v>
+        <v>596400</v>
       </c>
       <c r="E8" s="3">
-        <v>610800</v>
+        <v>547300</v>
       </c>
       <c r="F8" s="3">
-        <v>505200</v>
+        <v>612100</v>
       </c>
       <c r="G8" s="3">
-        <v>464000</v>
+        <v>506300</v>
       </c>
       <c r="H8" s="3">
-        <v>417000</v>
+        <v>465100</v>
       </c>
       <c r="I8" s="3">
-        <v>640300</v>
+        <v>417900</v>
       </c>
       <c r="J8" s="3">
+        <v>641700</v>
+      </c>
+      <c r="K8" s="3">
         <v>296000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>118800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>185000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>182800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>130600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>141300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>76600</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>18900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>18400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>145300</v>
+        <v>138300</v>
       </c>
       <c r="E9" s="3">
-        <v>140600</v>
+        <v>145600</v>
       </c>
       <c r="F9" s="3">
-        <v>135200</v>
+        <v>140900</v>
       </c>
       <c r="G9" s="3">
-        <v>126100</v>
+        <v>135500</v>
       </c>
       <c r="H9" s="3">
-        <v>135800</v>
+        <v>126400</v>
       </c>
       <c r="I9" s="3">
-        <v>130100</v>
+        <v>136100</v>
       </c>
       <c r="J9" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K9" s="3">
         <v>105900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>58600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>29500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>18900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>16400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>16500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400900</v>
+        <v>458100</v>
       </c>
       <c r="E10" s="3">
-        <v>470200</v>
+        <v>401700</v>
       </c>
       <c r="F10" s="3">
-        <v>370000</v>
+        <v>471200</v>
       </c>
       <c r="G10" s="3">
-        <v>337900</v>
+        <v>370800</v>
       </c>
       <c r="H10" s="3">
-        <v>281100</v>
+        <v>338700</v>
       </c>
       <c r="I10" s="3">
-        <v>510200</v>
+        <v>281800</v>
       </c>
       <c r="J10" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K10" s="3">
         <v>190100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>121600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>145100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>142100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>111700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>120900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>91100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>84300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>76400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61700</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
         <v>5200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,21 +1246,21 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1270,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,65 +1306,68 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="E15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F15" s="3">
         <v>12800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13300</v>
       </c>
-      <c r="G15" s="3">
-        <v>16000</v>
-      </c>
       <c r="H15" s="3">
-        <v>12300</v>
+        <v>16100</v>
       </c>
       <c r="I15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J15" s="3">
         <v>2400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>27400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
         <v>3700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1354,8 +1377,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>304300</v>
+        <v>294300</v>
       </c>
       <c r="E17" s="3">
-        <v>310200</v>
+        <v>304900</v>
       </c>
       <c r="F17" s="3">
-        <v>288400</v>
+        <v>310900</v>
       </c>
       <c r="G17" s="3">
-        <v>262700</v>
+        <v>289000</v>
       </c>
       <c r="H17" s="3">
-        <v>267500</v>
+        <v>263300</v>
       </c>
       <c r="I17" s="3">
-        <v>247700</v>
+        <v>268100</v>
       </c>
       <c r="J17" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K17" s="3">
         <v>246300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>108700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>105800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>66800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>57700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>54800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>55900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>49000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>37000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>36000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>28600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>241900</v>
+        <v>302100</v>
       </c>
       <c r="E18" s="3">
-        <v>300500</v>
+        <v>242400</v>
       </c>
       <c r="F18" s="3">
-        <v>216800</v>
+        <v>301200</v>
       </c>
       <c r="G18" s="3">
-        <v>201300</v>
+        <v>217300</v>
       </c>
       <c r="H18" s="3">
-        <v>149500</v>
+        <v>201800</v>
       </c>
       <c r="I18" s="3">
-        <v>392600</v>
+        <v>149800</v>
       </c>
       <c r="J18" s="3">
+        <v>393500</v>
+      </c>
+      <c r="K18" s="3">
         <v>49700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>85600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>69100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>54100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>58300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>45400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,151 +1616,155 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-157900</v>
+        <v>-199600</v>
       </c>
       <c r="E20" s="3">
-        <v>-244700</v>
+        <v>-158200</v>
       </c>
       <c r="F20" s="3">
-        <v>-136100</v>
+        <v>-245300</v>
       </c>
       <c r="G20" s="3">
-        <v>-261000</v>
+        <v>-136400</v>
       </c>
       <c r="H20" s="3">
-        <v>-173900</v>
+        <v>-261600</v>
       </c>
       <c r="I20" s="3">
-        <v>-521400</v>
+        <v>-174300</v>
       </c>
       <c r="J20" s="3">
+        <v>-522600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-308900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>146700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-19600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-13400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-15400</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>14400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>10500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126800</v>
+        <v>147300</v>
       </c>
       <c r="E21" s="3">
-        <v>99100</v>
+        <v>127100</v>
       </c>
       <c r="F21" s="3">
-        <v>121700</v>
+        <v>99300</v>
       </c>
       <c r="G21" s="3">
-        <v>-20000</v>
+        <v>122000</v>
       </c>
       <c r="H21" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I21" s="3">
         <v>12800</v>
       </c>
-      <c r="I21" s="3">
-        <v>-106300</v>
-      </c>
       <c r="J21" s="3">
+        <v>-106600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-216100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>146500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>66400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>82300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>84700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>56800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>59000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>45800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>51400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>28700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,47 +1774,50 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>6900</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E22" s="3">
         <v>22200</v>
       </c>
-      <c r="E22" s="3">
-        <v>27700</v>
-      </c>
       <c r="F22" s="3">
-        <v>31000</v>
+        <v>27800</v>
       </c>
       <c r="G22" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H22" s="3">
         <v>37700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
-        <v>34400</v>
-      </c>
       <c r="J22" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K22" s="3">
         <v>28400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1787,18 +1827,18 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61800</v>
+        <v>85200</v>
       </c>
       <c r="E23" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F23" s="3">
         <v>28100</v>
       </c>
-      <c r="F23" s="3">
-        <v>49600</v>
-      </c>
       <c r="G23" s="3">
-        <v>-97400</v>
+        <v>49800</v>
       </c>
       <c r="H23" s="3">
-        <v>-58400</v>
+        <v>-97600</v>
       </c>
       <c r="I23" s="3">
-        <v>-163200</v>
+        <v>-58500</v>
       </c>
       <c r="J23" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-287600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>112800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>31300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>19900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16300</v>
+        <v>23200</v>
       </c>
       <c r="E24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-33700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>5200</v>
       </c>
       <c r="X24" s="3">
         <v>5200</v>
       </c>
       <c r="Y24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45500</v>
+        <v>62000</v>
       </c>
       <c r="E26" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F26" s="3">
         <v>15900</v>
       </c>
-      <c r="F26" s="3">
-        <v>39700</v>
-      </c>
       <c r="G26" s="3">
-        <v>-98500</v>
+        <v>39800</v>
       </c>
       <c r="H26" s="3">
-        <v>-63000</v>
+        <v>-98800</v>
       </c>
       <c r="I26" s="3">
-        <v>-161400</v>
+        <v>-63200</v>
       </c>
       <c r="J26" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-253800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>101900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>48800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>31300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>35300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>32200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>16700</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45600</v>
+        <v>61600</v>
       </c>
       <c r="E27" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F27" s="3">
         <v>15900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-98200</v>
-      </c>
       <c r="H27" s="3">
-        <v>-63100</v>
+        <v>-98400</v>
       </c>
       <c r="I27" s="3">
-        <v>-160000</v>
+        <v>-63200</v>
       </c>
       <c r="J27" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-252100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>102500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>49900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>31300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>35300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>32300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>16400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>157900</v>
+        <v>199600</v>
       </c>
       <c r="E32" s="3">
-        <v>244700</v>
+        <v>158200</v>
       </c>
       <c r="F32" s="3">
-        <v>136100</v>
+        <v>245300</v>
       </c>
       <c r="G32" s="3">
-        <v>261000</v>
+        <v>136400</v>
       </c>
       <c r="H32" s="3">
-        <v>173900</v>
+        <v>261600</v>
       </c>
       <c r="I32" s="3">
-        <v>521400</v>
+        <v>174300</v>
       </c>
       <c r="J32" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K32" s="3">
         <v>308900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-146700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>19600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>13400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>15400</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-14400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45600</v>
+        <v>61600</v>
       </c>
       <c r="E33" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F33" s="3">
         <v>15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-98200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-63100</v>
+        <v>-98400</v>
       </c>
       <c r="I33" s="3">
-        <v>-160000</v>
+        <v>-63200</v>
       </c>
       <c r="J33" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-252100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>102500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>31300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>35300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>32300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>33100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>16400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45600</v>
+        <v>61600</v>
       </c>
       <c r="E35" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F35" s="3">
         <v>15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-98200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-63100</v>
+        <v>-98400</v>
       </c>
       <c r="I35" s="3">
-        <v>-160000</v>
+        <v>-63200</v>
       </c>
       <c r="J35" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-252100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>102500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>31300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>35300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>32300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>33100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>16400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>373700</v>
+        <v>444600</v>
       </c>
       <c r="E41" s="3">
-        <v>304600</v>
+        <v>374500</v>
       </c>
       <c r="F41" s="3">
-        <v>471900</v>
+        <v>305300</v>
       </c>
       <c r="G41" s="3">
-        <v>762700</v>
+        <v>472900</v>
       </c>
       <c r="H41" s="3">
-        <v>839800</v>
+        <v>764300</v>
       </c>
       <c r="I41" s="3">
-        <v>905400</v>
+        <v>841600</v>
       </c>
       <c r="J41" s="3">
+        <v>907400</v>
+      </c>
+      <c r="K41" s="3">
         <v>612600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1137100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>360800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>457800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>429000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>543400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>299300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>178900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>53200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>32100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>33400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3088,74 +3175,77 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>656000</v>
+        <v>705100</v>
       </c>
       <c r="E42" s="3">
-        <v>695600</v>
+        <v>657500</v>
       </c>
       <c r="F42" s="3">
-        <v>547000</v>
+        <v>697100</v>
       </c>
       <c r="G42" s="3">
-        <v>501100</v>
+        <v>548200</v>
       </c>
       <c r="H42" s="3">
-        <v>508300</v>
+        <v>502200</v>
       </c>
       <c r="I42" s="3">
-        <v>401400</v>
+        <v>509500</v>
       </c>
       <c r="J42" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K42" s="3">
         <v>452300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>968100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1679500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1520700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1601800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>154300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>474300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>542500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>522600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>507400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>497800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>494300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>26300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>48800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3168,74 +3258,77 @@
       <c r="AB42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3935800</v>
+        <v>3868100</v>
       </c>
       <c r="E43" s="3">
-        <v>4295900</v>
+        <v>3944400</v>
       </c>
       <c r="F43" s="3">
-        <v>3918400</v>
+        <v>4305300</v>
       </c>
       <c r="G43" s="3">
-        <v>3699400</v>
+        <v>3926900</v>
       </c>
       <c r="H43" s="3">
-        <v>3881700</v>
+        <v>3707500</v>
       </c>
       <c r="I43" s="3">
-        <v>4106100</v>
+        <v>3890200</v>
       </c>
       <c r="J43" s="3">
+        <v>4115000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4000100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3562700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3331500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3326300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3393000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2683200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2593100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2653500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2338800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2375200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1971100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1667400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1233300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1385400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,74 +3424,77 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>888700</v>
+        <v>914300</v>
       </c>
       <c r="E45" s="3">
-        <v>878600</v>
+        <v>890600</v>
       </c>
       <c r="F45" s="3">
-        <v>701800</v>
+        <v>880600</v>
       </c>
       <c r="G45" s="3">
-        <v>663100</v>
+        <v>703400</v>
       </c>
       <c r="H45" s="3">
-        <v>594000</v>
+        <v>664500</v>
       </c>
       <c r="I45" s="3">
-        <v>617900</v>
+        <v>595300</v>
       </c>
       <c r="J45" s="3">
+        <v>619300</v>
+      </c>
+      <c r="K45" s="3">
         <v>443700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>248600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>206600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>172200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>123600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>82800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>51100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3408,74 +3507,77 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5854200</v>
+        <v>5932100</v>
       </c>
       <c r="E46" s="3">
-        <v>6174800</v>
+        <v>5867000</v>
       </c>
       <c r="F46" s="3">
-        <v>5639100</v>
+        <v>6188300</v>
       </c>
       <c r="G46" s="3">
-        <v>5626300</v>
+        <v>5651500</v>
       </c>
       <c r="H46" s="3">
-        <v>5823800</v>
+        <v>5638600</v>
       </c>
       <c r="I46" s="3">
-        <v>6030800</v>
+        <v>5836500</v>
       </c>
       <c r="J46" s="3">
+        <v>6044000</v>
+      </c>
+      <c r="K46" s="3">
         <v>5508700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5916500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5578400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5477000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5547500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3463800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3417800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3399400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2934700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2921800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2492300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2218900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1471500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3488,74 +3590,77 @@
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50700</v>
+        <v>51600</v>
       </c>
       <c r="E47" s="3">
-        <v>85800</v>
+        <v>50900</v>
       </c>
       <c r="F47" s="3">
-        <v>99300</v>
+        <v>86000</v>
       </c>
       <c r="G47" s="3">
-        <v>75800</v>
+        <v>99500</v>
       </c>
       <c r="H47" s="3">
-        <v>210000</v>
+        <v>76000</v>
       </c>
       <c r="I47" s="3">
-        <v>275800</v>
+        <v>210500</v>
       </c>
       <c r="J47" s="3">
+        <v>276400</v>
+      </c>
+      <c r="K47" s="3">
         <v>435900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>694500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3568,74 +3673,77 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>360600</v>
+        <v>343200</v>
       </c>
       <c r="E48" s="3">
-        <v>330500</v>
+        <v>361400</v>
       </c>
       <c r="F48" s="3">
-        <v>330900</v>
+        <v>331300</v>
       </c>
       <c r="G48" s="3">
-        <v>338500</v>
+        <v>331600</v>
       </c>
       <c r="H48" s="3">
-        <v>330700</v>
+        <v>339200</v>
       </c>
       <c r="I48" s="3">
-        <v>316100</v>
+        <v>331400</v>
       </c>
       <c r="J48" s="3">
+        <v>316800</v>
+      </c>
+      <c r="K48" s="3">
         <v>262100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>188200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>172800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>134200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>117200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>101300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>70500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>62800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>57400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,74 +3756,77 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1737600</v>
+        <v>1755500</v>
       </c>
       <c r="E49" s="3">
-        <v>1738600</v>
+        <v>1741400</v>
       </c>
       <c r="F49" s="3">
-        <v>1731800</v>
+        <v>1742300</v>
       </c>
       <c r="G49" s="3">
-        <v>1729500</v>
+        <v>1735600</v>
       </c>
       <c r="H49" s="3">
-        <v>1701100</v>
+        <v>1733300</v>
       </c>
       <c r="I49" s="3">
-        <v>1669600</v>
+        <v>1704800</v>
       </c>
       <c r="J49" s="3">
+        <v>1673300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1655300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>220700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>205200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>194600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>151500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>75200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>69000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>58500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>54900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>56800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>55900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4005,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155800</v>
+        <v>142700</v>
       </c>
       <c r="E52" s="3">
-        <v>178500</v>
+        <v>156200</v>
       </c>
       <c r="F52" s="3">
-        <v>200300</v>
+        <v>178900</v>
       </c>
       <c r="G52" s="3">
-        <v>187800</v>
+        <v>200800</v>
       </c>
       <c r="H52" s="3">
-        <v>162500</v>
+        <v>188200</v>
       </c>
       <c r="I52" s="3">
-        <v>188600</v>
+        <v>162900</v>
       </c>
       <c r="J52" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K52" s="3">
         <v>135800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>109100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>95100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>50200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>46400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>46600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>48400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>46800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>54500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8159000</v>
+        <v>8225100</v>
       </c>
       <c r="E54" s="3">
-        <v>8508200</v>
+        <v>8176800</v>
       </c>
       <c r="F54" s="3">
-        <v>8001500</v>
+        <v>8526800</v>
       </c>
       <c r="G54" s="3">
-        <v>7957900</v>
+        <v>8019000</v>
       </c>
       <c r="H54" s="3">
-        <v>8228100</v>
+        <v>7975200</v>
       </c>
       <c r="I54" s="3">
-        <v>8478300</v>
+        <v>8246100</v>
       </c>
       <c r="J54" s="3">
+        <v>8496900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7997900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7129000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6132700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5939900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5888100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3769200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3669500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3621200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3143000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3109300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2667700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2371500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1452700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1643300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,74 +4318,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3228600</v>
+        <v>3220100</v>
       </c>
       <c r="E57" s="3">
-        <v>3459000</v>
+        <v>3235600</v>
       </c>
       <c r="F57" s="3">
-        <v>3065300</v>
+        <v>3466600</v>
       </c>
       <c r="G57" s="3">
-        <v>79600</v>
+        <v>3072000</v>
       </c>
       <c r="H57" s="3">
-        <v>3090300</v>
+        <v>79800</v>
       </c>
       <c r="I57" s="3">
-        <v>3241700</v>
+        <v>3097000</v>
       </c>
       <c r="J57" s="3">
+        <v>3248800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2991400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2156500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1673900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1749800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1691700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1382700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1118700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1218600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1073100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1105200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1088800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>912300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>865300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>940200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4268,74 +4399,77 @@
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>388700</v>
+        <v>385400</v>
       </c>
       <c r="E58" s="3">
-        <v>568500</v>
+        <v>389600</v>
       </c>
       <c r="F58" s="3">
-        <v>503600</v>
+        <v>569700</v>
       </c>
       <c r="G58" s="3">
-        <v>684500</v>
+        <v>504700</v>
       </c>
       <c r="H58" s="3">
-        <v>894000</v>
+        <v>686000</v>
       </c>
       <c r="I58" s="3">
-        <v>780100</v>
+        <v>895900</v>
       </c>
       <c r="J58" s="3">
+        <v>781800</v>
+      </c>
+      <c r="K58" s="3">
         <v>572100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>672500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>656700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>588400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>570000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>739900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>839400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>930600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>512800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>398400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>246700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>138700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3900</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4348,74 +4482,77 @@
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1024800</v>
+        <v>1058500</v>
       </c>
       <c r="E59" s="3">
-        <v>1042600</v>
+        <v>1027100</v>
       </c>
       <c r="F59" s="3">
-        <v>876000</v>
+        <v>1044900</v>
       </c>
       <c r="G59" s="3">
-        <v>743600</v>
+        <v>877900</v>
       </c>
       <c r="H59" s="3">
-        <v>704500</v>
+        <v>745300</v>
       </c>
       <c r="I59" s="3">
-        <v>568000</v>
+        <v>706100</v>
       </c>
       <c r="J59" s="3">
+        <v>569300</v>
+      </c>
+      <c r="K59" s="3">
         <v>422000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>171300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>165100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>125200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>86200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>35700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>29100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>46900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>27900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4428,74 +4565,77 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4642100</v>
+        <v>4664000</v>
       </c>
       <c r="E60" s="3">
-        <v>5070100</v>
+        <v>4652300</v>
       </c>
       <c r="F60" s="3">
-        <v>4444900</v>
+        <v>5081100</v>
       </c>
       <c r="G60" s="3">
-        <v>1507800</v>
+        <v>4454600</v>
       </c>
       <c r="H60" s="3">
-        <v>4688800</v>
+        <v>1511100</v>
       </c>
       <c r="I60" s="3">
-        <v>4589900</v>
+        <v>4699100</v>
       </c>
       <c r="J60" s="3">
+        <v>4599900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3985500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3039800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2502000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2503300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2386800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2208700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2015800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2192900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1619400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1539300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1370300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1080200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>923000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>972100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4508,74 +4648,77 @@
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>535700</v>
+        <v>510200</v>
       </c>
       <c r="E61" s="3">
-        <v>549500</v>
+        <v>536800</v>
       </c>
       <c r="F61" s="3">
-        <v>695400</v>
+        <v>550700</v>
       </c>
       <c r="G61" s="3">
-        <v>683700</v>
+        <v>697000</v>
       </c>
       <c r="H61" s="3">
-        <v>633200</v>
+        <v>685200</v>
       </c>
       <c r="I61" s="3">
-        <v>904000</v>
+        <v>634600</v>
       </c>
       <c r="J61" s="3">
+        <v>906000</v>
+      </c>
+      <c r="K61" s="3">
         <v>860300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1044200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>560400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>549800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>582500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>241400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>397800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>315400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>462600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>531100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>295800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>367400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>381000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>481100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,74 +4731,77 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>284500</v>
+        <v>274900</v>
       </c>
       <c r="E62" s="3">
-        <v>280500</v>
+        <v>285100</v>
       </c>
       <c r="F62" s="3">
-        <v>290800</v>
+        <v>281100</v>
       </c>
       <c r="G62" s="3">
-        <v>3217400</v>
+        <v>291400</v>
       </c>
       <c r="H62" s="3">
-        <v>210800</v>
+        <v>3224500</v>
       </c>
       <c r="I62" s="3">
-        <v>239900</v>
+        <v>211300</v>
       </c>
       <c r="J62" s="3">
+        <v>240400</v>
+      </c>
+      <c r="K62" s="3">
         <v>227700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>81800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>61100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>51000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5473500</v>
+        <v>5460300</v>
       </c>
       <c r="E66" s="3">
-        <v>5911400</v>
+        <v>5485400</v>
       </c>
       <c r="F66" s="3">
-        <v>5447200</v>
+        <v>5924300</v>
       </c>
       <c r="G66" s="3">
-        <v>5426200</v>
+        <v>5459100</v>
       </c>
       <c r="H66" s="3">
-        <v>5555800</v>
+        <v>5438100</v>
       </c>
       <c r="I66" s="3">
-        <v>5752100</v>
+        <v>5567900</v>
       </c>
       <c r="J66" s="3">
+        <v>5764700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5090800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4210900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3163600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3160900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3048700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2519400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2442000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2518100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2102100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2090000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1681600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1462900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1325800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1476000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,74 +5509,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2753800</v>
+        <v>2825300</v>
       </c>
       <c r="E72" s="3">
-        <v>2697900</v>
+        <v>2759800</v>
       </c>
       <c r="F72" s="3">
-        <v>2649800</v>
+        <v>2703800</v>
       </c>
       <c r="G72" s="3">
-        <v>2626900</v>
+        <v>2655600</v>
       </c>
       <c r="H72" s="3">
-        <v>2745900</v>
+        <v>2632600</v>
       </c>
       <c r="I72" s="3">
-        <v>2948000</v>
+        <v>2751900</v>
       </c>
       <c r="J72" s="3">
+        <v>2954400</v>
+      </c>
+      <c r="K72" s="3">
         <v>3096800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3211200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2986400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2794100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2861600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1274000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1250900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1116500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1055200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1034600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>998300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>918700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>132900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>175600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2685500</v>
+        <v>2764800</v>
       </c>
       <c r="E76" s="3">
-        <v>2596800</v>
+        <v>2691400</v>
       </c>
       <c r="F76" s="3">
-        <v>2554300</v>
+        <v>2602500</v>
       </c>
       <c r="G76" s="3">
-        <v>2531600</v>
+        <v>2559900</v>
       </c>
       <c r="H76" s="3">
-        <v>2672300</v>
+        <v>2537100</v>
       </c>
       <c r="I76" s="3">
-        <v>2726200</v>
+        <v>2678200</v>
       </c>
       <c r="J76" s="3">
+        <v>2732200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2907100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2918100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2969000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2778900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2839400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1249900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1227500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1103100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1040900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1019300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>986200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>908600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>126900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>167300</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45600</v>
+        <v>61600</v>
       </c>
       <c r="E81" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F81" s="3">
         <v>15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-98200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-63100</v>
+        <v>-98400</v>
       </c>
       <c r="I81" s="3">
-        <v>-160000</v>
+        <v>-63200</v>
       </c>
       <c r="J81" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-252100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>102500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>31300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>35300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>32300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>33100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>16400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42800</v>
+        <v>44700</v>
       </c>
       <c r="E83" s="3">
+        <v>42900</v>
+      </c>
+      <c r="F83" s="3">
         <v>43300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>41100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>39700</v>
       </c>
-      <c r="H83" s="3">
-        <v>37200</v>
-      </c>
       <c r="I83" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J83" s="3">
         <v>22500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4400</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>235300</v>
+        <v>168000</v>
       </c>
       <c r="E89" s="3">
-        <v>69100</v>
+        <v>235800</v>
       </c>
       <c r="F89" s="3">
+        <v>69200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-34100</v>
       </c>
-      <c r="G89" s="3">
-        <v>143900</v>
-      </c>
       <c r="H89" s="3">
-        <v>160100</v>
+        <v>144200</v>
       </c>
       <c r="I89" s="3">
-        <v>119800</v>
+        <v>160500</v>
       </c>
       <c r="J89" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K89" s="3">
         <v>358300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>256000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-326800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>219400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>71400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-122500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-353300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-55200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-379200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-32200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-54900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-130100</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-332200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-416400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-155300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-109300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-216800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-241800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-546400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-151300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-64800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-17800</v>
       </c>
       <c r="P91" s="3">
         <v>-17800</v>
       </c>
       <c r="Q91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="E94" s="3">
         <v>10400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-167800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-55700</v>
+        <v>-168100</v>
       </c>
       <c r="G94" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-151300</v>
-      </c>
       <c r="I94" s="3">
-        <v>-51100</v>
+        <v>-151600</v>
       </c>
       <c r="J94" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-596400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>167200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-121200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1492000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>282300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>97400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>16900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-470400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>26700</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-178700</v>
+        <v>3100</v>
       </c>
       <c r="E100" s="3">
-        <v>-70700</v>
+        <v>-179100</v>
       </c>
       <c r="F100" s="3">
-        <v>-199800</v>
+        <v>-70900</v>
       </c>
       <c r="G100" s="3">
-        <v>-223800</v>
+        <v>-200200</v>
       </c>
       <c r="H100" s="3">
-        <v>-71700</v>
+        <v>-224300</v>
       </c>
       <c r="I100" s="3">
-        <v>224600</v>
+        <v>-71900</v>
       </c>
       <c r="J100" s="3">
+        <v>225100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-328900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>345300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1704200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-255100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>279100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>35200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>387000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>870200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>229100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
         <v>2100</v>
       </c>
       <c r="F101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>4800</v>
-      </c>
       <c r="H101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-500</v>
       </c>
       <c r="P101" s="3">
         <v>-500</v>
       </c>
       <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>1600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>69100</v>
+        <v>70100</v>
       </c>
       <c r="E102" s="3">
-        <v>-167300</v>
+        <v>69200</v>
       </c>
       <c r="F102" s="3">
-        <v>-290800</v>
+        <v>-167600</v>
       </c>
       <c r="G102" s="3">
-        <v>-77100</v>
+        <v>-291400</v>
       </c>
       <c r="H102" s="3">
-        <v>-65700</v>
+        <v>-77300</v>
       </c>
       <c r="I102" s="3">
-        <v>292800</v>
+        <v>-65800</v>
       </c>
       <c r="J102" s="3">
+        <v>293400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-570100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>776300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-113000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-114400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>246200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>133600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>15600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>22200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-42600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-74000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>125900</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>STNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>596400</v>
+        <v>645600</v>
       </c>
       <c r="E8" s="3">
-        <v>547300</v>
+        <v>607600</v>
       </c>
       <c r="F8" s="3">
-        <v>612100</v>
+        <v>557600</v>
       </c>
       <c r="G8" s="3">
-        <v>506300</v>
+        <v>623600</v>
       </c>
       <c r="H8" s="3">
-        <v>465100</v>
+        <v>515800</v>
       </c>
       <c r="I8" s="3">
-        <v>417900</v>
+        <v>473800</v>
       </c>
       <c r="J8" s="3">
+        <v>425700</v>
+      </c>
+      <c r="K8" s="3">
         <v>641700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>296000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>118800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>168000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>185000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>182800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>130600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>141300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>144600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>94400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>76600</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3">
         <v>18900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>18400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>18200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>138300</v>
+        <v>159100</v>
       </c>
       <c r="E9" s="3">
-        <v>145600</v>
+        <v>140900</v>
       </c>
       <c r="F9" s="3">
-        <v>140900</v>
+        <v>148300</v>
       </c>
       <c r="G9" s="3">
-        <v>135500</v>
+        <v>143500</v>
       </c>
       <c r="H9" s="3">
-        <v>126400</v>
+        <v>138000</v>
       </c>
       <c r="I9" s="3">
-        <v>136100</v>
+        <v>128800</v>
       </c>
       <c r="J9" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K9" s="3">
         <v>130400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>105900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>29500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>23700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>18900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>16400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>18800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>13800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>458100</v>
+        <v>486600</v>
       </c>
       <c r="E10" s="3">
-        <v>401700</v>
+        <v>466700</v>
       </c>
       <c r="F10" s="3">
-        <v>471200</v>
+        <v>409300</v>
       </c>
       <c r="G10" s="3">
-        <v>370800</v>
+        <v>480100</v>
       </c>
       <c r="H10" s="3">
-        <v>338700</v>
+        <v>377800</v>
       </c>
       <c r="I10" s="3">
-        <v>281800</v>
+        <v>345000</v>
       </c>
       <c r="J10" s="3">
+        <v>287000</v>
+      </c>
+      <c r="K10" s="3">
         <v>511300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>190100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>121600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>145100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>142100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>91700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>111700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>120900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>91100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>84300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>76400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>61700</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3">
         <v>5200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1249,21 +1269,21 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,8 +1293,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1309,68 +1329,71 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>14300</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="F15" s="3">
-        <v>12800</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="H15" s="3">
-        <v>16100</v>
+        <v>13600</v>
       </c>
       <c r="I15" s="3">
-        <v>12400</v>
+        <v>16400</v>
       </c>
       <c r="J15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>27400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
         <v>3700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1380,8 +1403,8 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>294300</v>
+        <v>324200</v>
       </c>
       <c r="E17" s="3">
-        <v>304900</v>
+        <v>299800</v>
       </c>
       <c r="F17" s="3">
-        <v>310900</v>
+        <v>310700</v>
       </c>
       <c r="G17" s="3">
-        <v>289000</v>
+        <v>316700</v>
       </c>
       <c r="H17" s="3">
-        <v>263300</v>
+        <v>294400</v>
       </c>
       <c r="I17" s="3">
-        <v>268100</v>
+        <v>268200</v>
       </c>
       <c r="J17" s="3">
+        <v>273100</v>
+      </c>
+      <c r="K17" s="3">
         <v>248200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>246300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>108700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>105800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>86800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>66800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>57700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>54800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>55900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>49000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>37000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3">
         <v>36000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>28600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>302100</v>
+        <v>321400</v>
       </c>
       <c r="E18" s="3">
-        <v>242400</v>
+        <v>307800</v>
       </c>
       <c r="F18" s="3">
-        <v>301200</v>
+        <v>246900</v>
       </c>
       <c r="G18" s="3">
-        <v>217300</v>
+        <v>306900</v>
       </c>
       <c r="H18" s="3">
-        <v>201800</v>
+        <v>221400</v>
       </c>
       <c r="I18" s="3">
-        <v>149800</v>
+        <v>205600</v>
       </c>
       <c r="J18" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K18" s="3">
         <v>393500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>49700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>85600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>69100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>54100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>58300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-26100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,157 +1650,161 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-199600</v>
+        <v>-217900</v>
       </c>
       <c r="E20" s="3">
-        <v>-158200</v>
+        <v>-203400</v>
       </c>
       <c r="F20" s="3">
-        <v>-245300</v>
+        <v>-161200</v>
       </c>
       <c r="G20" s="3">
-        <v>-136400</v>
+        <v>-249900</v>
       </c>
       <c r="H20" s="3">
-        <v>-261600</v>
+        <v>-139000</v>
       </c>
       <c r="I20" s="3">
-        <v>-174300</v>
+        <v>-266500</v>
       </c>
       <c r="J20" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-522600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-308900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>146700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-12900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-13400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15400</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3">
         <v>14400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>10500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>147300</v>
+        <v>149400</v>
       </c>
       <c r="E21" s="3">
-        <v>127100</v>
+        <v>150000</v>
       </c>
       <c r="F21" s="3">
-        <v>99300</v>
+        <v>129400</v>
       </c>
       <c r="G21" s="3">
-        <v>122000</v>
+        <v>101200</v>
       </c>
       <c r="H21" s="3">
-        <v>-20100</v>
+        <v>124300</v>
       </c>
       <c r="I21" s="3">
-        <v>12800</v>
+        <v>-20500</v>
       </c>
       <c r="J21" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-106600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-216100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>146500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>66400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>82300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>84700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>56800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>77600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>59000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>45800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>51400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>28700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1777,50 +1814,53 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>6900</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>17300</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>17600</v>
       </c>
       <c r="F22" s="3">
-        <v>27800</v>
+        <v>22700</v>
       </c>
       <c r="G22" s="3">
-        <v>31100</v>
+        <v>28300</v>
       </c>
       <c r="H22" s="3">
-        <v>37700</v>
+        <v>31700</v>
       </c>
       <c r="I22" s="3">
-        <v>34000</v>
+        <v>38500</v>
       </c>
       <c r="J22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K22" s="3">
         <v>34500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>9400</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1830,18 +1870,18 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85200</v>
+        <v>103500</v>
       </c>
       <c r="E23" s="3">
-        <v>61900</v>
+        <v>86800</v>
       </c>
       <c r="F23" s="3">
-        <v>28100</v>
+        <v>63100</v>
       </c>
       <c r="G23" s="3">
-        <v>49800</v>
+        <v>28700</v>
       </c>
       <c r="H23" s="3">
-        <v>-97600</v>
+        <v>50700</v>
       </c>
       <c r="I23" s="3">
-        <v>-58500</v>
+        <v>-99400</v>
       </c>
       <c r="J23" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-163600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-287600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>72700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>67000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>45800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>19900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23200</v>
+        <v>19000</v>
       </c>
       <c r="E24" s="3">
-        <v>16400</v>
+        <v>23700</v>
       </c>
       <c r="F24" s="3">
-        <v>12200</v>
+        <v>16700</v>
       </c>
       <c r="G24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-33700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7500</v>
-      </c>
-      <c r="X24" s="3">
-        <v>5200</v>
       </c>
       <c r="Y24" s="3">
         <v>5200</v>
       </c>
       <c r="Z24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62000</v>
+        <v>84600</v>
       </c>
       <c r="E26" s="3">
-        <v>45600</v>
+        <v>63200</v>
       </c>
       <c r="F26" s="3">
-        <v>15900</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="3">
-        <v>39800</v>
+        <v>16200</v>
       </c>
       <c r="H26" s="3">
-        <v>-98800</v>
+        <v>40500</v>
       </c>
       <c r="I26" s="3">
-        <v>-63200</v>
+        <v>-100600</v>
       </c>
       <c r="J26" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-161800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-253800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>101900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>31300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16700</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-19400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>61600</v>
+        <v>84600</v>
       </c>
       <c r="E27" s="3">
-        <v>45700</v>
+        <v>62800</v>
       </c>
       <c r="F27" s="3">
-        <v>15900</v>
+        <v>46600</v>
       </c>
       <c r="G27" s="3">
-        <v>40800</v>
+        <v>16200</v>
       </c>
       <c r="H27" s="3">
-        <v>-98400</v>
+        <v>41600</v>
       </c>
       <c r="I27" s="3">
-        <v>-63200</v>
+        <v>-100200</v>
       </c>
       <c r="J27" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-160400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-252100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>102500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>49900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>199600</v>
+        <v>217900</v>
       </c>
       <c r="E32" s="3">
-        <v>158200</v>
+        <v>203400</v>
       </c>
       <c r="F32" s="3">
-        <v>245300</v>
+        <v>161200</v>
       </c>
       <c r="G32" s="3">
-        <v>136400</v>
+        <v>249900</v>
       </c>
       <c r="H32" s="3">
-        <v>261600</v>
+        <v>139000</v>
       </c>
       <c r="I32" s="3">
-        <v>174300</v>
+        <v>266500</v>
       </c>
       <c r="J32" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K32" s="3">
         <v>522600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>308900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-146700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>12900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>12600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>13400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15400</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-14400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-10500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>61600</v>
+        <v>84600</v>
       </c>
       <c r="E33" s="3">
-        <v>45700</v>
+        <v>62800</v>
       </c>
       <c r="F33" s="3">
-        <v>15900</v>
+        <v>46600</v>
       </c>
       <c r="G33" s="3">
-        <v>40800</v>
+        <v>16200</v>
       </c>
       <c r="H33" s="3">
-        <v>-98400</v>
+        <v>41600</v>
       </c>
       <c r="I33" s="3">
-        <v>-63200</v>
+        <v>-100200</v>
       </c>
       <c r="J33" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-160400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-252100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>102500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>33100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>61600</v>
+        <v>84600</v>
       </c>
       <c r="E35" s="3">
-        <v>45700</v>
+        <v>62800</v>
       </c>
       <c r="F35" s="3">
-        <v>15900</v>
+        <v>46600</v>
       </c>
       <c r="G35" s="3">
-        <v>40800</v>
+        <v>16200</v>
       </c>
       <c r="H35" s="3">
-        <v>-98400</v>
+        <v>41600</v>
       </c>
       <c r="I35" s="3">
-        <v>-63200</v>
+        <v>-100200</v>
       </c>
       <c r="J35" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-160400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-252100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>102500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>33100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,77 +3181,78 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>444600</v>
+        <v>759400</v>
       </c>
       <c r="E41" s="3">
-        <v>374500</v>
+        <v>452900</v>
       </c>
       <c r="F41" s="3">
-        <v>305300</v>
+        <v>381600</v>
       </c>
       <c r="G41" s="3">
-        <v>472900</v>
+        <v>311000</v>
       </c>
       <c r="H41" s="3">
-        <v>764300</v>
+        <v>481800</v>
       </c>
       <c r="I41" s="3">
-        <v>841600</v>
+        <v>778700</v>
       </c>
       <c r="J41" s="3">
+        <v>857400</v>
+      </c>
+      <c r="K41" s="3">
         <v>907400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>612600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1137100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>360800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>457800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>429000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>543400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>299300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>178900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>53200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>32100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>33400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3178,77 +3265,80 @@
       <c r="AC41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>705100</v>
+        <v>420000</v>
       </c>
       <c r="E42" s="3">
-        <v>657500</v>
+        <v>718400</v>
       </c>
       <c r="F42" s="3">
-        <v>697100</v>
+        <v>669800</v>
       </c>
       <c r="G42" s="3">
-        <v>548200</v>
+        <v>710200</v>
       </c>
       <c r="H42" s="3">
-        <v>502200</v>
+        <v>558500</v>
       </c>
       <c r="I42" s="3">
-        <v>509500</v>
+        <v>511600</v>
       </c>
       <c r="J42" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K42" s="3">
         <v>402300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>452300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>968100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1679500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1520700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1601800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>154300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>474300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>542500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>522600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>507400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>497800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>494300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>48800</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3261,77 +3351,80 @@
       <c r="AC42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3868100</v>
+        <v>4463600</v>
       </c>
       <c r="E43" s="3">
-        <v>3944400</v>
+        <v>3940700</v>
       </c>
       <c r="F43" s="3">
-        <v>4305300</v>
+        <v>4018500</v>
       </c>
       <c r="G43" s="3">
-        <v>3926900</v>
+        <v>4386100</v>
       </c>
       <c r="H43" s="3">
-        <v>3707500</v>
+        <v>4000700</v>
       </c>
       <c r="I43" s="3">
-        <v>3890200</v>
+        <v>3777100</v>
       </c>
       <c r="J43" s="3">
+        <v>3963200</v>
+      </c>
+      <c r="K43" s="3">
         <v>4115000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3562700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3331500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3326300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3393000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2683200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2593100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2653500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2338800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2375200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1971100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1667400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1233300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1385400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,77 +3523,80 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>914300</v>
+        <v>1024100</v>
       </c>
       <c r="E45" s="3">
-        <v>890600</v>
+        <v>931500</v>
       </c>
       <c r="F45" s="3">
-        <v>880600</v>
+        <v>907300</v>
       </c>
       <c r="G45" s="3">
-        <v>703400</v>
+        <v>897100</v>
       </c>
       <c r="H45" s="3">
-        <v>664500</v>
+        <v>716600</v>
       </c>
       <c r="I45" s="3">
-        <v>595300</v>
+        <v>677000</v>
       </c>
       <c r="J45" s="3">
+        <v>606500</v>
+      </c>
+      <c r="K45" s="3">
         <v>619300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>443700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>248600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>206600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>172200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>123600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>82800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>51100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4000</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5932100</v>
+        <v>6667100</v>
       </c>
       <c r="E46" s="3">
-        <v>5867000</v>
+        <v>6043500</v>
       </c>
       <c r="F46" s="3">
-        <v>6188300</v>
+        <v>5977100</v>
       </c>
       <c r="G46" s="3">
-        <v>5651500</v>
+        <v>6304500</v>
       </c>
       <c r="H46" s="3">
-        <v>5638600</v>
+        <v>5757600</v>
       </c>
       <c r="I46" s="3">
-        <v>5836500</v>
+        <v>5744500</v>
       </c>
       <c r="J46" s="3">
+        <v>5946100</v>
+      </c>
+      <c r="K46" s="3">
         <v>6044000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5508700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5916500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5578400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5477000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5547500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3463800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3417800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3399400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2934700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2921800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2492300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2218900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1300000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1471500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3593,77 +3695,80 @@
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51600</v>
+        <v>57800</v>
       </c>
       <c r="E47" s="3">
-        <v>50900</v>
+        <v>52600</v>
       </c>
       <c r="F47" s="3">
-        <v>86000</v>
+        <v>51800</v>
       </c>
       <c r="G47" s="3">
-        <v>99500</v>
+        <v>87600</v>
       </c>
       <c r="H47" s="3">
-        <v>76000</v>
+        <v>101400</v>
       </c>
       <c r="I47" s="3">
-        <v>210500</v>
+        <v>77400</v>
       </c>
       <c r="J47" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K47" s="3">
         <v>276400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>435900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>694500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3676,77 +3781,80 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>343200</v>
+        <v>340500</v>
       </c>
       <c r="E48" s="3">
-        <v>361400</v>
+        <v>349700</v>
       </c>
       <c r="F48" s="3">
-        <v>331300</v>
+        <v>368200</v>
       </c>
       <c r="G48" s="3">
-        <v>331600</v>
+        <v>337500</v>
       </c>
       <c r="H48" s="3">
-        <v>339200</v>
+        <v>337800</v>
       </c>
       <c r="I48" s="3">
-        <v>331400</v>
+        <v>345600</v>
       </c>
       <c r="J48" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K48" s="3">
         <v>316800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>262100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>188200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>172800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>134200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>126500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>117700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>117200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>101300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>88500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>70500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>62800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>57400</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3759,77 +3867,80 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1755500</v>
+        <v>1795700</v>
       </c>
       <c r="E49" s="3">
-        <v>1741400</v>
+        <v>1788400</v>
       </c>
       <c r="F49" s="3">
-        <v>1742300</v>
+        <v>1774100</v>
       </c>
       <c r="G49" s="3">
-        <v>1735600</v>
+        <v>1775100</v>
       </c>
       <c r="H49" s="3">
-        <v>1733300</v>
+        <v>1768200</v>
       </c>
       <c r="I49" s="3">
-        <v>1704800</v>
+        <v>1765800</v>
       </c>
       <c r="J49" s="3">
+        <v>1736800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1673300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1655300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>220700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>205200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>194600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>151500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>75200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>69000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>67800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>58500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>54900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>56800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>55900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,77 +4125,80 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142700</v>
+        <v>152300</v>
       </c>
       <c r="E52" s="3">
-        <v>156200</v>
+        <v>145400</v>
       </c>
       <c r="F52" s="3">
-        <v>178900</v>
+        <v>159100</v>
       </c>
       <c r="G52" s="3">
-        <v>200800</v>
+        <v>182300</v>
       </c>
       <c r="H52" s="3">
-        <v>188200</v>
+        <v>204500</v>
       </c>
       <c r="I52" s="3">
-        <v>162900</v>
+        <v>191700</v>
       </c>
       <c r="J52" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K52" s="3">
         <v>189000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>95100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>50200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>46400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>49600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>46600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>51900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>48400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>46800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>54500</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8225100</v>
+        <v>9013500</v>
       </c>
       <c r="E54" s="3">
-        <v>8176800</v>
+        <v>8379600</v>
       </c>
       <c r="F54" s="3">
-        <v>8526800</v>
+        <v>8330400</v>
       </c>
       <c r="G54" s="3">
-        <v>8019000</v>
+        <v>8686900</v>
       </c>
       <c r="H54" s="3">
-        <v>7975200</v>
+        <v>8169500</v>
       </c>
       <c r="I54" s="3">
-        <v>8246100</v>
+        <v>8125000</v>
       </c>
       <c r="J54" s="3">
+        <v>8400900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8496900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7997900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7129000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6132700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5939900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5888100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3769200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3669500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3621200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3143000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3109300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2667700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2371500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1452700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1643300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,77 +4449,78 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3220100</v>
+        <v>3633800</v>
       </c>
       <c r="E57" s="3">
-        <v>3235600</v>
+        <v>3280500</v>
       </c>
       <c r="F57" s="3">
-        <v>3466600</v>
+        <v>3296400</v>
       </c>
       <c r="G57" s="3">
-        <v>3072000</v>
+        <v>3531700</v>
       </c>
       <c r="H57" s="3">
-        <v>79800</v>
+        <v>3129700</v>
       </c>
       <c r="I57" s="3">
-        <v>3097000</v>
+        <v>81300</v>
       </c>
       <c r="J57" s="3">
+        <v>3155200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3248800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2991400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2156500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1673900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1749800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1691700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1382700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1118700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1218600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1073100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1105200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1088800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>912300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>865300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>940200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4402,77 +4533,80 @@
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>385400</v>
+        <v>405000</v>
       </c>
       <c r="E58" s="3">
-        <v>389600</v>
+        <v>392600</v>
       </c>
       <c r="F58" s="3">
-        <v>569700</v>
+        <v>396900</v>
       </c>
       <c r="G58" s="3">
-        <v>504700</v>
+        <v>580400</v>
       </c>
       <c r="H58" s="3">
-        <v>686000</v>
+        <v>514200</v>
       </c>
       <c r="I58" s="3">
-        <v>895900</v>
+        <v>698900</v>
       </c>
       <c r="J58" s="3">
+        <v>912800</v>
+      </c>
+      <c r="K58" s="3">
         <v>781800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>572100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>672500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>656700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>588400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>570000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>739900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>839400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>930600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>512800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>398400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>246700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>138700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3900</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4485,77 +4619,80 @@
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1058500</v>
+        <v>1210500</v>
       </c>
       <c r="E59" s="3">
-        <v>1027100</v>
+        <v>1078400</v>
       </c>
       <c r="F59" s="3">
-        <v>1044900</v>
+        <v>1046300</v>
       </c>
       <c r="G59" s="3">
-        <v>877900</v>
+        <v>1064500</v>
       </c>
       <c r="H59" s="3">
-        <v>745300</v>
+        <v>894400</v>
       </c>
       <c r="I59" s="3">
-        <v>706100</v>
+        <v>759300</v>
       </c>
       <c r="J59" s="3">
+        <v>719300</v>
+      </c>
+      <c r="K59" s="3">
         <v>569300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>422000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>171300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>165100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>125200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>86200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>29100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>46900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>27900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4664000</v>
+        <v>5249300</v>
       </c>
       <c r="E60" s="3">
-        <v>4652300</v>
+        <v>4751500</v>
       </c>
       <c r="F60" s="3">
-        <v>5081100</v>
+        <v>4739600</v>
       </c>
       <c r="G60" s="3">
-        <v>4454600</v>
+        <v>5176600</v>
       </c>
       <c r="H60" s="3">
-        <v>1511100</v>
+        <v>4538300</v>
       </c>
       <c r="I60" s="3">
-        <v>4699100</v>
+        <v>1539500</v>
       </c>
       <c r="J60" s="3">
+        <v>4787300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4599900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3985500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3039800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2502000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2503300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2386800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2208700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2015800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2192900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1619400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1539300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1370300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1080200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>923000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>972100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4651,77 +4791,80 @@
       <c r="AC60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>510200</v>
+        <v>561200</v>
       </c>
       <c r="E61" s="3">
-        <v>536800</v>
+        <v>519700</v>
       </c>
       <c r="F61" s="3">
-        <v>550700</v>
+        <v>546900</v>
       </c>
       <c r="G61" s="3">
-        <v>697000</v>
+        <v>561100</v>
       </c>
       <c r="H61" s="3">
-        <v>685200</v>
+        <v>710000</v>
       </c>
       <c r="I61" s="3">
-        <v>634600</v>
+        <v>698100</v>
       </c>
       <c r="J61" s="3">
+        <v>646500</v>
+      </c>
+      <c r="K61" s="3">
         <v>906000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>860300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1044200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>560400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>549800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>582500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>241400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>397800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>315400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>462600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>531100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>295800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>367400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>381000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>481100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4734,77 +4877,80 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>274900</v>
+        <v>289500</v>
       </c>
       <c r="E62" s="3">
-        <v>285100</v>
+        <v>280100</v>
       </c>
       <c r="F62" s="3">
-        <v>281100</v>
+        <v>290500</v>
       </c>
       <c r="G62" s="3">
-        <v>291400</v>
+        <v>286400</v>
       </c>
       <c r="H62" s="3">
-        <v>3224500</v>
+        <v>296900</v>
       </c>
       <c r="I62" s="3">
-        <v>211300</v>
+        <v>3285000</v>
       </c>
       <c r="J62" s="3">
+        <v>215200</v>
+      </c>
+      <c r="K62" s="3">
         <v>240400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>227700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>81800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>61100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>51000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>18800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5460300</v>
+        <v>6111300</v>
       </c>
       <c r="E66" s="3">
-        <v>5485400</v>
+        <v>5562900</v>
       </c>
       <c r="F66" s="3">
-        <v>5924300</v>
+        <v>5588400</v>
       </c>
       <c r="G66" s="3">
-        <v>5459100</v>
+        <v>6035600</v>
       </c>
       <c r="H66" s="3">
-        <v>5438100</v>
+        <v>5561600</v>
       </c>
       <c r="I66" s="3">
-        <v>5567900</v>
+        <v>5540200</v>
       </c>
       <c r="J66" s="3">
+        <v>5672500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5764700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5090800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4210900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3163600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3160900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3048700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2519400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2442000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2518100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2102100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2090000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1681600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1462900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1325800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1476000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,77 +5683,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2825300</v>
+        <v>2971000</v>
       </c>
       <c r="E72" s="3">
-        <v>2759800</v>
+        <v>2878300</v>
       </c>
       <c r="F72" s="3">
-        <v>2703800</v>
+        <v>2811700</v>
       </c>
       <c r="G72" s="3">
-        <v>2655600</v>
+        <v>2754500</v>
       </c>
       <c r="H72" s="3">
-        <v>2632600</v>
+        <v>2705500</v>
       </c>
       <c r="I72" s="3">
-        <v>2751900</v>
+        <v>2682100</v>
       </c>
       <c r="J72" s="3">
+        <v>2803500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2954400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3096800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3211200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2986400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2794100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2861600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1250900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1116500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1055200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1034600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>998300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>918700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>132900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>175600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2764800</v>
+        <v>2902100</v>
       </c>
       <c r="E76" s="3">
-        <v>2691400</v>
+        <v>2816700</v>
       </c>
       <c r="F76" s="3">
-        <v>2602500</v>
+        <v>2741900</v>
       </c>
       <c r="G76" s="3">
-        <v>2559900</v>
+        <v>2651400</v>
       </c>
       <c r="H76" s="3">
-        <v>2537100</v>
+        <v>2608000</v>
       </c>
       <c r="I76" s="3">
-        <v>2678200</v>
+        <v>2584800</v>
       </c>
       <c r="J76" s="3">
+        <v>2728500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2732200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2907100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2918100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2969000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2778900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2839400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1227500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1103100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1040900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1019300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>986200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>908600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>126900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>167300</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>61600</v>
+        <v>84600</v>
       </c>
       <c r="E81" s="3">
-        <v>45700</v>
+        <v>62800</v>
       </c>
       <c r="F81" s="3">
-        <v>15900</v>
+        <v>46600</v>
       </c>
       <c r="G81" s="3">
-        <v>40800</v>
+        <v>16200</v>
       </c>
       <c r="H81" s="3">
-        <v>-98400</v>
+        <v>41600</v>
       </c>
       <c r="I81" s="3">
-        <v>-63200</v>
+        <v>-100200</v>
       </c>
       <c r="J81" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-160400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-252100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>102500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>33100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-19600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44700</v>
+        <v>45800</v>
       </c>
       <c r="E83" s="3">
-        <v>42900</v>
+        <v>45600</v>
       </c>
       <c r="F83" s="3">
-        <v>43300</v>
+        <v>43700</v>
       </c>
       <c r="G83" s="3">
-        <v>41100</v>
+        <v>44200</v>
       </c>
       <c r="H83" s="3">
-        <v>39700</v>
+        <v>41900</v>
       </c>
       <c r="I83" s="3">
-        <v>37300</v>
+        <v>40500</v>
       </c>
       <c r="J83" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K83" s="3">
         <v>22500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>4400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168000</v>
+        <v>13100</v>
       </c>
       <c r="E89" s="3">
-        <v>235800</v>
+        <v>171200</v>
       </c>
       <c r="F89" s="3">
-        <v>69200</v>
+        <v>240300</v>
       </c>
       <c r="G89" s="3">
-        <v>-34100</v>
+        <v>70500</v>
       </c>
       <c r="H89" s="3">
-        <v>144200</v>
+        <v>-34800</v>
       </c>
       <c r="I89" s="3">
-        <v>160500</v>
+        <v>146900</v>
       </c>
       <c r="J89" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K89" s="3">
         <v>120100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>358300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>256000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-17300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-326800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>219400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>71400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-122500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-353300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-55200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-379200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-32200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-54900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-130100</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-332200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-416400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-155300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-109300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-216800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-241800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-546400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-151300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-64800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-30100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-17800</v>
       </c>
       <c r="Q91" s="3">
         <v>-17800</v>
       </c>
       <c r="R91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-13600</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102500</v>
+        <v>270700</v>
       </c>
       <c r="E94" s="3">
-        <v>10400</v>
+        <v>-104500</v>
       </c>
       <c r="F94" s="3">
-        <v>-168100</v>
+        <v>10600</v>
       </c>
       <c r="G94" s="3">
-        <v>-55800</v>
+        <v>-171300</v>
       </c>
       <c r="H94" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-151600</v>
-      </c>
       <c r="J94" s="3">
+        <v>-154400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-51200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-596400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>167200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-121200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1492000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>282300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>97400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-23100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>16900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-470400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>26700</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3100</v>
+        <v>22800</v>
       </c>
       <c r="E100" s="3">
-        <v>-179100</v>
+        <v>3200</v>
       </c>
       <c r="F100" s="3">
-        <v>-70900</v>
+        <v>-182500</v>
       </c>
       <c r="G100" s="3">
-        <v>-200200</v>
+        <v>-72200</v>
       </c>
       <c r="H100" s="3">
-        <v>-224300</v>
+        <v>-204000</v>
       </c>
       <c r="I100" s="3">
-        <v>-71900</v>
+        <v>-228500</v>
       </c>
       <c r="J100" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="K100" s="3">
         <v>225100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-328900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>345300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1704200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-255100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>279100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>35200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>387000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>870200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>229100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2100</v>
       </c>
       <c r="F101" s="3">
         <v>2100</v>
       </c>
       <c r="G101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4900</v>
       </c>
-      <c r="I101" s="3">
-        <v>-2800</v>
-      </c>
       <c r="J101" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
       </c>
       <c r="Q101" s="3">
         <v>-500</v>
       </c>
       <c r="R101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>1600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70100</v>
+        <v>306500</v>
       </c>
       <c r="E102" s="3">
-        <v>69200</v>
+        <v>71400</v>
       </c>
       <c r="F102" s="3">
-        <v>-167600</v>
+        <v>70500</v>
       </c>
       <c r="G102" s="3">
-        <v>-291400</v>
+        <v>-170800</v>
       </c>
       <c r="H102" s="3">
-        <v>-77300</v>
+        <v>-296900</v>
       </c>
       <c r="I102" s="3">
-        <v>-65800</v>
+        <v>-78700</v>
       </c>
       <c r="J102" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="K102" s="3">
         <v>293400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-570100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>776300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-113000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>47600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-114400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>246200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>108400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>133600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>15600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>22200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-74000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>125900</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
